--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/Google Drive/Poster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchals/Projects/lab-schall/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="460" windowWidth="32320" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
-    <sheet name="Da" sheetId="6" r:id="rId3"/>
-    <sheet name="Ga" sheetId="4" r:id="rId4"/>
-    <sheet name="He" sheetId="5" r:id="rId5"/>
+    <sheet name="Da2" sheetId="7" r:id="rId3"/>
+    <sheet name="DaTest" sheetId="8" r:id="rId4"/>
+    <sheet name="Da" sheetId="6" r:id="rId5"/>
+    <sheet name="Ga" sheetId="4" r:id="rId6"/>
+    <sheet name="He" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="250">
   <si>
     <t>a3</t>
   </si>
@@ -914,8 +916,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1151,7 +1155,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1213,6 +1217,7 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1274,6 +1279,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1554,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,11 +1798,11 @@
         <v>49</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:O20" si="1">N3</f>
+        <f t="shared" ref="O3:O19" si="1">N3</f>
         <v>right</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P20" si="2">IF(O3="left", "right", "left")</f>
+        <f t="shared" ref="P3:P19" si="2">IF(O3="left", "right", "left")</f>
         <v>left</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1990,7 +1996,7 @@
         <v>23500</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:W23" si="3">V5-U5</f>
+        <f t="shared" ref="W5:W16" si="3">V5-U5</f>
         <v>7500</v>
       </c>
       <c r="X5" s="1">
@@ -5315,10 +5321,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5443,18 +5449,18 @@
       <c r="B2" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="27">
-        <v>42415</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="C2" s="28"/>
+      <c r="D2" s="31">
+        <v>42562</v>
+      </c>
+      <c r="E2" s="28">
         <v>28</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>246</v>
@@ -5466,7 +5472,7 @@
         <v>245</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>87</v>
@@ -5478,38 +5484,39 @@
         <v>4</v>
       </c>
       <c r="O2" s="20" t="str">
-        <f t="shared" ref="O2:O7" si="0">N2</f>
+        <f t="shared" ref="O2:O24" si="0">N2</f>
         <v>left</v>
       </c>
       <c r="P2" s="20" t="str">
-        <f t="shared" ref="P2:P7" si="1">IF(O2="left", "right", "left")</f>
+        <f t="shared" ref="P2:P24" si="1">IF(O2="left", "right", "left")</f>
         <v>right</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="29">
+      <c r="R2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="32">
         <v>3</v>
       </c>
-      <c r="T2" s="29">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V2" s="36">
-        <v>18000</v>
+      <c r="T2" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="37">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="37">
+        <v>21000</v>
       </c>
       <c r="W2" s="36">
-        <v>23000</v>
-      </c>
-      <c r="X2" s="36">
-        <v>18000</v>
-      </c>
-      <c r="Y2" s="20">
+        <f>V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="28">
         <v>150</v>
       </c>
       <c r="Z2" s="30" t="s">
@@ -5518,8 +5525,8 @@
       <c r="AA2" s="33">
         <v>1</v>
       </c>
-      <c r="AB2" s="20">
-        <v>2</v>
+      <c r="AB2" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -5529,18 +5536,18 @@
       <c r="B3" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="27">
-        <v>42416</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="C3" s="28"/>
+      <c r="D3" s="31">
+        <v>42564</v>
+      </c>
+      <c r="E3" s="28">
         <v>28</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>246</v>
@@ -5552,7 +5559,7 @@
         <v>245</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>87</v>
@@ -5571,31 +5578,32 @@
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="29">
+      <c r="R3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="32">
         <v>3</v>
       </c>
-      <c r="T3" s="29">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V3" s="36">
-        <v>18000</v>
+      <c r="T3" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="37">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="37">
+        <v>21000</v>
       </c>
       <c r="W3" s="36">
-        <v>24450</v>
-      </c>
-      <c r="X3" s="36">
-        <v>19000</v>
-      </c>
-      <c r="Y3" s="20">
+        <f t="shared" ref="W3:W24" si="2">V3-U3</f>
+        <v>3800</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="28">
         <v>150</v>
       </c>
       <c r="Z3" s="30" t="s">
@@ -5604,8 +5612,8 @@
       <c r="AA3" s="33">
         <v>1</v>
       </c>
-      <c r="AB3" s="20">
-        <v>2</v>
+      <c r="AB3" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -5615,18 +5623,18 @@
       <c r="B4" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="27">
-        <v>42419</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C4" s="28"/>
+      <c r="D4" s="31">
+        <v>42566</v>
+      </c>
+      <c r="E4" s="28">
         <v>28</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>246</v>
@@ -5638,7 +5646,7 @@
         <v>245</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>87</v>
@@ -5657,31 +5665,32 @@
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="29">
+      <c r="R4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="32">
         <v>3</v>
       </c>
-      <c r="T4" s="29">
-        <v>0</v>
-      </c>
-      <c r="U4" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V4" s="36">
-        <v>18000</v>
+      <c r="T4" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="37">
+        <v>17200</v>
+      </c>
+      <c r="V4" s="37">
+        <v>21500</v>
       </c>
       <c r="W4" s="36">
-        <v>24650</v>
-      </c>
-      <c r="X4" s="36">
-        <v>18500</v>
-      </c>
-      <c r="Y4" s="20">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="28">
         <v>150</v>
       </c>
       <c r="Z4" s="30" t="s">
@@ -5690,8 +5699,8 @@
       <c r="AA4" s="33">
         <v>1</v>
       </c>
-      <c r="AB4" s="20">
-        <v>3</v>
+      <c r="AB4" s="28">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -5701,18 +5710,18 @@
       <c r="B5" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="27">
-        <v>42422</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="C5" s="28"/>
+      <c r="D5" s="31">
+        <v>42584</v>
+      </c>
+      <c r="E5" s="28">
         <v>28</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>246</v>
@@ -5724,7 +5733,7 @@
         <v>245</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>87</v>
@@ -5743,31 +5752,32 @@
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="29">
+      <c r="R5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="32">
         <v>2</v>
       </c>
-      <c r="T5" s="29">
-        <v>0</v>
-      </c>
-      <c r="U5" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V5" s="36">
+      <c r="T5" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U5" s="37">
         <v>18000</v>
       </c>
+      <c r="V5" s="37">
+        <v>22000</v>
+      </c>
       <c r="W5" s="36">
-        <v>24500</v>
-      </c>
-      <c r="X5" s="36">
-        <v>18400</v>
-      </c>
-      <c r="Y5" s="20">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="28">
         <v>150</v>
       </c>
       <c r="Z5" s="30" t="s">
@@ -5776,8 +5786,8 @@
       <c r="AA5" s="33">
         <v>1</v>
       </c>
-      <c r="AB5" s="20">
-        <v>4</v>
+      <c r="AB5" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -5787,18 +5797,18 @@
       <c r="B6" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="27">
-        <v>42423</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="C6" s="28"/>
+      <c r="D6" s="31">
+        <v>42590</v>
+      </c>
+      <c r="E6" s="28">
         <v>28</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>246</v>
@@ -5810,7 +5820,7 @@
         <v>245</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>87</v>
@@ -5829,31 +5839,32 @@
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="29">
+      <c r="R6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="32">
         <v>2</v>
       </c>
       <c r="T6" s="29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U6" s="36">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="V6" s="36">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="W6" s="36">
-        <v>24500</v>
-      </c>
-      <c r="X6" s="36">
-        <v>19300</v>
-      </c>
-      <c r="Y6" s="20">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="28">
         <v>150</v>
       </c>
       <c r="Z6" s="30" t="s">
@@ -5862,8 +5873,8 @@
       <c r="AA6" s="33">
         <v>1</v>
       </c>
-      <c r="AB6" s="20">
-        <v>4</v>
+      <c r="AB6" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -5873,18 +5884,18 @@
       <c r="B7" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="27">
-        <v>42425</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="28"/>
+      <c r="D7" s="31">
+        <v>42593</v>
+      </c>
+      <c r="E7" s="28">
         <v>28</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>246</v>
@@ -5896,7 +5907,7 @@
         <v>245</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>87</v>
@@ -5915,31 +5926,32 @@
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="29">
+      <c r="Q7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="29">
-        <v>0</v>
-      </c>
-      <c r="U7" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V7" s="36">
+      <c r="S7" s="32">
+        <v>3</v>
+      </c>
+      <c r="T7" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U7" s="37">
         <v>18000</v>
       </c>
+      <c r="V7" s="37">
+        <v>22000</v>
+      </c>
       <c r="W7" s="36">
-        <v>23650</v>
-      </c>
-      <c r="X7" s="36">
-        <v>18700</v>
-      </c>
-      <c r="Y7" s="20">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="28">
         <v>150</v>
       </c>
       <c r="Z7" s="30" t="s">
@@ -5948,8 +5960,8 @@
       <c r="AA7" s="33">
         <v>1</v>
       </c>
-      <c r="AB7" s="20">
-        <v>5</v>
+      <c r="AB7" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -5959,18 +5971,18 @@
       <c r="B8" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="27">
-        <v>42426</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C8" s="28"/>
+      <c r="D8" s="31">
+        <v>42594</v>
+      </c>
+      <c r="E8" s="28">
         <v>28</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>246</v>
@@ -5982,7 +5994,7 @@
         <v>245</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>87</v>
@@ -5994,38 +6006,39 @@
         <v>4</v>
       </c>
       <c r="O8" s="20" t="str">
-        <f t="shared" ref="O8:O37" si="2">N8</f>
+        <f t="shared" si="0"/>
         <v>left</v>
       </c>
       <c r="P8" s="20" t="str">
-        <f t="shared" ref="P8:P37" si="3">IF(O8="left", "right", "left")</f>
+        <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="Q8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="29">
+      <c r="Q8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="29">
-        <v>0</v>
-      </c>
-      <c r="U8" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V8" s="36">
+      <c r="S8" s="32">
+        <v>4</v>
+      </c>
+      <c r="T8" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U8" s="37">
         <v>18000</v>
       </c>
+      <c r="V8" s="37">
+        <v>25000</v>
+      </c>
       <c r="W8" s="36">
-        <v>23200</v>
-      </c>
-      <c r="X8" s="36">
-        <v>18000</v>
-      </c>
-      <c r="Y8" s="20">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="28">
         <v>150</v>
       </c>
       <c r="Z8" s="30" t="s">
@@ -6034,8 +6047,8 @@
       <c r="AA8" s="33">
         <v>1</v>
       </c>
-      <c r="AB8" s="20">
-        <v>5</v>
+      <c r="AB8" s="28">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -6045,18 +6058,18 @@
       <c r="B9" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="27">
-        <v>42429</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="C9" s="28"/>
+      <c r="D9" s="31">
+        <v>42598</v>
+      </c>
+      <c r="E9" s="28">
         <v>28</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>246</v>
@@ -6068,7 +6081,7 @@
         <v>245</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>87</v>
@@ -6080,38 +6093,39 @@
         <v>4</v>
       </c>
       <c r="O9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="32">
+        <v>4</v>
+      </c>
+      <c r="T9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V9" s="37">
+        <v>25000</v>
+      </c>
+      <c r="W9" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P9" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="29">
-        <v>1</v>
-      </c>
-      <c r="T9" s="29">
-        <v>0</v>
-      </c>
-      <c r="U9" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V9" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W9" s="36">
-        <v>24700</v>
-      </c>
-      <c r="X9" s="36">
-        <v>19700</v>
-      </c>
-      <c r="Y9" s="20">
+        <v>7000</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="28">
         <v>150</v>
       </c>
       <c r="Z9" s="30" t="s">
@@ -6120,8 +6134,8 @@
       <c r="AA9" s="33">
         <v>1</v>
       </c>
-      <c r="AB9" s="20">
-        <v>5</v>
+      <c r="AB9" s="28">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -6131,18 +6145,18 @@
       <c r="B10" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="27">
-        <v>42432</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="C10" s="28"/>
+      <c r="D10" s="31">
+        <v>42601</v>
+      </c>
+      <c r="E10" s="28">
         <v>28</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>246</v>
@@ -6154,7 +6168,7 @@
         <v>245</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>87</v>
@@ -6166,48 +6180,49 @@
         <v>4</v>
       </c>
       <c r="O10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="32">
+        <v>4</v>
+      </c>
+      <c r="T10" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V10" s="37">
+        <v>23800</v>
+      </c>
+      <c r="W10" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P10" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="T10" s="29">
-        <v>0</v>
-      </c>
-      <c r="U10" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V10" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W10" s="36">
-        <v>25500</v>
-      </c>
-      <c r="X10" s="36">
-        <v>19600</v>
-      </c>
-      <c r="Y10" s="20">
+        <v>5800</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="28">
         <v>150</v>
       </c>
       <c r="Z10" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA10" s="33">
         <v>1</v>
       </c>
-      <c r="AB10" s="20">
-        <v>6</v>
+      <c r="AB10" s="28">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -6217,18 +6232,18 @@
       <c r="B11" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="27">
-        <v>42436</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="C11" s="28"/>
+      <c r="D11" s="31">
+        <v>42611</v>
+      </c>
+      <c r="E11" s="28">
         <v>28</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>246</v>
@@ -6240,7 +6255,7 @@
         <v>245</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>87</v>
@@ -6252,48 +6267,49 @@
         <v>4</v>
       </c>
       <c r="O11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="32">
+        <v>4</v>
+      </c>
+      <c r="T11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V11" s="37">
+        <v>26000</v>
+      </c>
+      <c r="W11" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P11" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="29">
-        <v>3</v>
-      </c>
-      <c r="T11" s="29">
-        <v>1</v>
-      </c>
-      <c r="U11" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V11" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W11" s="36">
-        <v>25000</v>
-      </c>
-      <c r="X11" s="36">
-        <v>19000</v>
-      </c>
-      <c r="Y11" s="20">
+        <v>8000</v>
+      </c>
+      <c r="X11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="28">
         <v>150</v>
       </c>
       <c r="Z11" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA11" s="33">
         <v>1</v>
       </c>
-      <c r="AB11" s="20">
-        <v>7</v>
+      <c r="AB11" s="28">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -6303,18 +6319,18 @@
       <c r="B12" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="27">
-        <v>42437</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="C12" s="28"/>
+      <c r="D12" s="31">
+        <v>42613</v>
+      </c>
+      <c r="E12" s="28">
         <v>28</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>246</v>
@@ -6326,7 +6342,7 @@
         <v>245</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>87</v>
@@ -6338,48 +6354,49 @@
         <v>4</v>
       </c>
       <c r="O12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="32">
+        <v>4</v>
+      </c>
+      <c r="T12" s="32">
+        <v>3</v>
+      </c>
+      <c r="U12" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V12" s="37">
+        <v>22000</v>
+      </c>
+      <c r="W12" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P12" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="29">
-        <v>2</v>
-      </c>
-      <c r="T12" s="29">
-        <v>0</v>
-      </c>
-      <c r="U12" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V12" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W12" s="36" t="s">
+        <v>4000</v>
+      </c>
+      <c r="X12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="28">
         <v>150</v>
       </c>
       <c r="Z12" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="33">
         <v>1</v>
       </c>
-      <c r="AB12" s="20">
-        <v>4</v>
+      <c r="AB12" s="28">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -6389,18 +6406,18 @@
       <c r="B13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="27">
-        <v>42439</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="C13" s="28"/>
+      <c r="D13" s="31">
+        <v>42622</v>
+      </c>
+      <c r="E13" s="28">
         <v>28</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>246</v>
@@ -6412,7 +6429,7 @@
         <v>245</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>87</v>
@@ -6424,48 +6441,49 @@
         <v>4</v>
       </c>
       <c r="O13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="32">
+        <v>2</v>
+      </c>
+      <c r="T13" s="32">
+        <v>2</v>
+      </c>
+      <c r="U13" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V13" s="37">
+        <v>23500</v>
+      </c>
+      <c r="W13" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P13" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="29">
-        <v>2</v>
-      </c>
-      <c r="T13" s="29">
-        <v>1</v>
-      </c>
-      <c r="U13" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V13" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W13" s="36">
-        <v>24300</v>
-      </c>
-      <c r="X13" s="36">
-        <v>19000</v>
-      </c>
-      <c r="Y13" s="20">
+        <v>5500</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="28">
         <v>150</v>
       </c>
       <c r="Z13" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA13" s="33">
         <v>1</v>
       </c>
-      <c r="AB13" s="20">
-        <v>8</v>
+      <c r="AB13" s="28">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -6475,18 +6493,18 @@
       <c r="B14" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="27">
-        <v>42440</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="C14" s="28"/>
+      <c r="D14" s="31">
+        <v>42622</v>
+      </c>
+      <c r="E14" s="28">
         <v>28</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>246</v>
@@ -6498,7 +6516,7 @@
         <v>245</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>87</v>
@@ -6510,47 +6528,48 @@
         <v>4</v>
       </c>
       <c r="O14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="32">
+        <v>2</v>
+      </c>
+      <c r="T14" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="37">
+        <v>15650</v>
+      </c>
+      <c r="V14" s="37">
+        <v>21500</v>
+      </c>
+      <c r="W14" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="29">
-        <v>2</v>
-      </c>
-      <c r="T14" s="29">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="36">
-        <v>15500</v>
-      </c>
-      <c r="V14" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W14" s="36">
-        <v>24250</v>
-      </c>
-      <c r="X14" s="36">
-        <v>19500</v>
-      </c>
-      <c r="Y14" s="20">
+        <v>5850</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="28">
         <v>150</v>
       </c>
-      <c r="Z14" s="30" t="s">
-        <v>247</v>
+      <c r="Z14" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA14" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="20">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="28">
         <v>9</v>
       </c>
     </row>
@@ -6563,7 +6582,7 @@
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="31">
-        <v>42562</v>
+        <v>42625</v>
       </c>
       <c r="E15" s="28">
         <v>28</v>
@@ -6584,7 +6603,7 @@
         <v>245</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>87</v>
@@ -6596,34 +6615,34 @@
         <v>4</v>
       </c>
       <c r="O15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="32">
+        <v>2</v>
+      </c>
+      <c r="T15" s="32">
+        <v>2</v>
+      </c>
+      <c r="U15" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V15" s="37">
+        <v>25500</v>
+      </c>
+      <c r="W15" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P15" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q15" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="32">
-        <v>3</v>
-      </c>
-      <c r="T15" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U15" s="37">
-        <v>17200</v>
-      </c>
-      <c r="V15" s="37">
-        <v>21000</v>
-      </c>
-      <c r="W15" s="36">
-        <f>V15-U15</f>
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="X15" s="37" t="s">
         <v>25</v>
@@ -6638,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="28">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -6650,7 +6669,7 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="31">
-        <v>42564</v>
+        <v>42625</v>
       </c>
       <c r="E16" s="28">
         <v>28</v>
@@ -6671,7 +6690,7 @@
         <v>245</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>87</v>
@@ -6683,34 +6702,34 @@
         <v>4</v>
       </c>
       <c r="O16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="32">
+        <v>2</v>
+      </c>
+      <c r="T16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="37">
+        <v>15650</v>
+      </c>
+      <c r="V16" s="37">
+        <v>21500</v>
+      </c>
+      <c r="W16" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P16" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="32">
-        <v>3</v>
-      </c>
-      <c r="T16" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U16" s="37">
-        <v>17200</v>
-      </c>
-      <c r="V16" s="37">
-        <v>21000</v>
-      </c>
-      <c r="W16" s="36">
-        <f t="shared" ref="W16:W37" si="4">V16-U16</f>
-        <v>3800</v>
+        <v>5850</v>
       </c>
       <c r="X16" s="37" t="s">
         <v>25</v>
@@ -6718,14 +6737,14 @@
       <c r="Y16" s="28">
         <v>150</v>
       </c>
-      <c r="Z16" s="30" t="s">
-        <v>243</v>
+      <c r="Z16" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA16" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB16" s="28">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -6737,7 +6756,7 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="31">
-        <v>42566</v>
+        <v>42634</v>
       </c>
       <c r="E17" s="28">
         <v>28</v>
@@ -6758,7 +6777,7 @@
         <v>245</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>87</v>
@@ -6770,34 +6789,34 @@
         <v>4</v>
       </c>
       <c r="O17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="32">
+        <v>0</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>18000</v>
+      </c>
+      <c r="V17" s="37">
+        <v>19500</v>
+      </c>
+      <c r="W17" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P17" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="32">
-        <v>3</v>
-      </c>
-      <c r="T17" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="37">
-        <v>17200</v>
-      </c>
-      <c r="V17" s="37">
-        <v>21500</v>
-      </c>
-      <c r="W17" s="36">
-        <f t="shared" si="4"/>
-        <v>4300</v>
+        <v>1500</v>
       </c>
       <c r="X17" s="37" t="s">
         <v>25</v>
@@ -6812,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="AB17" s="28">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
@@ -6824,7 +6843,7 @@
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="31">
-        <v>42584</v>
+        <v>42634</v>
       </c>
       <c r="E18" s="28">
         <v>28</v>
@@ -6845,7 +6864,7 @@
         <v>245</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>87</v>
@@ -6857,34 +6876,34 @@
         <v>4</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>left</v>
       </c>
       <c r="P18" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>right</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>5</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S18" s="32">
         <v>2</v>
       </c>
       <c r="T18" s="32">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="37">
-        <v>18000</v>
+        <v>15650</v>
       </c>
       <c r="V18" s="37">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="W18" s="36">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>8350</v>
       </c>
       <c r="X18" s="37" t="s">
         <v>25</v>
@@ -6892,14 +6911,14 @@
       <c r="Y18" s="28">
         <v>150</v>
       </c>
-      <c r="Z18" s="30" t="s">
-        <v>243</v>
+      <c r="Z18" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA18" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB18" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -6911,7 +6930,7 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="31">
-        <v>42590</v>
+        <v>42639</v>
       </c>
       <c r="E19" s="28">
         <v>28</v>
@@ -6932,7 +6951,7 @@
         <v>245</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>87</v>
@@ -6944,34 +6963,34 @@
         <v>4</v>
       </c>
       <c r="O19" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>left</v>
       </c>
       <c r="P19" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>right</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="R19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="32">
-        <v>2</v>
-      </c>
-      <c r="T19" s="29">
+        <v>0</v>
+      </c>
+      <c r="T19" s="32">
         <v>-2</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="37">
         <v>18000</v>
       </c>
-      <c r="V19" s="36">
-        <v>25000</v>
+      <c r="V19" s="37">
+        <v>18500</v>
       </c>
       <c r="W19" s="36">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="X19" s="37" t="s">
         <v>25</v>
@@ -6986,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="AB19" s="28">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -6998,7 +7017,7 @@
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="31">
-        <v>42593</v>
+        <v>42639</v>
       </c>
       <c r="E20" s="28">
         <v>28</v>
@@ -7019,7 +7038,7 @@
         <v>245</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>87</v>
@@ -7031,34 +7050,34 @@
         <v>4</v>
       </c>
       <c r="O20" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>left</v>
       </c>
       <c r="P20" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>right</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R20" s="28" t="s">
         <v>1</v>
       </c>
       <c r="S20" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" s="32">
         <v>-2</v>
       </c>
       <c r="U20" s="37">
-        <v>18000</v>
+        <v>15650</v>
       </c>
       <c r="V20" s="37">
-        <v>22000</v>
+        <v>22300</v>
       </c>
       <c r="W20" s="36">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>6650</v>
       </c>
       <c r="X20" s="37" t="s">
         <v>25</v>
@@ -7066,14 +7085,14 @@
       <c r="Y20" s="28">
         <v>150</v>
       </c>
-      <c r="Z20" s="30" t="s">
-        <v>243</v>
+      <c r="Z20" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA20" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB20" s="28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -7085,7 +7104,7 @@
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="31">
-        <v>42594</v>
+        <v>42641</v>
       </c>
       <c r="E21" s="28">
         <v>28</v>
@@ -7106,7 +7125,7 @@
         <v>245</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>87</v>
@@ -7118,21 +7137,21 @@
         <v>4</v>
       </c>
       <c r="O21" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>left</v>
       </c>
       <c r="P21" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>right</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R21" s="28" t="s">
         <v>1</v>
       </c>
       <c r="S21" s="32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T21" s="32">
         <v>-2</v>
@@ -7141,11 +7160,11 @@
         <v>18000</v>
       </c>
       <c r="V21" s="37">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="W21" s="36">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="X21" s="37" t="s">
         <v>25</v>
@@ -7160,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="28">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -7172,7 +7191,7 @@
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="31">
-        <v>42598</v>
+        <v>42641</v>
       </c>
       <c r="E22" s="28">
         <v>28</v>
@@ -7193,7 +7212,7 @@
         <v>245</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>87</v>
@@ -7205,34 +7224,34 @@
         <v>4</v>
       </c>
       <c r="O22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="32">
+        <v>2</v>
+      </c>
+      <c r="T22" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U22" s="37">
+        <v>15650</v>
+      </c>
+      <c r="V22" s="37">
+        <v>22300</v>
+      </c>
+      <c r="W22" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P22" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="32">
-        <v>4</v>
-      </c>
-      <c r="T22" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V22" s="37">
-        <v>25000</v>
-      </c>
-      <c r="W22" s="36">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>6650</v>
       </c>
       <c r="X22" s="37" t="s">
         <v>25</v>
@@ -7240,14 +7259,14 @@
       <c r="Y22" s="28">
         <v>150</v>
       </c>
-      <c r="Z22" s="30" t="s">
-        <v>243</v>
+      <c r="Z22" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA22" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB22" s="28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -7259,7 +7278,7 @@
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="31">
-        <v>42601</v>
+        <v>42646</v>
       </c>
       <c r="E23" s="28">
         <v>28</v>
@@ -7280,7 +7299,7 @@
         <v>245</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L23" s="20" t="s">
         <v>87</v>
@@ -7292,34 +7311,34 @@
         <v>4</v>
       </c>
       <c r="O23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U23" s="37">
+        <v>15650</v>
+      </c>
+      <c r="V23" s="37">
+        <v>25000</v>
+      </c>
+      <c r="W23" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P23" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="32">
-        <v>4</v>
-      </c>
-      <c r="T23" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U23" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V23" s="37">
-        <v>23800</v>
-      </c>
-      <c r="W23" s="36">
-        <f t="shared" si="4"/>
-        <v>5800</v>
+        <v>9350</v>
       </c>
       <c r="X23" s="37" t="s">
         <v>25</v>
@@ -7327,14 +7346,14 @@
       <c r="Y23" s="28">
         <v>150</v>
       </c>
-      <c r="Z23" s="30" t="s">
-        <v>243</v>
+      <c r="Z23" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA23" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB23" s="28">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -7346,7 +7365,7 @@
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="31">
-        <v>42611</v>
+        <v>42648</v>
       </c>
       <c r="E24" s="28">
         <v>28</v>
@@ -7367,7 +7386,7 @@
         <v>245</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>87</v>
@@ -7379,34 +7398,34 @@
         <v>4</v>
       </c>
       <c r="O24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="32">
+        <v>0</v>
+      </c>
+      <c r="T24" s="32">
+        <v>-2</v>
+      </c>
+      <c r="U24" s="37">
+        <v>15650</v>
+      </c>
+      <c r="V24" s="37">
+        <v>26500</v>
+      </c>
+      <c r="W24" s="36">
         <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P24" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="32">
-        <v>4</v>
-      </c>
-      <c r="T24" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U24" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V24" s="37">
-        <v>26000</v>
-      </c>
-      <c r="W24" s="36">
-        <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10850</v>
       </c>
       <c r="X24" s="37" t="s">
         <v>25</v>
@@ -7414,1156 +7433,259 @@
       <c r="Y24" s="28">
         <v>150</v>
       </c>
-      <c r="Z24" s="30" t="s">
-        <v>243</v>
+      <c r="Z24" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AA24" s="33">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB24" s="28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31">
-        <v>42613</v>
-      </c>
-      <c r="E25" s="28">
-        <v>28</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P25" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="32">
-        <v>4</v>
-      </c>
-      <c r="T25" s="32">
-        <v>3</v>
-      </c>
-      <c r="U25" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V25" s="37">
-        <v>22000</v>
-      </c>
-      <c r="W25" s="36">
-        <f t="shared" si="4"/>
-        <v>4000</v>
-      </c>
-      <c r="X25" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y25" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z25" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA25" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31">
-        <v>42622</v>
-      </c>
-      <c r="E26" s="28">
-        <v>28</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P26" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q26" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="S26" s="32">
-        <v>2</v>
-      </c>
-      <c r="T26" s="32">
-        <v>2</v>
-      </c>
-      <c r="U26" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V26" s="37">
-        <v>23500</v>
-      </c>
-      <c r="W26" s="36">
-        <f t="shared" si="4"/>
-        <v>5500</v>
-      </c>
-      <c r="X26" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y26" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z26" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA26" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="31">
-        <v>42622</v>
-      </c>
-      <c r="E27" s="28">
-        <v>28</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P27" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S27" s="32">
-        <v>2</v>
-      </c>
-      <c r="T27" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U27" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V27" s="37">
-        <v>21500</v>
-      </c>
-      <c r="W27" s="36">
-        <f t="shared" si="4"/>
-        <v>5850</v>
-      </c>
-      <c r="X27" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z27" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA27" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB27" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="31">
-        <v>42625</v>
-      </c>
-      <c r="E28" s="28">
-        <v>28</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P28" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q28" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="S28" s="32">
-        <v>2</v>
-      </c>
-      <c r="T28" s="32">
-        <v>2</v>
-      </c>
-      <c r="U28" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V28" s="37">
-        <v>25500</v>
-      </c>
-      <c r="W28" s="36">
-        <f t="shared" si="4"/>
-        <v>7500</v>
-      </c>
-      <c r="X28" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y28" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z28" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA28" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31">
-        <v>42625</v>
-      </c>
-      <c r="E29" s="28">
-        <v>28</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P29" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q29" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="32">
-        <v>2</v>
-      </c>
-      <c r="T29" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U29" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V29" s="37">
-        <v>21500</v>
-      </c>
-      <c r="W29" s="36">
-        <f t="shared" si="4"/>
-        <v>5850</v>
-      </c>
-      <c r="X29" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z29" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA29" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB29" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="31">
-        <v>42634</v>
-      </c>
-      <c r="E30" s="28">
-        <v>28</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P30" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q30" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" s="32">
-        <v>0</v>
-      </c>
-      <c r="T30" s="32">
-        <v>0</v>
-      </c>
-      <c r="U30" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V30" s="37">
-        <v>19500</v>
-      </c>
-      <c r="W30" s="36">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="X30" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y30" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z30" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA30" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="31">
-        <v>42634</v>
-      </c>
-      <c r="E31" s="28">
-        <v>28</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P31" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q31" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="32">
-        <v>2</v>
-      </c>
-      <c r="T31" s="32">
-        <v>-1</v>
-      </c>
-      <c r="U31" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V31" s="37">
-        <v>24000</v>
-      </c>
-      <c r="W31" s="36">
-        <f t="shared" si="4"/>
-        <v>8350</v>
-      </c>
-      <c r="X31" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z31" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA31" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB31" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="31">
-        <v>42639</v>
-      </c>
-      <c r="E32" s="28">
-        <v>28</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P32" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" s="32">
-        <v>0</v>
-      </c>
-      <c r="T32" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U32" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V32" s="37">
-        <v>18500</v>
-      </c>
-      <c r="W32" s="36">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="X32" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y32" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z32" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA32" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="31">
-        <v>42639</v>
-      </c>
-      <c r="E33" s="28">
-        <v>28</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P33" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q33" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" s="32">
-        <v>2</v>
-      </c>
-      <c r="T33" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U33" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V33" s="37">
-        <v>22300</v>
-      </c>
-      <c r="W33" s="36">
-        <f t="shared" si="4"/>
-        <v>6650</v>
-      </c>
-      <c r="X33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y33" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z33" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA33" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB33" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="31">
-        <v>42641</v>
-      </c>
-      <c r="E34" s="28">
-        <v>28</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P34" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q34" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" s="32">
-        <v>0</v>
-      </c>
-      <c r="T34" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U34" s="37">
-        <v>18000</v>
-      </c>
-      <c r="V34" s="37">
-        <v>18500</v>
-      </c>
-      <c r="W34" s="36">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="X34" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y34" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z34" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA34" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="31">
-        <v>42641</v>
-      </c>
-      <c r="E35" s="28">
-        <v>28</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P35" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q35" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S35" s="32">
-        <v>2</v>
-      </c>
-      <c r="T35" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U35" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V35" s="37">
-        <v>22300</v>
-      </c>
-      <c r="W35" s="36">
-        <f t="shared" si="4"/>
-        <v>6650</v>
-      </c>
-      <c r="X35" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y35" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z35" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA35" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB35" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="31">
-        <v>42646</v>
-      </c>
-      <c r="E36" s="28">
-        <v>28</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P36" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q36" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S36" s="32">
-        <v>0</v>
-      </c>
-      <c r="T36" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U36" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V36" s="37">
-        <v>25000</v>
-      </c>
-      <c r="W36" s="36">
-        <f t="shared" si="4"/>
-        <v>9350</v>
-      </c>
-      <c r="X36" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y36" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z36" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA36" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB36" s="28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="31">
-        <v>42648</v>
-      </c>
-      <c r="E37" s="28">
-        <v>28</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="P37" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="Q37" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" s="32">
-        <v>0</v>
-      </c>
-      <c r="T37" s="32">
-        <v>-2</v>
-      </c>
-      <c r="U37" s="37">
-        <v>15650</v>
-      </c>
-      <c r="V37" s="37">
-        <v>26500</v>
-      </c>
-      <c r="W37" s="36">
-        <f t="shared" si="4"/>
-        <v>10850</v>
-      </c>
-      <c r="X37" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y37" s="28">
-        <v>150</v>
-      </c>
-      <c r="Z37" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA37" s="33">
-        <v>33</v>
-      </c>
-      <c r="AB37" s="28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
+    <row r="25" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -8573,8 +7695,8 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
+    <row r="39" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -8591,8 +7713,8 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
+    <row r="40" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -8609,7 +7731,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -8627,7 +7749,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -8645,7 +7767,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -8663,7 +7785,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -8681,7 +7803,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -8699,7 +7821,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -8717,7 +7839,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -8735,7 +7857,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -9257,244 +8379,7 @@
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="2:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13">
-        <v>150</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="32" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9505,9 +8390,3306 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AB44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="24.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
+    <col min="24" max="25" width="18.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="106.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="29.5" style="10" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
+        <v>42416</v>
+      </c>
+      <c r="E2" s="20">
+        <v>28</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="20" t="str">
+        <f t="shared" ref="O2:O4" si="0">N2</f>
+        <v>left</v>
+      </c>
+      <c r="P2" s="20" t="str">
+        <f t="shared" ref="P2:P4" si="1">IF(O2="left", "right", "left")</f>
+        <v>right</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="29">
+        <v>3</v>
+      </c>
+      <c r="T2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V2" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W2" s="36">
+        <v>24450</v>
+      </c>
+      <c r="X2" s="36">
+        <v>19000</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="27">
+        <v>42425</v>
+      </c>
+      <c r="E3" s="20">
+        <v>28</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P3" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="29">
+        <v>1</v>
+      </c>
+      <c r="T3" s="29">
+        <v>0</v>
+      </c>
+      <c r="U3" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V3" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W3" s="36">
+        <v>23650</v>
+      </c>
+      <c r="X3" s="36">
+        <v>18700</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="27">
+        <v>42439</v>
+      </c>
+      <c r="E4" s="20">
+        <v>28</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="29">
+        <v>2</v>
+      </c>
+      <c r="T4" s="29">
+        <v>1</v>
+      </c>
+      <c r="U4" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V4" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W4" s="36">
+        <v>24300</v>
+      </c>
+      <c r="X4" s="36">
+        <v>19000</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="32" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="24.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="12.5" style="1" customWidth="1"/>
+    <col min="24" max="25" width="18.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="106.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="29.5" style="10" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="27">
+        <v>42415</v>
+      </c>
+      <c r="E2" s="20">
+        <v>28</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="20" t="str">
+        <f t="shared" ref="O2:O7" si="0">N2</f>
+        <v>left</v>
+      </c>
+      <c r="P2" s="20" t="str">
+        <f t="shared" ref="P2:P7" si="1">IF(O2="left", "right", "left")</f>
+        <v>right</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="29">
+        <v>3</v>
+      </c>
+      <c r="T2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V2" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W2" s="36">
+        <v>23000</v>
+      </c>
+      <c r="X2" s="36">
+        <v>18000</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="27">
+        <v>42416</v>
+      </c>
+      <c r="E3" s="20">
+        <v>28</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P3" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="29">
+        <v>3</v>
+      </c>
+      <c r="T3" s="29">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V3" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W3" s="36">
+        <v>24450</v>
+      </c>
+      <c r="X3" s="36">
+        <v>19000</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="27">
+        <v>42419</v>
+      </c>
+      <c r="E4" s="20">
+        <v>28</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="29">
+        <v>3</v>
+      </c>
+      <c r="T4" s="29">
+        <v>0</v>
+      </c>
+      <c r="U4" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V4" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W4" s="36">
+        <v>24650</v>
+      </c>
+      <c r="X4" s="36">
+        <v>18500</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="27">
+        <v>42422</v>
+      </c>
+      <c r="E5" s="20">
+        <v>28</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="29">
+        <v>2</v>
+      </c>
+      <c r="T5" s="29">
+        <v>0</v>
+      </c>
+      <c r="U5" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V5" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W5" s="36">
+        <v>24500</v>
+      </c>
+      <c r="X5" s="36">
+        <v>18400</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="27">
+        <v>42423</v>
+      </c>
+      <c r="E6" s="20">
+        <v>28</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="29">
+        <v>2</v>
+      </c>
+      <c r="T6" s="29">
+        <v>0</v>
+      </c>
+      <c r="U6" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V6" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W6" s="36">
+        <v>24500</v>
+      </c>
+      <c r="X6" s="36">
+        <v>19300</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="27">
+        <v>42425</v>
+      </c>
+      <c r="E7" s="20">
+        <v>28</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>left</v>
+      </c>
+      <c r="P7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>right</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0</v>
+      </c>
+      <c r="U7" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V7" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W7" s="36">
+        <v>23650</v>
+      </c>
+      <c r="X7" s="36">
+        <v>18700</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="27">
+        <v>42426</v>
+      </c>
+      <c r="E8" s="20">
+        <v>28</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="20" t="str">
+        <f t="shared" ref="O8:O14" si="2">N8</f>
+        <v>left</v>
+      </c>
+      <c r="P8" s="20" t="str">
+        <f t="shared" ref="P8:P14" si="3">IF(O8="left", "right", "left")</f>
+        <v>right</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1</v>
+      </c>
+      <c r="T8" s="29">
+        <v>0</v>
+      </c>
+      <c r="U8" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V8" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W8" s="36">
+        <v>23200</v>
+      </c>
+      <c r="X8" s="36">
+        <v>18000</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z8" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27">
+        <v>42429</v>
+      </c>
+      <c r="E9" s="20">
+        <v>28</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P9" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
+      <c r="T9" s="29">
+        <v>0</v>
+      </c>
+      <c r="U9" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V9" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W9" s="36">
+        <v>24700</v>
+      </c>
+      <c r="X9" s="36">
+        <v>19700</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z9" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="27">
+        <v>42432</v>
+      </c>
+      <c r="E10" s="20">
+        <v>28</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0</v>
+      </c>
+      <c r="U10" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V10" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W10" s="36">
+        <v>25500</v>
+      </c>
+      <c r="X10" s="36">
+        <v>19600</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="27">
+        <v>42436</v>
+      </c>
+      <c r="E11" s="20">
+        <v>28</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="29">
+        <v>3</v>
+      </c>
+      <c r="T11" s="29">
+        <v>1</v>
+      </c>
+      <c r="U11" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V11" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W11" s="36">
+        <v>25000</v>
+      </c>
+      <c r="X11" s="36">
+        <v>19000</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z11" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27">
+        <v>42437</v>
+      </c>
+      <c r="E12" s="20">
+        <v>28</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P12" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="29">
+        <v>2</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V12" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z12" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27">
+        <v>42439</v>
+      </c>
+      <c r="E13" s="20">
+        <v>28</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P13" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="29">
+        <v>2</v>
+      </c>
+      <c r="T13" s="29">
+        <v>1</v>
+      </c>
+      <c r="U13" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V13" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W13" s="36">
+        <v>24300</v>
+      </c>
+      <c r="X13" s="36">
+        <v>19000</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z13" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="27">
+        <v>42440</v>
+      </c>
+      <c r="E14" s="20">
+        <v>28</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="P14" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>right</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="29">
+        <v>2</v>
+      </c>
+      <c r="T14" s="29">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="36">
+        <v>15500</v>
+      </c>
+      <c r="V14" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W14" s="36">
+        <v>24250</v>
+      </c>
+      <c r="X14" s="36">
+        <v>19500</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>150</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" spans="2:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="32" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
@@ -9959,7 +12141,7 @@
         <v>6005</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5:X16" si="3">W5-V5</f>
+        <f t="shared" ref="X5:X14" si="3">W5-V5</f>
         <v>1906</v>
       </c>
       <c r="Y5" s="16" t="s">
@@ -10863,15 +13045,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="23000" windowHeight="14760" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="23000" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -1357,8 +1357,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1669,7 +1673,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1764,6 +1768,8 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1858,6 +1864,8 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2138,7 +2146,7 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -4088,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5770,8 +5778,8 @@
   </sheetPr>
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8562,7 +8570,7 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
     <col min="9" max="9" width="72.6640625" customWidth="1"/>
     <col min="10" max="10" width="42.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="22" max="24" width="30" customWidth="1"/>
@@ -10740,7 +10748,7 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32440" windowHeight="20040" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="19940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="393">
   <si>
     <t>a3</t>
   </si>
@@ -400,12 +400,6 @@
     <t>Behav.mat</t>
   </si>
   <si>
-    <t>/Channel*/*-threshMUA.mat</t>
-  </si>
-  <si>
-    <t>filename_mua</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -913,60 +907,6 @@
     <t>Users/Wolf/ephys_db/Darwin/2016-03-11a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
     <t>data/Darwin/Raw/Init_SetUp-160711-151215</t>
   </si>
   <si>
@@ -1217,6 +1157,60 @@
   </si>
   <si>
     <t>Users/Wolf/ephys_db/Helmholtz/2015-03-12a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/chan*.mat</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2165,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -2251,13 +2245,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
@@ -2334,13 +2328,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
@@ -2417,13 +2411,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
@@ -2500,13 +2494,13 @@
         <v>101</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>49</v>
@@ -2583,13 +2577,13 @@
         <v>101</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>49</v>
@@ -2666,13 +2660,13 @@
         <v>101</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>
@@ -2749,13 +2743,13 @@
         <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>49</v>
@@ -2832,13 +2826,13 @@
         <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>49</v>
@@ -2915,13 +2909,13 @@
         <v>101</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>49</v>
@@ -2998,13 +2992,13 @@
         <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>49</v>
@@ -3081,13 +3075,13 @@
         <v>101</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>49</v>
@@ -3164,13 +3158,13 @@
         <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>49</v>
@@ -3247,13 +3241,13 @@
         <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>49</v>
@@ -3330,13 +3324,13 @@
         <v>101</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>49</v>
@@ -3413,13 +3407,13 @@
         <v>101</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>49</v>
@@ -3496,13 +3490,13 @@
         <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>49</v>
@@ -3579,13 +3573,13 @@
         <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>49</v>
@@ -3662,13 +3656,13 @@
         <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>49</v>
@@ -3745,13 +3739,13 @@
         <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>49</v>
@@ -3828,13 +3822,13 @@
         <v>101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>49</v>
@@ -3911,13 +3905,13 @@
         <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>49</v>
@@ -3994,13 +3988,13 @@
         <v>101</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>49</v>
@@ -4127,7 +4121,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -4207,13 +4201,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>49</v>
@@ -4289,13 +4283,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>49</v>
@@ -4371,13 +4365,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>49</v>
@@ -4453,13 +4447,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>49</v>
@@ -4535,13 +4529,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>49</v>
@@ -4617,13 +4611,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>
@@ -4699,13 +4693,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>49</v>
@@ -4781,13 +4775,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>49</v>
@@ -4863,13 +4857,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>49</v>
@@ -4945,13 +4939,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>49</v>
@@ -5027,13 +5021,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>49</v>
@@ -5109,13 +5103,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>49</v>
@@ -5191,13 +5185,13 @@
         <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>49</v>
@@ -5273,13 +5267,13 @@
         <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>49</v>
@@ -5355,13 +5349,13 @@
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>49</v>
@@ -5437,13 +5431,13 @@
         <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>49</v>
@@ -5519,13 +5513,13 @@
         <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>49</v>
@@ -5601,13 +5595,13 @@
         <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>49</v>
@@ -5683,13 +5677,13 @@
         <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>49</v>
@@ -5811,7 +5805,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -5891,13 +5885,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>49</v>
@@ -5974,13 +5968,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>49</v>
@@ -6057,13 +6051,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>49</v>
@@ -6140,13 +6134,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>49</v>
@@ -6223,13 +6217,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>49</v>
@@ -6306,13 +6300,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>49</v>
@@ -6389,13 +6383,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>49</v>
@@ -6472,13 +6466,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>49</v>
@@ -6555,13 +6549,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>49</v>
@@ -6639,13 +6633,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>49</v>
@@ -6723,13 +6717,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>49</v>
@@ -6807,13 +6801,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>49</v>
@@ -8407,10 +8401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8419,15 +8413,15 @@
     <col min="9" max="9" width="72.6640625" customWidth="1"/>
     <col min="10" max="10" width="42.6640625" customWidth="1"/>
     <col min="11" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="12" width="48.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="22" max="24" width="30" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="105.5" customWidth="1"/>
-    <col min="27" max="28" width="30" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="21" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="105.5" customWidth="1"/>
+    <col min="26" max="27" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -8450,7 +8444,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -8462,58 +8456,55 @@
         <v>120</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -8539,68 +8530,65 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
         <v>3</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W2" s="36">
+        <f>V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="31">
-        <v>3</v>
-      </c>
-      <c r="U2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V2" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W2" s="35">
-        <v>21000</v>
-      </c>
-      <c r="X2" s="36">
-        <f>W2-V2</f>
-        <v>3800</v>
-      </c>
-      <c r="Y2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="27">
         <v>1</v>
       </c>
-      <c r="AB2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
@@ -8626,68 +8614,65 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="31">
         <v>3</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="27" t="s">
+      <c r="T3" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W3" s="36">
+        <f t="shared" ref="W3:W24" si="0">V3-U3</f>
+        <v>3800</v>
+      </c>
+      <c r="X3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="7">
         <v>1</v>
       </c>
-      <c r="T3" s="31">
-        <v>3</v>
-      </c>
-      <c r="U3" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V3" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W3" s="35">
-        <v>21000</v>
-      </c>
-      <c r="X3" s="36">
-        <f t="shared" ref="X3:X24" si="0">W3-V3</f>
-        <v>3800</v>
-      </c>
-      <c r="Y3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="27">
         <v>1</v>
       </c>
-      <c r="AB3" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -8713,68 +8698,65 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31">
         <v>3</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>5</v>
-      </c>
       <c r="T4" s="31">
-        <v>3</v>
-      </c>
-      <c r="U4" s="31">
         <v>-1</v>
       </c>
+      <c r="U4" s="35">
+        <v>17200</v>
+      </c>
       <c r="V4" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W4" s="35">
         <v>21500</v>
       </c>
-      <c r="X4" s="36">
+      <c r="W4" s="36">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="X4" s="27">
         <v>150</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Y4" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="Z4" s="7">
         <v>1</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AA4" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -8800,68 +8782,65 @@
         <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q5" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
       <c r="T5" s="31">
-        <v>2</v>
-      </c>
-      <c r="U5" s="31">
         <v>-2</v>
       </c>
+      <c r="U5" s="35">
+        <v>18000</v>
+      </c>
       <c r="V5" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W5" s="35">
         <v>22000</v>
       </c>
-      <c r="X5" s="36">
+      <c r="W5" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="X5" s="27">
         <v>150</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Y5" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="Z5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AA5" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
@@ -8887,68 +8866,65 @@
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q6" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="31">
+      <c r="S6" s="31">
         <v>2</v>
       </c>
-      <c r="U6" s="34">
+      <c r="T6" s="34">
         <v>-2</v>
       </c>
+      <c r="U6" s="36">
+        <v>18000</v>
+      </c>
       <c r="V6" s="36">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="W6" s="36">
-        <v>25000</v>
-      </c>
-      <c r="X6" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="X6" s="27">
         <v>150</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Y6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="Z6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AA6" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -8974,68 +8950,65 @@
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="31">
         <v>3</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>1</v>
-      </c>
       <c r="T7" s="31">
-        <v>3</v>
-      </c>
-      <c r="U7" s="31">
         <v>-2</v>
       </c>
+      <c r="U7" s="35">
+        <v>18000</v>
+      </c>
       <c r="V7" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W7" s="35">
         <v>22000</v>
       </c>
-      <c r="X7" s="36">
+      <c r="W7" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="X7" s="27">
         <v>150</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="Y7" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="Z7" s="7">
         <v>1</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AA7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
@@ -9061,68 +9034,65 @@
         <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q8" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S8" s="31">
+        <v>4</v>
+      </c>
       <c r="T8" s="31">
-        <v>4</v>
-      </c>
-      <c r="U8" s="31">
         <v>-2</v>
       </c>
+      <c r="U8" s="35">
+        <v>18000</v>
+      </c>
       <c r="V8" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W8" s="35">
         <v>25000</v>
       </c>
-      <c r="X8" s="36">
+      <c r="W8" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="X8" s="27">
         <v>150</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="Y8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="Z8" s="7">
         <v>1</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AA8" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>111</v>
       </c>
@@ -9148,68 +9118,65 @@
         <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q9" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S9" s="31">
+        <v>4</v>
+      </c>
       <c r="T9" s="31">
-        <v>4</v>
-      </c>
-      <c r="U9" s="31">
         <v>-1</v>
       </c>
+      <c r="U9" s="35">
+        <v>18000</v>
+      </c>
       <c r="V9" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W9" s="35">
         <v>25000</v>
       </c>
-      <c r="X9" s="36">
+      <c r="W9" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="X9" s="27">
         <v>150</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="Y9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="Z9" s="7">
         <v>1</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AA9" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -9235,68 +9202,65 @@
         <v>25</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q10" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S10" s="31">
+        <v>4</v>
+      </c>
       <c r="T10" s="31">
-        <v>4</v>
-      </c>
-      <c r="U10" s="31">
         <v>-1</v>
       </c>
+      <c r="U10" s="35">
+        <v>18000</v>
+      </c>
       <c r="V10" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W10" s="35">
         <v>23800</v>
       </c>
-      <c r="X10" s="36">
+      <c r="W10" s="36">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="X10" s="27">
         <v>150</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="Y10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="Z10" s="7">
         <v>1</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AA10" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
@@ -9322,68 +9286,65 @@
         <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q11" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S11" s="31">
+        <v>4</v>
+      </c>
       <c r="T11" s="31">
-        <v>4</v>
-      </c>
-      <c r="U11" s="31">
         <v>-1</v>
       </c>
+      <c r="U11" s="35">
+        <v>18000</v>
+      </c>
       <c r="V11" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W11" s="35">
         <v>26000</v>
       </c>
-      <c r="X11" s="36">
+      <c r="W11" s="36">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="X11" s="27">
         <v>150</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="Y11" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="Z11" s="7">
         <v>1</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AA11" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
@@ -9409,68 +9370,65 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="31">
+        <v>4</v>
+      </c>
+      <c r="T12" s="31">
         <v>3</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="31">
-        <v>4</v>
-      </c>
-      <c r="U12" s="31">
-        <v>3</v>
+      <c r="U12" s="35">
+        <v>18000</v>
       </c>
       <c r="V12" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W12" s="35">
         <v>22000</v>
       </c>
-      <c r="X12" s="36">
+      <c r="W12" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="X12" s="27">
         <v>150</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="Y12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="Z12" s="7">
         <v>1</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AA12" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -9496,68 +9454,65 @@
         <v>28</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q13" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R13" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="S13" s="31">
+        <v>2</v>
       </c>
       <c r="T13" s="31">
         <v>2</v>
       </c>
-      <c r="U13" s="31">
-        <v>2</v>
+      <c r="U13" s="35">
+        <v>18000</v>
       </c>
       <c r="V13" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W13" s="35">
         <v>23500</v>
       </c>
-      <c r="X13" s="36">
+      <c r="W13" s="36">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="X13" s="27">
         <v>150</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="Y13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="Z13" s="7">
         <v>1</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AA13" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -9583,68 +9538,65 @@
         <v>28</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q14" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S14" s="31">
+        <v>2</v>
+      </c>
       <c r="T14" s="31">
-        <v>2</v>
-      </c>
-      <c r="U14" s="31">
         <v>-1</v>
       </c>
+      <c r="U14" s="35">
+        <v>15650</v>
+      </c>
       <c r="V14" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W14" s="35">
         <v>21500</v>
       </c>
-      <c r="X14" s="36">
+      <c r="W14" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="X14" s="27">
         <v>150</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="Z14" s="7">
         <v>33</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AA14" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
@@ -9670,68 +9622,65 @@
         <v>29</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q15" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R15" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="S15" s="31">
+        <v>2</v>
       </c>
       <c r="T15" s="31">
         <v>2</v>
       </c>
-      <c r="U15" s="31">
-        <v>2</v>
+      <c r="U15" s="35">
+        <v>18000</v>
       </c>
       <c r="V15" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W15" s="35">
         <v>25500</v>
       </c>
-      <c r="X15" s="36">
+      <c r="W15" s="36">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="X15" s="27">
         <v>150</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="Y15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="Z15" s="7">
         <v>1</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AA15" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>111</v>
       </c>
@@ -9757,68 +9706,65 @@
         <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q16" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R16" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S16" s="31">
+        <v>2</v>
+      </c>
       <c r="T16" s="31">
-        <v>2</v>
-      </c>
-      <c r="U16" s="31">
         <v>-1</v>
       </c>
+      <c r="U16" s="35">
+        <v>15650</v>
+      </c>
       <c r="V16" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W16" s="35">
         <v>21500</v>
       </c>
-      <c r="X16" s="36">
+      <c r="W16" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="X16" s="27">
         <v>150</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Y16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="Z16" s="7">
         <v>33</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AA16" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>111</v>
       </c>
@@ -9844,68 +9790,65 @@
         <v>30</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q17" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="S17" s="31">
+        <v>0</v>
       </c>
       <c r="T17" s="31">
         <v>0</v>
       </c>
-      <c r="U17" s="31">
-        <v>0</v>
+      <c r="U17" s="35">
+        <v>18000</v>
       </c>
       <c r="V17" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W17" s="35">
         <v>19500</v>
       </c>
-      <c r="X17" s="36">
+      <c r="W17" s="36">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="X17" s="27">
         <v>150</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="Y17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="Z17" s="7">
         <v>1</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AA17" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
@@ -9931,68 +9874,65 @@
         <v>30</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q18" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S18" s="31">
+        <v>2</v>
+      </c>
       <c r="T18" s="31">
-        <v>2</v>
-      </c>
-      <c r="U18" s="31">
         <v>-1</v>
       </c>
+      <c r="U18" s="35">
+        <v>15650</v>
+      </c>
       <c r="V18" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W18" s="35">
         <v>24000</v>
       </c>
-      <c r="X18" s="36">
+      <c r="W18" s="36">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="X18" s="27">
         <v>150</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Y18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="Z18" s="7">
         <v>33</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AA18" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>111</v>
       </c>
@@ -10018,68 +9958,65 @@
         <v>32</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q19" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
       <c r="T19" s="31">
-        <v>0</v>
-      </c>
-      <c r="U19" s="31">
         <v>-2</v>
       </c>
+      <c r="U19" s="35">
+        <v>18000</v>
+      </c>
       <c r="V19" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W19" s="35">
         <v>18500</v>
       </c>
-      <c r="X19" s="36">
+      <c r="W19" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Y19" s="27">
+      <c r="X19" s="27">
         <v>150</v>
       </c>
-      <c r="Z19" s="33" t="s">
+      <c r="Y19" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="Z19" s="7">
         <v>1</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AA19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
@@ -10105,68 +10042,65 @@
         <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q20" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R20" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S20" s="31">
+        <v>2</v>
+      </c>
       <c r="T20" s="31">
-        <v>2</v>
-      </c>
-      <c r="U20" s="31">
         <v>-2</v>
       </c>
+      <c r="U20" s="35">
+        <v>15650</v>
+      </c>
       <c r="V20" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W20" s="35">
         <v>22300</v>
       </c>
-      <c r="X20" s="36">
+      <c r="W20" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="X20" s="27">
         <v>150</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="Y20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="Z20" s="7">
         <v>33</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AA20" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>111</v>
       </c>
@@ -10192,68 +10126,65 @@
         <v>33</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q21" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S21" s="31">
+        <v>0</v>
+      </c>
       <c r="T21" s="31">
-        <v>0</v>
-      </c>
-      <c r="U21" s="31">
         <v>-2</v>
       </c>
+      <c r="U21" s="35">
+        <v>18000</v>
+      </c>
       <c r="V21" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W21" s="35">
         <v>18500</v>
       </c>
-      <c r="X21" s="36">
+      <c r="W21" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="X21" s="27">
         <v>150</v>
       </c>
-      <c r="Z21" s="33" t="s">
+      <c r="Y21" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="Z21" s="7">
         <v>1</v>
       </c>
-      <c r="AB21" s="27">
+      <c r="AA21" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>111</v>
       </c>
@@ -10279,68 +10210,65 @@
         <v>33</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q22" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S22" s="31">
+        <v>2</v>
+      </c>
       <c r="T22" s="31">
-        <v>2</v>
-      </c>
-      <c r="U22" s="31">
         <v>-2</v>
       </c>
+      <c r="U22" s="35">
+        <v>15650</v>
+      </c>
       <c r="V22" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W22" s="35">
         <v>22300</v>
       </c>
-      <c r="X22" s="36">
+      <c r="W22" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="Y22" s="27">
+      <c r="X22" s="27">
         <v>150</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Y22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="Z22" s="7">
         <v>33</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AA22" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -10366,68 +10294,65 @@
         <v>34</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q23" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S23" s="31">
+        <v>0</v>
+      </c>
       <c r="T23" s="31">
-        <v>0</v>
-      </c>
-      <c r="U23" s="31">
         <v>-2</v>
       </c>
+      <c r="U23" s="35">
+        <v>15650</v>
+      </c>
       <c r="V23" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W23" s="35">
         <v>25000</v>
       </c>
-      <c r="X23" s="36">
+      <c r="W23" s="36">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="X23" s="27">
         <v>150</v>
       </c>
-      <c r="Z23" s="7" t="s">
+      <c r="Y23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="Z23" s="7">
         <v>33</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AA23" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>111</v>
       </c>
@@ -10453,135 +10378,132 @@
         <v>35</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q24" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S24" s="31">
+        <v>0</v>
+      </c>
       <c r="T24" s="31">
-        <v>0</v>
-      </c>
-      <c r="U24" s="31">
         <v>-2</v>
       </c>
+      <c r="U24" s="35">
+        <v>15650</v>
+      </c>
       <c r="V24" s="35">
-        <v>15650</v>
-      </c>
-      <c r="W24" s="35">
         <v>26500</v>
       </c>
-      <c r="X24" s="36">
+      <c r="W24" s="36">
         <f t="shared" si="0"/>
         <v>10850</v>
       </c>
-      <c r="Y24" s="27">
+      <c r="X24" s="27">
         <v>150</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Y24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="Z24" s="7">
         <v>33</v>
       </c>
-      <c r="AB24" s="27">
+      <c r="AA24" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X31" s="36"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X32" s="36"/>
-    </row>
-    <row r="33" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X33" s="36"/>
-    </row>
-    <row r="34" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X34" s="36"/>
-    </row>
-    <row r="35" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X35" s="36"/>
-    </row>
-    <row r="36" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X36" s="36"/>
-    </row>
-    <row r="37" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X37" s="36"/>
-    </row>
-    <row r="38" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X38" s="36"/>
-    </row>
-    <row r="39" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X39" s="36"/>
-    </row>
-    <row r="40" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X40" s="36"/>
-    </row>
-    <row r="41" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X41" s="36"/>
-    </row>
-    <row r="42" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X42" s="36"/>
-    </row>
-    <row r="43" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X43" s="36"/>
-    </row>
-    <row r="44" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X44" s="36"/>
-    </row>
-    <row r="45" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X45" s="36"/>
-    </row>
-    <row r="46" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X46" s="36"/>
-    </row>
-    <row r="47" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X47" s="36"/>
-    </row>
-    <row r="48" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X48" s="36"/>
-    </row>
-    <row r="49" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X49" s="36"/>
-    </row>
-    <row r="50" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X50" s="36"/>
-    </row>
-    <row r="51" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X51" s="36"/>
-    </row>
-    <row r="52" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X52" s="36"/>
-    </row>
-    <row r="53" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X53" s="36"/>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W31" s="36"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W32" s="36"/>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W33" s="36"/>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W34" s="36"/>
+    </row>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="36"/>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W36" s="36"/>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W37" s="36"/>
+    </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W38" s="36"/>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W39" s="36"/>
+    </row>
+    <row r="40" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W40" s="36"/>
+    </row>
+    <row r="41" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="36"/>
+    </row>
+    <row r="42" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W42" s="36"/>
+    </row>
+    <row r="43" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="36"/>
+    </row>
+    <row r="44" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="36"/>
+    </row>
+    <row r="45" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="36"/>
+    </row>
+    <row r="46" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="36"/>
+    </row>
+    <row r="47" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="36"/>
+    </row>
+    <row r="48" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="36"/>
+    </row>
+    <row r="49" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="36"/>
+    </row>
+    <row r="50" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W50" s="36"/>
+    </row>
+    <row r="51" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W51" s="36"/>
+    </row>
+    <row r="52" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="36"/>
+    </row>
+    <row r="53" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10649,7 +10571,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -10730,13 +10652,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>37</v>
@@ -10815,13 +10737,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>37</v>
@@ -10900,13 +10822,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>37</v>
@@ -10985,13 +10907,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>37</v>
@@ -11070,13 +10992,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>37</v>
@@ -11155,13 +11077,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>39</v>
@@ -11240,13 +11162,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>37</v>
@@ -11325,13 +11247,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>37</v>
@@ -11410,13 +11332,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>37</v>
@@ -11495,13 +11417,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>37</v>
@@ -11580,13 +11502,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>37</v>
@@ -11665,13 +11587,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>37</v>
@@ -11750,13 +11672,13 @@
         <v>63</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>37</v>
@@ -11916,7 +11838,7 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -11961,7 +11883,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -12042,13 +11964,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>37</v>
@@ -12126,13 +12048,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>39</v>
@@ -12210,13 +12132,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>37</v>
@@ -12294,13 +12216,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>37</v>
@@ -12378,13 +12300,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>37</v>
@@ -12462,13 +12384,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>37</v>
@@ -12546,13 +12468,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>37</v>
@@ -12630,13 +12552,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>37</v>
@@ -12714,13 +12636,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>37</v>
@@ -12798,13 +12720,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>37</v>
@@ -12882,13 +12804,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>37</v>
@@ -12966,13 +12888,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>37</v>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchals/Projects/lab-schall/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="23000" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="19940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="393">
   <si>
     <t>a3</t>
   </si>
@@ -388,9 +388,6 @@
     <t>1, 2, 3, 4, 5,  6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24</t>
   </si>
   <si>
-    <t>tipstart</t>
-  </si>
-  <si>
     <t>139, 140</t>
   </si>
   <si>
@@ -403,12 +400,6 @@
     <t>Behav.mat</t>
   </si>
   <si>
-    <t>/Channel*/*-threshMUA.mat</t>
-  </si>
-  <si>
-    <t>filename_mua</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -565,9 +556,6 @@
     <t>2016-03-07a</t>
   </si>
   <si>
-    <t>2016-03-08a</t>
-  </si>
-  <si>
     <t>2016-03-10a</t>
   </si>
   <si>
@@ -583,36 +571,6 @@
     <t>2014-12-16a</t>
   </si>
   <si>
-    <t>2014-01-05a</t>
-  </si>
-  <si>
-    <t>2014-01-12a</t>
-  </si>
-  <si>
-    <t>2014-01-15b</t>
-  </si>
-  <si>
-    <t>2014-01-19a</t>
-  </si>
-  <si>
-    <t>2014-01-22a</t>
-  </si>
-  <si>
-    <t>2014-01-26a</t>
-  </si>
-  <si>
-    <t>2014-02-10a</t>
-  </si>
-  <si>
-    <t>2014-02-18a</t>
-  </si>
-  <si>
-    <t>2014-02-23a</t>
-  </si>
-  <si>
-    <t>2014-03-09a</t>
-  </si>
-  <si>
     <t>2014-12-01a</t>
   </si>
   <si>
@@ -631,24 +589,6 @@
     <t>2014-12-17a</t>
   </si>
   <si>
-    <t>2014-01-06a</t>
-  </si>
-  <si>
-    <t>2014-01-20a</t>
-  </si>
-  <si>
-    <t>2014-01-27a</t>
-  </si>
-  <si>
-    <t>2014-02-13a</t>
-  </si>
-  <si>
-    <t>2014-02-26a</t>
-  </si>
-  <si>
-    <t>2014-03-12a</t>
-  </si>
-  <si>
     <t>data/Broca/bp200n01.mat</t>
   </si>
   <si>
@@ -925,9 +865,6 @@
     <t>data/Darwin/Raw/D-Uprobe-MG-030716a-F2-FEF.plx</t>
   </si>
   <si>
-    <t>data/Darwin/Raw/D-Uprobe-MG-030816a-F2-FEF.plx</t>
-  </si>
-  <si>
     <t>data/Darwin/Raw/D-Uprobe-MG-031016a-F2-FEF.plx</t>
   </si>
   <si>
@@ -964,69 +901,12 @@
     <t>Users/Wolf/ephys_db/Darwin/2016-03-07a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
-    <t>Users/Wolf/ephys_db/Darwin/2016-03-08a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
     <t>Users/Wolf/ephys_db/Darwin/2016-03-10a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
     <t>Users/Wolf/ephys_db/Darwin/2016-03-11a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/Unit*/Spikes.mat</t>
-  </si>
-  <si>
     <t>data/Darwin/Raw/Init_SetUp-160711-151215</t>
   </si>
   <si>
@@ -1090,36 +970,6 @@
     <t>Users/Wolf/ephys_db/Gauss/2014-12-16a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-05a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-12a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-15b/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-19a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-22a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-01-26a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-02-10a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-02-18a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-02-23a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Gauss/2014-03-09a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
     <t>data/Gauss/Raw/G-MG-Uprobe-120214a.plx</t>
   </si>
   <si>
@@ -1177,24 +1027,6 @@
     <t>Users/Wolf/ephys_db/Helmholtz/2014-12-17a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-01-06a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-01-20a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-01-27a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-02-13a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-02-26a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Wolf/ephys_db/Helmholtz/2014-03-12a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
     <t>data/Helmholtz/Raw/H-MG-120114a.plx</t>
   </si>
   <si>
@@ -1229,6 +1061,156 @@
   </si>
   <si>
     <t>data/Helmholtz/Raw/H-Uprobe-MG-031215a.plx</t>
+  </si>
+  <si>
+    <t>2015-01-12a</t>
+  </si>
+  <si>
+    <t>2015-01-15b</t>
+  </si>
+  <si>
+    <t>2015-01-19a</t>
+  </si>
+  <si>
+    <t>2015-01-22a</t>
+  </si>
+  <si>
+    <t>2015-01-26a</t>
+  </si>
+  <si>
+    <t>2015-02-10a</t>
+  </si>
+  <si>
+    <t>2015-02-18a</t>
+  </si>
+  <si>
+    <t>2015-02-23a</t>
+  </si>
+  <si>
+    <t>2015-03-09a</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-12a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-15b/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-19a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-22a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-26a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-02-10a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-02-18a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-02-23a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-03-09a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>2015-01-05a</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Gauss/2015-01-05a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>2015-01-06a</t>
+  </si>
+  <si>
+    <t>2015-01-20a</t>
+  </si>
+  <si>
+    <t>2015-01-27a</t>
+  </si>
+  <si>
+    <t>2015-02-13a</t>
+  </si>
+  <si>
+    <t>2015-02-26a</t>
+  </si>
+  <si>
+    <t>2015-03-12a</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-01-06a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-01-20a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-01-27a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-02-13a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-02-26a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Wolf/ephys_db/Helmholtz/2015-03-12a/DSP/DSP*/*MG*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/chan*.mat</t>
   </si>
 </sst>
 </file>
@@ -1334,18 +1316,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1357,10 +1333,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1651,15 +1625,6 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1669,11 +1634,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1769,7 +1743,6 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1865,7 +1838,6 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2146,8 +2118,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2165,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -2273,13 +2245,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
@@ -2356,13 +2328,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
@@ -2439,13 +2411,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
@@ -2522,13 +2494,13 @@
         <v>101</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>49</v>
@@ -2605,13 +2577,13 @@
         <v>101</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>49</v>
@@ -2688,13 +2660,13 @@
         <v>101</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>
@@ -2771,13 +2743,13 @@
         <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>49</v>
@@ -2854,13 +2826,13 @@
         <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>49</v>
@@ -2937,13 +2909,13 @@
         <v>101</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>49</v>
@@ -3020,13 +2992,13 @@
         <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>49</v>
@@ -3103,13 +3075,13 @@
         <v>101</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>49</v>
@@ -3186,13 +3158,13 @@
         <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>49</v>
@@ -3269,13 +3241,13 @@
         <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>49</v>
@@ -3352,13 +3324,13 @@
         <v>101</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>49</v>
@@ -3435,13 +3407,13 @@
         <v>101</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>49</v>
@@ -3518,13 +3490,13 @@
         <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>49</v>
@@ -3601,13 +3573,13 @@
         <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>49</v>
@@ -3684,13 +3656,13 @@
         <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>49</v>
@@ -3767,13 +3739,13 @@
         <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>49</v>
@@ -3850,13 +3822,13 @@
         <v>101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>49</v>
@@ -3933,13 +3905,13 @@
         <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>49</v>
@@ -4016,13 +3988,13 @@
         <v>101</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>49</v>
@@ -4096,8 +4068,8 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4149,7 +4121,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -4229,13 +4201,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>49</v>
@@ -4311,13 +4283,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>49</v>
@@ -4393,13 +4365,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>49</v>
@@ -4475,13 +4447,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>49</v>
@@ -4557,13 +4529,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>49</v>
@@ -4639,13 +4611,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>
@@ -4721,13 +4693,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>49</v>
@@ -4803,13 +4775,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>49</v>
@@ -4885,13 +4857,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>49</v>
@@ -4967,13 +4939,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>49</v>
@@ -5049,13 +5021,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>49</v>
@@ -5131,13 +5103,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>49</v>
@@ -5213,13 +5185,13 @@
         <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>49</v>
@@ -5295,13 +5267,13 @@
         <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>49</v>
@@ -5377,13 +5349,13 @@
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>49</v>
@@ -5459,13 +5431,13 @@
         <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>49</v>
@@ -5541,13 +5513,13 @@
         <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>49</v>
@@ -5623,13 +5595,13 @@
         <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>49</v>
@@ -5705,13 +5677,13 @@
         <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>49</v>
@@ -5776,10 +5748,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5799,13 +5771,14 @@
     <col min="14" max="16" width="10.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="24.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="12.5" style="1" customWidth="1"/>
-    <col min="23" max="24" width="18.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="106.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.5" style="10" customWidth="1"/>
-    <col min="27" max="27" width="18.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5" style="39" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="39"/>
+    <col min="22" max="22" width="12.5" style="39" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="106.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5" style="10" customWidth="1"/>
+    <col min="26" max="26" width="18.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.1640625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -5832,7 +5805,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -5867,28 +5840,25 @@
       <c r="S1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="34" t="s">
-        <v>118</v>
+      <c r="W1" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5915,13 +5885,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>49</v>
@@ -5952,28 +5922,26 @@
       <c r="S2" s="28">
         <v>-1</v>
       </c>
-      <c r="T2" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U2" s="35">
+      <c r="T2" s="38">
         <v>18000</v>
       </c>
-      <c r="V2" s="35">
+      <c r="U2" s="38">
         <v>23000</v>
       </c>
-      <c r="W2" s="35">
-        <v>18000</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="38">
+        <f>U2-T2</f>
+        <v>5000</v>
+      </c>
+      <c r="W2" s="19">
         <v>150</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="32">
+      <c r="Y2" s="32">
         <v>1</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="Z2" s="19">
         <v>2</v>
       </c>
     </row>
@@ -6000,13 +5968,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>49</v>
@@ -6037,28 +6005,26 @@
       <c r="S3" s="28">
         <v>-1</v>
       </c>
-      <c r="T3" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U3" s="35">
+      <c r="T3" s="38">
         <v>18000</v>
       </c>
-      <c r="V3" s="35">
+      <c r="U3" s="38">
         <v>24450</v>
       </c>
-      <c r="W3" s="35">
-        <v>19000</v>
-      </c>
-      <c r="X3" s="19">
+      <c r="V3" s="38">
+        <f t="shared" ref="V3:V13" si="2">U3-T3</f>
+        <v>6450</v>
+      </c>
+      <c r="W3" s="19">
         <v>150</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="X3" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z3" s="32">
+      <c r="Y3" s="32">
         <v>1</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="Z3" s="19">
         <v>2</v>
       </c>
     </row>
@@ -6085,13 +6051,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>49</v>
@@ -6122,28 +6088,26 @@
       <c r="S4" s="28">
         <v>0</v>
       </c>
-      <c r="T4" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U4" s="35">
+      <c r="T4" s="38">
         <v>18000</v>
       </c>
-      <c r="V4" s="35">
+      <c r="U4" s="38">
         <v>24650</v>
       </c>
-      <c r="W4" s="35">
-        <v>18500</v>
-      </c>
-      <c r="X4" s="19">
+      <c r="V4" s="38">
+        <f t="shared" si="2"/>
+        <v>6650</v>
+      </c>
+      <c r="W4" s="19">
         <v>150</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="X4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="32">
+      <c r="Y4" s="32">
         <v>1</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="Z4" s="19">
         <v>3</v>
       </c>
     </row>
@@ -6170,13 +6134,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>49</v>
@@ -6207,28 +6171,26 @@
       <c r="S5" s="28">
         <v>0</v>
       </c>
-      <c r="T5" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U5" s="35">
+      <c r="T5" s="38">
         <v>18000</v>
       </c>
-      <c r="V5" s="35">
+      <c r="U5" s="38">
         <v>24500</v>
       </c>
-      <c r="W5" s="35">
-        <v>18400</v>
-      </c>
-      <c r="X5" s="19">
+      <c r="V5" s="38">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="W5" s="19">
         <v>150</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="X5" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Y5" s="32">
         <v>1</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="Z5" s="19">
         <v>4</v>
       </c>
     </row>
@@ -6255,13 +6217,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>49</v>
@@ -6292,28 +6254,26 @@
       <c r="S6" s="28">
         <v>0</v>
       </c>
-      <c r="T6" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U6" s="35">
+      <c r="T6" s="38">
         <v>18000</v>
       </c>
-      <c r="V6" s="35">
+      <c r="U6" s="38">
         <v>24500</v>
       </c>
-      <c r="W6" s="35">
-        <v>19300</v>
-      </c>
-      <c r="X6" s="19">
+      <c r="V6" s="38">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="W6" s="19">
         <v>150</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="X6" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Y6" s="32">
         <v>1</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="Z6" s="19">
         <v>4</v>
       </c>
     </row>
@@ -6340,13 +6300,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>49</v>
@@ -6377,28 +6337,26 @@
       <c r="S7" s="28">
         <v>0</v>
       </c>
-      <c r="T7" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U7" s="35">
+      <c r="T7" s="38">
         <v>18000</v>
       </c>
-      <c r="V7" s="35">
+      <c r="U7" s="38">
         <v>23650</v>
       </c>
-      <c r="W7" s="35">
-        <v>18700</v>
-      </c>
-      <c r="X7" s="19">
+      <c r="V7" s="38">
+        <f t="shared" si="2"/>
+        <v>5650</v>
+      </c>
+      <c r="W7" s="19">
         <v>150</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="X7" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="Y7" s="32">
         <v>1</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="Z7" s="19">
         <v>5</v>
       </c>
     </row>
@@ -6425,13 +6383,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>49</v>
@@ -6443,11 +6401,11 @@
         <v>3</v>
       </c>
       <c r="N8" s="19" t="str">
-        <f t="shared" ref="N8:N14" si="2">M8</f>
+        <f t="shared" ref="N8:N13" si="3">M8</f>
         <v>left</v>
       </c>
       <c r="O8" s="19" t="str">
-        <f t="shared" ref="O8:O14" si="3">IF(N8="left", "right", "left")</f>
+        <f t="shared" ref="O8:O13" si="4">IF(N8="left", "right", "left")</f>
         <v>right</v>
       </c>
       <c r="P8" s="19" t="s">
@@ -6462,28 +6420,26 @@
       <c r="S8" s="28">
         <v>0</v>
       </c>
-      <c r="T8" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U8" s="35">
+      <c r="T8" s="38">
         <v>18000</v>
       </c>
-      <c r="V8" s="35">
+      <c r="U8" s="38">
         <v>23200</v>
       </c>
-      <c r="W8" s="35">
-        <v>18000</v>
-      </c>
-      <c r="X8" s="19">
+      <c r="V8" s="38">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+      <c r="W8" s="19">
         <v>150</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="X8" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="Y8" s="32">
         <v>1</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="Z8" s="19">
         <v>5</v>
       </c>
     </row>
@@ -6510,13 +6466,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>49</v>
@@ -6528,11 +6484,11 @@
         <v>3</v>
       </c>
       <c r="N9" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>left</v>
       </c>
       <c r="O9" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>right</v>
       </c>
       <c r="P9" s="19" t="s">
@@ -6547,28 +6503,26 @@
       <c r="S9" s="28">
         <v>0</v>
       </c>
-      <c r="T9" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U9" s="35">
+      <c r="T9" s="38">
         <v>18000</v>
       </c>
-      <c r="V9" s="35">
+      <c r="U9" s="38">
         <v>24700</v>
       </c>
-      <c r="W9" s="35">
-        <v>19700</v>
-      </c>
-      <c r="X9" s="19">
+      <c r="V9" s="38">
+        <f t="shared" si="2"/>
+        <v>6700</v>
+      </c>
+      <c r="W9" s="19">
         <v>150</v>
       </c>
-      <c r="Y9" s="29" t="s">
+      <c r="X9" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="Y9" s="32">
         <v>1</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="Z9" s="19">
         <v>5</v>
       </c>
     </row>
@@ -6595,13 +6549,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>49</v>
@@ -6613,11 +6567,11 @@
         <v>3</v>
       </c>
       <c r="N10" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>left</v>
       </c>
       <c r="O10" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>right</v>
       </c>
       <c r="P10" s="19" t="s">
@@ -6632,30 +6586,29 @@
       <c r="S10" s="28">
         <v>0</v>
       </c>
-      <c r="T10" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U10" s="35">
+      <c r="T10" s="38">
         <v>18000</v>
       </c>
-      <c r="V10" s="35">
+      <c r="U10" s="38">
         <v>25500</v>
       </c>
-      <c r="W10" s="35">
-        <v>19600</v>
-      </c>
-      <c r="X10" s="19">
+      <c r="V10" s="38">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="W10" s="19">
         <v>150</v>
       </c>
-      <c r="Y10" s="29" t="s">
+      <c r="X10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Y10" s="32">
         <v>1</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="Z10" s="19">
         <v>6</v>
       </c>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
@@ -6680,13 +6633,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>49</v>
@@ -6698,11 +6651,11 @@
         <v>3</v>
       </c>
       <c r="N11" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>left</v>
       </c>
       <c r="O11" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>right</v>
       </c>
       <c r="P11" s="19" t="s">
@@ -6717,30 +6670,29 @@
       <c r="S11" s="28">
         <v>1</v>
       </c>
-      <c r="T11" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U11" s="35">
+      <c r="T11" s="38">
         <v>18000</v>
       </c>
-      <c r="V11" s="35">
+      <c r="U11" s="38">
         <v>25000</v>
       </c>
-      <c r="W11" s="35">
-        <v>19000</v>
-      </c>
-      <c r="X11" s="19">
+      <c r="V11" s="38">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="W11" s="19">
         <v>150</v>
       </c>
-      <c r="Y11" s="29" t="s">
+      <c r="X11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Y11" s="32">
         <v>1</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="Z11" s="19">
         <v>7</v>
       </c>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
@@ -6750,10 +6702,10 @@
         <v>112</v>
       </c>
       <c r="C12" s="19">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="26">
-        <v>42437</v>
+        <v>42439</v>
       </c>
       <c r="E12" s="19">
         <v>28</v>
@@ -6765,13 +6717,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>49</v>
@@ -6783,49 +6735,48 @@
         <v>3</v>
       </c>
       <c r="N12" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>left</v>
       </c>
       <c r="O12" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>right</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R12" s="28">
         <v>2</v>
       </c>
       <c r="S12" s="28">
-        <v>0</v>
-      </c>
-      <c r="T12" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U12" s="35">
+        <v>1</v>
+      </c>
+      <c r="T12" s="38">
         <v>18000</v>
       </c>
-      <c r="V12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="X12" s="19">
+      <c r="U12" s="38">
+        <v>24300</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="2"/>
+        <v>6300</v>
+      </c>
+      <c r="W12" s="19">
         <v>150</v>
       </c>
-      <c r="Y12" s="29" t="s">
+      <c r="X12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Y12" s="32">
         <v>1</v>
       </c>
-      <c r="AA12" s="19">
-        <v>4</v>
-      </c>
+      <c r="Z12" s="19">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
@@ -6838,7 +6789,7 @@
         <v>133</v>
       </c>
       <c r="D13" s="26">
-        <v>42439</v>
+        <v>42440</v>
       </c>
       <c r="E13" s="19">
         <v>28</v>
@@ -6850,13 +6801,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>49</v>
@@ -6868,134 +6819,76 @@
         <v>3</v>
       </c>
       <c r="N13" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>left</v>
       </c>
       <c r="O13" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>right</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R13" s="28">
         <v>2</v>
       </c>
       <c r="S13" s="28">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="38">
+        <v>18000</v>
+      </c>
+      <c r="U13" s="38">
+        <v>24250</v>
+      </c>
+      <c r="V13" s="38">
+        <f t="shared" si="2"/>
+        <v>6250</v>
+      </c>
+      <c r="W13" s="19">
+        <v>150</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" s="32">
         <v>1</v>
       </c>
-      <c r="T13" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U13" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V13" s="35">
-        <v>24300</v>
-      </c>
-      <c r="W13" s="35">
-        <v>19000</v>
-      </c>
-      <c r="X13" s="19">
-        <v>150</v>
-      </c>
-      <c r="Y13" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="19">
-        <v>8</v>
-      </c>
+      <c r="Z13" s="19">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="19">
-        <v>133</v>
-      </c>
-      <c r="D14" s="26">
-        <v>42440</v>
-      </c>
-      <c r="E14" s="19">
-        <v>28</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>left</v>
-      </c>
-      <c r="O14" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>right</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="28">
-        <v>2</v>
-      </c>
-      <c r="S14" s="28">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="35">
-        <v>15500</v>
-      </c>
-      <c r="U14" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V14" s="35">
-        <v>24250</v>
-      </c>
-      <c r="W14" s="35">
-        <v>19500</v>
-      </c>
-      <c r="X14" s="19">
-        <v>150</v>
-      </c>
-      <c r="Y14" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z14" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>9</v>
-      </c>
+      <c r="A14" s="19"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
@@ -7017,14 +6910,13 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="27"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
@@ -7046,16 +6938,15 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="27"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="25"/>
       <c r="C17" s="27"/>
@@ -7075,16 +6966,15 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="27"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="27"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="25"/>
       <c r="C18" s="27"/>
@@ -7103,17 +6993,16 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="27"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="S18" s="28"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="27"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="25"/>
       <c r="C19" s="27"/>
@@ -7132,17 +7021,16 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="28"/>
+      <c r="S19" s="31"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="27"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V19" s="38"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="27"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="25"/>
       <c r="C20" s="27"/>
@@ -7162,16 +7050,15 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="27"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="27"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="25"/>
       <c r="C21" s="27"/>
@@ -7191,16 +7078,15 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="27"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="27"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="25"/>
       <c r="C22" s="27"/>
@@ -7220,16 +7106,15 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="27"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="25"/>
       <c r="C23" s="27"/>
@@ -7249,16 +7134,15 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="27"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="27"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="25"/>
       <c r="C24" s="27"/>
@@ -7278,16 +7162,15 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="27"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="27"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="25"/>
       <c r="C25" s="27"/>
@@ -7307,16 +7190,15 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="27"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="27"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="25"/>
       <c r="C26" s="27"/>
@@ -7336,16 +7218,15 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="27"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="27"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="25"/>
       <c r="C27" s="27"/>
@@ -7365,16 +7246,15 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="27"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="27"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="25"/>
       <c r="C28" s="27"/>
@@ -7394,16 +7274,15 @@
       <c r="Q28" s="27"/>
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="27"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="27"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="25"/>
       <c r="C29" s="27"/>
@@ -7423,16 +7302,15 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="27"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="27"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="25"/>
       <c r="C30" s="27"/>
@@ -7452,16 +7330,15 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="27"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="27"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="25"/>
       <c r="C31" s="27"/>
@@ -7481,16 +7358,15 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="27"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="27"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="25"/>
       <c r="C32" s="27"/>
@@ -7510,16 +7386,15 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="31"/>
       <c r="S32" s="31"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="27"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="27"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="25"/>
       <c r="C33" s="27"/>
@@ -7539,16 +7414,15 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="27"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="27"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="25"/>
       <c r="C34" s="27"/>
@@ -7568,16 +7442,15 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="27"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="27"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="25"/>
       <c r="C35" s="27"/>
@@ -7597,16 +7470,15 @@
       <c r="Q35" s="27"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="27"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="27"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="25"/>
       <c r="C36" s="27"/>
@@ -7626,45 +7498,32 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="27"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="27"/>
-    </row>
-    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7681,7 +7540,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7698,8 +7557,8 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
     </row>
-    <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
+    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -7715,7 +7574,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7732,7 +7591,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -7749,7 +7608,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7766,7 +7625,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7783,7 +7642,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7800,7 +7659,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7817,7 +7676,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7834,7 +7693,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -8528,27 +8387,10 @@
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="O88" s="12">
+        <v>150</v>
+      </c>
       <c r="P88" s="12"/>
-    </row>
-    <row r="89" spans="2:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12">
-        <v>150</v>
-      </c>
-      <c r="P89" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8559,10 +8401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8570,16 +8412,16 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
     <col min="9" max="9" width="72.6640625" customWidth="1"/>
     <col min="10" max="10" width="42.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="48.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="22" max="24" width="30" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="105.5" customWidth="1"/>
-    <col min="27" max="28" width="30" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="21" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="105.5" customWidth="1"/>
+    <col min="26" max="27" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -8602,7 +8444,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -8611,61 +8453,58 @@
         <v>93</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -8691,68 +8530,65 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
         <v>3</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W2" s="36">
+        <f>V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="31">
-        <v>3</v>
-      </c>
-      <c r="U2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V2" s="38">
-        <v>17200</v>
-      </c>
-      <c r="W2" s="38">
-        <v>21000</v>
-      </c>
-      <c r="X2" s="39">
-        <f>W2-V2</f>
-        <v>3800</v>
-      </c>
-      <c r="Y2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="27">
         <v>1</v>
       </c>
-      <c r="AB2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
@@ -8778,68 +8614,65 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="31">
         <v>3</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="27" t="s">
+      <c r="T3" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W3" s="36">
+        <f t="shared" ref="W3:W24" si="0">V3-U3</f>
+        <v>3800</v>
+      </c>
+      <c r="X3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="7">
         <v>1</v>
       </c>
-      <c r="T3" s="31">
-        <v>3</v>
-      </c>
-      <c r="U3" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V3" s="38">
-        <v>17200</v>
-      </c>
-      <c r="W3" s="38">
-        <v>21000</v>
-      </c>
-      <c r="X3" s="39">
-        <f t="shared" ref="X3:X24" si="0">W3-V3</f>
-        <v>3800</v>
-      </c>
-      <c r="Y3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="27">
         <v>1</v>
       </c>
-      <c r="AB3" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -8865,68 +8698,65 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31">
         <v>3</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>5</v>
-      </c>
       <c r="T4" s="31">
-        <v>3</v>
-      </c>
-      <c r="U4" s="31">
         <v>-1</v>
       </c>
-      <c r="V4" s="38">
+      <c r="U4" s="35">
         <v>17200</v>
       </c>
-      <c r="W4" s="38">
+      <c r="V4" s="35">
         <v>21500</v>
       </c>
-      <c r="X4" s="39">
+      <c r="W4" s="36">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="X4" s="27">
         <v>150</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Y4" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="Z4" s="7">
         <v>1</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AA4" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -8952,68 +8782,65 @@
         <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q5" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
       <c r="T5" s="31">
-        <v>2</v>
-      </c>
-      <c r="U5" s="31">
         <v>-2</v>
       </c>
-      <c r="V5" s="38">
+      <c r="U5" s="35">
         <v>18000</v>
       </c>
-      <c r="W5" s="38">
+      <c r="V5" s="35">
         <v>22000</v>
       </c>
-      <c r="X5" s="39">
+      <c r="W5" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="X5" s="27">
         <v>150</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Y5" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="Z5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AA5" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
@@ -9039,68 +8866,65 @@
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q6" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="31">
+      <c r="S6" s="31">
         <v>2</v>
       </c>
-      <c r="U6" s="37">
+      <c r="T6" s="34">
         <v>-2</v>
       </c>
-      <c r="V6" s="39">
+      <c r="U6" s="36">
         <v>18000</v>
       </c>
-      <c r="W6" s="39">
+      <c r="V6" s="36">
         <v>25000</v>
       </c>
-      <c r="X6" s="39">
+      <c r="W6" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="X6" s="27">
         <v>150</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Y6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="Z6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AA6" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -9126,68 +8950,65 @@
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="31">
         <v>3</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>1</v>
-      </c>
       <c r="T7" s="31">
-        <v>3</v>
-      </c>
-      <c r="U7" s="31">
         <v>-2</v>
       </c>
-      <c r="V7" s="38">
+      <c r="U7" s="35">
         <v>18000</v>
       </c>
-      <c r="W7" s="38">
+      <c r="V7" s="35">
         <v>22000</v>
       </c>
-      <c r="X7" s="39">
+      <c r="W7" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="X7" s="27">
         <v>150</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="Y7" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="Z7" s="7">
         <v>1</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AA7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
@@ -9213,68 +9034,65 @@
         <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q8" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S8" s="31">
+        <v>4</v>
+      </c>
       <c r="T8" s="31">
-        <v>4</v>
-      </c>
-      <c r="U8" s="31">
         <v>-2</v>
       </c>
-      <c r="V8" s="38">
+      <c r="U8" s="35">
         <v>18000</v>
       </c>
-      <c r="W8" s="38">
+      <c r="V8" s="35">
         <v>25000</v>
       </c>
-      <c r="X8" s="39">
+      <c r="W8" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="X8" s="27">
         <v>150</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="Y8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="Z8" s="7">
         <v>1</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AA8" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>111</v>
       </c>
@@ -9300,68 +9118,65 @@
         <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q9" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S9" s="31">
+        <v>4</v>
+      </c>
       <c r="T9" s="31">
-        <v>4</v>
-      </c>
-      <c r="U9" s="31">
         <v>-1</v>
       </c>
-      <c r="V9" s="38">
+      <c r="U9" s="35">
         <v>18000</v>
       </c>
-      <c r="W9" s="38">
+      <c r="V9" s="35">
         <v>25000</v>
       </c>
-      <c r="X9" s="39">
+      <c r="W9" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="X9" s="27">
         <v>150</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="Y9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="Z9" s="7">
         <v>1</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AA9" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -9387,68 +9202,65 @@
         <v>25</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q10" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S10" s="31">
+        <v>4</v>
+      </c>
       <c r="T10" s="31">
-        <v>4</v>
-      </c>
-      <c r="U10" s="31">
         <v>-1</v>
       </c>
-      <c r="V10" s="38">
+      <c r="U10" s="35">
         <v>18000</v>
       </c>
-      <c r="W10" s="38">
+      <c r="V10" s="35">
         <v>23800</v>
       </c>
-      <c r="X10" s="39">
+      <c r="W10" s="36">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="X10" s="27">
         <v>150</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="Y10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="Z10" s="7">
         <v>1</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AA10" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
@@ -9474,68 +9286,65 @@
         <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q11" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S11" s="31">
+        <v>4</v>
+      </c>
       <c r="T11" s="31">
-        <v>4</v>
-      </c>
-      <c r="U11" s="31">
         <v>-1</v>
       </c>
-      <c r="V11" s="38">
+      <c r="U11" s="35">
         <v>18000</v>
       </c>
-      <c r="W11" s="38">
+      <c r="V11" s="35">
         <v>26000</v>
       </c>
-      <c r="X11" s="39">
+      <c r="W11" s="36">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="X11" s="27">
         <v>150</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="Y11" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="Z11" s="7">
         <v>1</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AA11" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
@@ -9543,7 +9352,7 @@
         <v>112</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="11">
         <v>42613</v>
@@ -9561,68 +9370,65 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="31">
+        <v>4</v>
+      </c>
+      <c r="T12" s="31">
         <v>3</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="31">
-        <v>4</v>
-      </c>
-      <c r="U12" s="31">
-        <v>3</v>
-      </c>
-      <c r="V12" s="38">
+      <c r="U12" s="35">
         <v>18000</v>
       </c>
-      <c r="W12" s="38">
+      <c r="V12" s="35">
         <v>22000</v>
       </c>
-      <c r="X12" s="39">
+      <c r="W12" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="X12" s="27">
         <v>150</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="Y12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="Z12" s="7">
         <v>1</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AA12" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -9648,68 +9454,65 @@
         <v>28</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q13" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R13" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="S13" s="31">
+        <v>2</v>
       </c>
       <c r="T13" s="31">
         <v>2</v>
       </c>
-      <c r="U13" s="31">
-        <v>2</v>
-      </c>
-      <c r="V13" s="38">
+      <c r="U13" s="35">
         <v>18000</v>
       </c>
-      <c r="W13" s="38">
+      <c r="V13" s="35">
         <v>23500</v>
       </c>
-      <c r="X13" s="39">
+      <c r="W13" s="36">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="X13" s="27">
         <v>150</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="Y13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="Z13" s="7">
         <v>1</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AA13" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -9735,68 +9538,65 @@
         <v>28</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q14" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R14" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S14" s="31">
+        <v>2</v>
+      </c>
       <c r="T14" s="31">
-        <v>2</v>
-      </c>
-      <c r="U14" s="31">
         <v>-1</v>
       </c>
-      <c r="V14" s="38">
+      <c r="U14" s="35">
         <v>15650</v>
       </c>
-      <c r="W14" s="38">
+      <c r="V14" s="35">
         <v>21500</v>
       </c>
-      <c r="X14" s="39">
+      <c r="W14" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="X14" s="27">
         <v>150</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="Z14" s="7">
         <v>33</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AA14" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
@@ -9822,68 +9622,65 @@
         <v>29</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q15" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R15" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="S15" s="31">
+        <v>2</v>
       </c>
       <c r="T15" s="31">
         <v>2</v>
       </c>
-      <c r="U15" s="31">
-        <v>2</v>
-      </c>
-      <c r="V15" s="38">
+      <c r="U15" s="35">
         <v>18000</v>
       </c>
-      <c r="W15" s="38">
+      <c r="V15" s="35">
         <v>25500</v>
       </c>
-      <c r="X15" s="39">
+      <c r="W15" s="36">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="X15" s="27">
         <v>150</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="Y15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="Z15" s="7">
         <v>1</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AA15" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>111</v>
       </c>
@@ -9909,68 +9706,65 @@
         <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q16" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R16" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S16" s="31">
+        <v>2</v>
+      </c>
       <c r="T16" s="31">
-        <v>2</v>
-      </c>
-      <c r="U16" s="31">
         <v>-1</v>
       </c>
-      <c r="V16" s="38">
+      <c r="U16" s="35">
         <v>15650</v>
       </c>
-      <c r="W16" s="38">
+      <c r="V16" s="35">
         <v>21500</v>
       </c>
-      <c r="X16" s="39">
+      <c r="W16" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="X16" s="27">
         <v>150</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Y16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="Z16" s="7">
         <v>33</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AA16" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>111</v>
       </c>
@@ -9996,68 +9790,65 @@
         <v>30</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q17" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="27" t="s">
         <v>10</v>
+      </c>
+      <c r="S17" s="31">
+        <v>0</v>
       </c>
       <c r="T17" s="31">
         <v>0</v>
       </c>
-      <c r="U17" s="31">
-        <v>0</v>
-      </c>
-      <c r="V17" s="38">
+      <c r="U17" s="35">
         <v>18000</v>
       </c>
-      <c r="W17" s="38">
+      <c r="V17" s="35">
         <v>19500</v>
       </c>
-      <c r="X17" s="39">
+      <c r="W17" s="36">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="X17" s="27">
         <v>150</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="Y17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="Z17" s="7">
         <v>1</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AA17" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
@@ -10083,68 +9874,65 @@
         <v>30</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q18" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="27" t="s">
         <v>5</v>
       </c>
+      <c r="S18" s="31">
+        <v>2</v>
+      </c>
       <c r="T18" s="31">
-        <v>2</v>
-      </c>
-      <c r="U18" s="31">
         <v>-1</v>
       </c>
-      <c r="V18" s="38">
+      <c r="U18" s="35">
         <v>15650</v>
       </c>
-      <c r="W18" s="38">
+      <c r="V18" s="35">
         <v>24000</v>
       </c>
-      <c r="X18" s="39">
+      <c r="W18" s="36">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="X18" s="27">
         <v>150</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Y18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="Z18" s="7">
         <v>33</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AA18" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>111</v>
       </c>
@@ -10170,68 +9958,65 @@
         <v>32</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q19" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
       <c r="T19" s="31">
-        <v>0</v>
-      </c>
-      <c r="U19" s="31">
         <v>-2</v>
       </c>
-      <c r="V19" s="38">
+      <c r="U19" s="35">
         <v>18000</v>
       </c>
-      <c r="W19" s="38">
+      <c r="V19" s="35">
         <v>18500</v>
       </c>
-      <c r="X19" s="39">
+      <c r="W19" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Y19" s="27">
+      <c r="X19" s="27">
         <v>150</v>
       </c>
-      <c r="Z19" s="33" t="s">
+      <c r="Y19" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="Z19" s="7">
         <v>1</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AA19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
@@ -10257,68 +10042,65 @@
         <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q20" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R20" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S20" s="31">
+        <v>2</v>
+      </c>
       <c r="T20" s="31">
-        <v>2</v>
-      </c>
-      <c r="U20" s="31">
         <v>-2</v>
       </c>
-      <c r="V20" s="38">
+      <c r="U20" s="35">
         <v>15650</v>
       </c>
-      <c r="W20" s="38">
+      <c r="V20" s="35">
         <v>22300</v>
       </c>
-      <c r="X20" s="39">
+      <c r="W20" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="X20" s="27">
         <v>150</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="Y20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="Z20" s="7">
         <v>33</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AA20" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>111</v>
       </c>
@@ -10326,7 +10108,7 @@
         <v>112</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="11">
         <v>42641</v>
@@ -10344,68 +10126,65 @@
         <v>33</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q21" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S21" s="31">
+        <v>0</v>
+      </c>
       <c r="T21" s="31">
-        <v>0</v>
-      </c>
-      <c r="U21" s="31">
         <v>-2</v>
       </c>
-      <c r="V21" s="38">
+      <c r="U21" s="35">
         <v>18000</v>
       </c>
-      <c r="W21" s="38">
+      <c r="V21" s="35">
         <v>18500</v>
       </c>
-      <c r="X21" s="39">
+      <c r="W21" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="X21" s="27">
         <v>150</v>
       </c>
-      <c r="Z21" s="33" t="s">
+      <c r="Y21" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="Z21" s="7">
         <v>1</v>
       </c>
-      <c r="AB21" s="27">
+      <c r="AA21" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>111</v>
       </c>
@@ -10413,7 +10192,7 @@
         <v>112</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="11">
         <v>42641</v>
@@ -10431,68 +10210,65 @@
         <v>33</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q22" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="R22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S22" s="31">
+        <v>2</v>
+      </c>
       <c r="T22" s="31">
-        <v>2</v>
-      </c>
-      <c r="U22" s="31">
         <v>-2</v>
       </c>
-      <c r="V22" s="38">
+      <c r="U22" s="35">
         <v>15650</v>
       </c>
-      <c r="W22" s="38">
+      <c r="V22" s="35">
         <v>22300</v>
       </c>
-      <c r="X22" s="39">
+      <c r="W22" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="Y22" s="27">
+      <c r="X22" s="27">
         <v>150</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="Y22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="Z22" s="7">
         <v>33</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AA22" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -10518,68 +10294,65 @@
         <v>34</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q23" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S23" s="31">
+        <v>0</v>
+      </c>
       <c r="T23" s="31">
-        <v>0</v>
-      </c>
-      <c r="U23" s="31">
         <v>-2</v>
       </c>
-      <c r="V23" s="38">
+      <c r="U23" s="35">
         <v>15650</v>
       </c>
-      <c r="W23" s="38">
+      <c r="V23" s="35">
         <v>25000</v>
       </c>
-      <c r="X23" s="39">
+      <c r="W23" s="36">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="X23" s="27">
         <v>150</v>
       </c>
-      <c r="Z23" s="7" t="s">
+      <c r="Y23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="Z23" s="7">
         <v>33</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AA23" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>111</v>
       </c>
@@ -10605,135 +10378,132 @@
         <v>35</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="Q24" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="R24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S24" s="31">
+        <v>0</v>
+      </c>
       <c r="T24" s="31">
-        <v>0</v>
-      </c>
-      <c r="U24" s="31">
         <v>-2</v>
       </c>
-      <c r="V24" s="38">
+      <c r="U24" s="35">
         <v>15650</v>
       </c>
-      <c r="W24" s="38">
+      <c r="V24" s="35">
         <v>26500</v>
       </c>
-      <c r="X24" s="39">
+      <c r="W24" s="36">
         <f t="shared" si="0"/>
         <v>10850</v>
       </c>
-      <c r="Y24" s="27">
+      <c r="X24" s="27">
         <v>150</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Y24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="Z24" s="7">
         <v>33</v>
       </c>
-      <c r="AB24" s="27">
+      <c r="AA24" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X31" s="39"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X32" s="39"/>
-    </row>
-    <row r="33" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X33" s="39"/>
-    </row>
-    <row r="34" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X34" s="39"/>
-    </row>
-    <row r="35" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X35" s="39"/>
-    </row>
-    <row r="36" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X36" s="39"/>
-    </row>
-    <row r="37" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X37" s="39"/>
-    </row>
-    <row r="38" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X38" s="39"/>
-    </row>
-    <row r="39" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X39" s="39"/>
-    </row>
-    <row r="40" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X40" s="39"/>
-    </row>
-    <row r="41" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X41" s="39"/>
-    </row>
-    <row r="42" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X42" s="39"/>
-    </row>
-    <row r="43" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X43" s="39"/>
-    </row>
-    <row r="44" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X44" s="39"/>
-    </row>
-    <row r="45" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X45" s="39"/>
-    </row>
-    <row r="46" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X46" s="39"/>
-    </row>
-    <row r="47" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X47" s="39"/>
-    </row>
-    <row r="48" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X48" s="39"/>
-    </row>
-    <row r="49" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X49" s="39"/>
-    </row>
-    <row r="50" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X50" s="39"/>
-    </row>
-    <row r="51" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X51" s="39"/>
-    </row>
-    <row r="52" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X52" s="39"/>
-    </row>
-    <row r="53" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X53" s="39"/>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W31" s="36"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W32" s="36"/>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W33" s="36"/>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W34" s="36"/>
+    </row>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="36"/>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W36" s="36"/>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W37" s="36"/>
+    </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W38" s="36"/>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W39" s="36"/>
+    </row>
+    <row r="40" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W40" s="36"/>
+    </row>
+    <row r="41" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="36"/>
+    </row>
+    <row r="42" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W42" s="36"/>
+    </row>
+    <row r="43" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="36"/>
+    </row>
+    <row r="44" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="36"/>
+    </row>
+    <row r="45" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="36"/>
+    </row>
+    <row r="46" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="36"/>
+    </row>
+    <row r="47" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="36"/>
+    </row>
+    <row r="48" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="36"/>
+    </row>
+    <row r="49" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="36"/>
+    </row>
+    <row r="50" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W50" s="36"/>
+    </row>
+    <row r="51" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W51" s="36"/>
+    </row>
+    <row r="52" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="36"/>
+    </row>
+    <row r="53" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10748,8 +10518,8 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10801,7 +10571,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -10882,13 +10652,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>37</v>
@@ -10967,13 +10737,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>37</v>
@@ -11052,13 +10822,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>37</v>
@@ -11137,13 +10907,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>37</v>
@@ -11222,13 +10992,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>37</v>
@@ -11307,13 +11077,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>39</v>
@@ -11392,13 +11162,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>37</v>
@@ -11477,16 +11247,16 @@
         <v>63</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>45</v>
@@ -11562,13 +11332,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>37</v>
@@ -11647,13 +11417,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>189</v>
+        <v>348</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>37</v>
@@ -11732,13 +11502,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>37</v>
@@ -11817,13 +11587,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>37</v>
@@ -11902,13 +11672,13 @@
         <v>63</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>37</v>
@@ -12068,8 +11838,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12113,7 +11883,7 @@
         <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>94</v>
@@ -12194,13 +11964,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>37</v>
@@ -12278,13 +12048,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>39</v>
@@ -12362,13 +12132,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>37</v>
@@ -12446,13 +12216,13 @@
         <v>63</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>37</v>
@@ -12530,13 +12300,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>37</v>
@@ -12614,13 +12384,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>37</v>
@@ -12698,13 +12468,13 @@
         <v>63</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>37</v>
@@ -12782,13 +12552,13 @@
         <v>63</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>200</v>
+        <v>364</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>37</v>
@@ -12866,13 +12636,13 @@
         <v>63</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>37</v>
@@ -12950,13 +12720,13 @@
         <v>63</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>37</v>
@@ -13034,13 +12804,13 @@
         <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>203</v>
+        <v>367</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>37</v>
@@ -13118,13 +12888,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>37</v>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="19940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1400" yWindow="1260" windowWidth="50860" windowHeight="25500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
     <sheet name="Da_WJ" sheetId="6" r:id="rId3"/>
     <sheet name="Da_K" sheetId="7" r:id="rId4"/>
-    <sheet name="Ga" sheetId="4" r:id="rId5"/>
-    <sheet name="He" sheetId="5" r:id="rId6"/>
+    <sheet name="TestDarwin" sheetId="8" r:id="rId5"/>
+    <sheet name="Ga" sheetId="4" r:id="rId6"/>
+    <sheet name="He" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="394">
   <si>
     <t>a3</t>
   </si>
@@ -1211,6 +1212,9 @@
   </si>
   <si>
     <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>probeNo</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1337,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1647,7 +1653,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1743,6 +1749,7 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1838,6 +1845,7 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8401,27 +8409,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
     <col min="9" max="9" width="72.6640625" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-    <col min="21" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="25" width="105.5" customWidth="1"/>
-    <col min="26" max="27" width="30" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="22" max="22" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" customWidth="1"/>
+    <col min="25" max="25" width="16.1640625" customWidth="1"/>
+    <col min="26" max="26" width="105.5" customWidth="1"/>
+    <col min="27" max="28" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -8450,61 +8461,64 @@
         <v>94</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -8532,63 +8546,66 @@
       <c r="I2" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="31">
+      <c r="T2" s="31">
         <v>3</v>
       </c>
-      <c r="T2" s="31">
+      <c r="U2" s="31">
         <v>-2</v>
       </c>
-      <c r="U2" s="35">
+      <c r="V2" s="35">
         <v>17200</v>
       </c>
-      <c r="V2" s="35">
+      <c r="W2" s="35">
         <v>21000</v>
       </c>
-      <c r="W2" s="36">
-        <f>V2-U2</f>
+      <c r="X2" s="36">
+        <f>W2-V2</f>
         <v>3800</v>
       </c>
-      <c r="X2" s="27">
+      <c r="Y2" s="27">
         <v>150</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="AA2" s="7">
         <v>1</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AB2" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
@@ -8616,63 +8633,66 @@
       <c r="I3" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="31">
+      <c r="T3" s="31">
         <v>3</v>
       </c>
-      <c r="T3" s="31">
+      <c r="U3" s="31">
         <v>-2</v>
       </c>
-      <c r="U3" s="35">
+      <c r="V3" s="35">
         <v>17200</v>
       </c>
-      <c r="V3" s="35">
+      <c r="W3" s="35">
         <v>21000</v>
       </c>
-      <c r="W3" s="36">
-        <f t="shared" ref="W3:W24" si="0">V3-U3</f>
+      <c r="X3" s="36">
+        <f t="shared" ref="X3:X24" si="0">W3-V3</f>
         <v>3800</v>
       </c>
-      <c r="X3" s="27">
+      <c r="Y3" s="27">
         <v>150</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="AA3" s="7">
         <v>1</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AB3" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -8700,63 +8720,66 @@
       <c r="I4" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="31">
+      <c r="T4" s="31">
         <v>3</v>
       </c>
-      <c r="T4" s="31">
+      <c r="U4" s="31">
         <v>-1</v>
       </c>
-      <c r="U4" s="35">
+      <c r="V4" s="35">
         <v>17200</v>
       </c>
-      <c r="V4" s="35">
+      <c r="W4" s="35">
         <v>21500</v>
       </c>
-      <c r="W4" s="36">
+      <c r="X4" s="36">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="X4" s="27">
+      <c r="Y4" s="27">
         <v>150</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Z4" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="AA4" s="7">
         <v>1</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AB4" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -8784,63 +8807,66 @@
       <c r="I5" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="31">
+      <c r="T5" s="31">
         <v>2</v>
       </c>
-      <c r="T5" s="31">
+      <c r="U5" s="31">
         <v>-2</v>
       </c>
-      <c r="U5" s="35">
+      <c r="V5" s="35">
         <v>18000</v>
       </c>
-      <c r="V5" s="35">
+      <c r="W5" s="35">
         <v>22000</v>
       </c>
-      <c r="W5" s="36">
+      <c r="X5" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="X5" s="27">
+      <c r="Y5" s="27">
         <v>150</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Z5" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="AA5" s="7">
         <v>1</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AB5" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
@@ -8868,63 +8894,66 @@
       <c r="I6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="R6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="31">
+      <c r="T6" s="31">
         <v>2</v>
       </c>
-      <c r="T6" s="34">
+      <c r="U6" s="34">
         <v>-2</v>
       </c>
-      <c r="U6" s="36">
+      <c r="V6" s="36">
         <v>18000</v>
       </c>
-      <c r="V6" s="36">
+      <c r="W6" s="36">
         <v>25000</v>
       </c>
-      <c r="W6" s="36">
+      <c r="X6" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="X6" s="27">
+      <c r="Y6" s="27">
         <v>150</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Z6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="AA6" s="7">
         <v>1</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AB6" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -8952,63 +8981,66 @@
       <c r="I7" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="R7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="S7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="31">
+      <c r="T7" s="31">
         <v>3</v>
       </c>
-      <c r="T7" s="31">
+      <c r="U7" s="31">
         <v>-2</v>
       </c>
-      <c r="U7" s="35">
+      <c r="V7" s="35">
         <v>18000</v>
       </c>
-      <c r="V7" s="35">
+      <c r="W7" s="35">
         <v>22000</v>
       </c>
-      <c r="W7" s="36">
+      <c r="X7" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="X7" s="27">
+      <c r="Y7" s="27">
         <v>150</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Z7" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AA7" s="7">
         <v>1</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AB7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
@@ -9036,63 +9068,66 @@
       <c r="I8" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="R8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="S8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="31">
+      <c r="T8" s="31">
         <v>4</v>
       </c>
-      <c r="T8" s="31">
+      <c r="U8" s="31">
         <v>-2</v>
       </c>
-      <c r="U8" s="35">
+      <c r="V8" s="35">
         <v>18000</v>
       </c>
-      <c r="V8" s="35">
+      <c r="W8" s="35">
         <v>25000</v>
       </c>
-      <c r="W8" s="36">
+      <c r="X8" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="X8" s="27">
+      <c r="Y8" s="27">
         <v>150</v>
       </c>
-      <c r="Y8" s="33" t="s">
+      <c r="Z8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AA8" s="7">
         <v>1</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AB8" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>111</v>
       </c>
@@ -9120,63 +9155,66 @@
       <c r="I9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="R9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="31">
+      <c r="T9" s="31">
         <v>4</v>
       </c>
-      <c r="T9" s="31">
+      <c r="U9" s="31">
         <v>-1</v>
       </c>
-      <c r="U9" s="35">
+      <c r="V9" s="35">
         <v>18000</v>
       </c>
-      <c r="V9" s="35">
+      <c r="W9" s="35">
         <v>25000</v>
       </c>
-      <c r="W9" s="36">
+      <c r="X9" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="X9" s="27">
+      <c r="Y9" s="27">
         <v>150</v>
       </c>
-      <c r="Y9" s="33" t="s">
+      <c r="Z9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="AA9" s="7">
         <v>1</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AB9" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -9204,63 +9242,66 @@
       <c r="I10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="R10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="S10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="31">
+      <c r="T10" s="31">
         <v>4</v>
       </c>
-      <c r="T10" s="31">
+      <c r="U10" s="31">
         <v>-1</v>
       </c>
-      <c r="U10" s="35">
+      <c r="V10" s="35">
         <v>18000</v>
       </c>
-      <c r="V10" s="35">
+      <c r="W10" s="35">
         <v>23800</v>
       </c>
-      <c r="W10" s="36">
+      <c r="X10" s="36">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="X10" s="27">
+      <c r="Y10" s="27">
         <v>150</v>
       </c>
-      <c r="Y10" s="33" t="s">
+      <c r="Z10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="AA10" s="7">
         <v>1</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AB10" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
@@ -9288,63 +9329,66 @@
       <c r="I11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="R11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="S11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="31">
+      <c r="T11" s="31">
         <v>4</v>
       </c>
-      <c r="T11" s="31">
+      <c r="U11" s="31">
         <v>-1</v>
       </c>
-      <c r="U11" s="35">
+      <c r="V11" s="35">
         <v>18000</v>
       </c>
-      <c r="V11" s="35">
+      <c r="W11" s="35">
         <v>26000</v>
       </c>
-      <c r="W11" s="36">
+      <c r="X11" s="36">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="X11" s="27">
+      <c r="Y11" s="27">
         <v>150</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="AA11" s="7">
         <v>1</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AB11" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
@@ -9372,63 +9416,66 @@
       <c r="I12" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="R12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="S12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="31">
+      <c r="T12" s="31">
         <v>4</v>
       </c>
-      <c r="T12" s="31">
+      <c r="U12" s="31">
         <v>3</v>
       </c>
-      <c r="U12" s="35">
+      <c r="V12" s="35">
         <v>18000</v>
       </c>
-      <c r="V12" s="35">
+      <c r="W12" s="35">
         <v>22000</v>
       </c>
-      <c r="W12" s="36">
+      <c r="X12" s="36">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="X12" s="27">
+      <c r="Y12" s="27">
         <v>150</v>
       </c>
-      <c r="Y12" s="33" t="s">
+      <c r="Z12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="AA12" s="7">
         <v>1</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AB12" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -9456,63 +9503,66 @@
       <c r="I13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="R13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="S13" s="31">
-        <v>2</v>
       </c>
       <c r="T13" s="31">
         <v>2</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="31">
+        <v>2</v>
+      </c>
+      <c r="V13" s="35">
         <v>18000</v>
       </c>
-      <c r="V13" s="35">
+      <c r="W13" s="35">
         <v>23500</v>
       </c>
-      <c r="W13" s="36">
+      <c r="X13" s="36">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="X13" s="27">
+      <c r="Y13" s="27">
         <v>150</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Z13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="AA13" s="7">
         <v>1</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AB13" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -9540,63 +9590,66 @@
       <c r="I14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="R14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="31">
+      <c r="T14" s="31">
         <v>2</v>
       </c>
-      <c r="T14" s="31">
+      <c r="U14" s="31">
         <v>-1</v>
       </c>
-      <c r="U14" s="35">
+      <c r="V14" s="35">
         <v>15650</v>
       </c>
-      <c r="V14" s="35">
+      <c r="W14" s="35">
         <v>21500</v>
       </c>
-      <c r="W14" s="36">
+      <c r="X14" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="X14" s="27">
+      <c r="Y14" s="27">
         <v>150</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AA14" s="7">
         <v>33</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AB14" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>111</v>
       </c>
@@ -9624,63 +9677,66 @@
       <c r="I15" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="R15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="S15" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="S15" s="31">
-        <v>2</v>
       </c>
       <c r="T15" s="31">
         <v>2</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="31">
+        <v>2</v>
+      </c>
+      <c r="V15" s="35">
         <v>18000</v>
       </c>
-      <c r="V15" s="35">
+      <c r="W15" s="35">
         <v>25500</v>
       </c>
-      <c r="W15" s="36">
+      <c r="X15" s="36">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="X15" s="27">
+      <c r="Y15" s="27">
         <v>150</v>
       </c>
-      <c r="Y15" s="33" t="s">
+      <c r="Z15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="AA15" s="7">
         <v>1</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AB15" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>111</v>
       </c>
@@ -9708,63 +9764,66 @@
       <c r="I16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="R16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="31">
+      <c r="T16" s="31">
         <v>2</v>
       </c>
-      <c r="T16" s="31">
+      <c r="U16" s="31">
         <v>-1</v>
       </c>
-      <c r="U16" s="35">
+      <c r="V16" s="35">
         <v>15650</v>
       </c>
-      <c r="V16" s="35">
+      <c r="W16" s="35">
         <v>21500</v>
       </c>
-      <c r="W16" s="36">
+      <c r="X16" s="36">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="X16" s="27">
+      <c r="Y16" s="27">
         <v>150</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Z16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="AA16" s="7">
         <v>33</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AB16" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>111</v>
       </c>
@@ -9792,63 +9851,66 @@
       <c r="I17" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="R17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="S17" s="27" t="s">
         <v>10</v>
-      </c>
-      <c r="S17" s="31">
-        <v>0</v>
       </c>
       <c r="T17" s="31">
         <v>0</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="31">
+        <v>0</v>
+      </c>
+      <c r="V17" s="35">
         <v>18000</v>
       </c>
-      <c r="V17" s="35">
+      <c r="W17" s="35">
         <v>19500</v>
       </c>
-      <c r="W17" s="36">
+      <c r="X17" s="36">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="X17" s="27">
+      <c r="Y17" s="27">
         <v>150</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="AA17" s="7">
         <v>1</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AB17" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
@@ -9876,63 +9938,66 @@
       <c r="I18" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="R18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="S18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="31">
+      <c r="T18" s="31">
         <v>2</v>
       </c>
-      <c r="T18" s="31">
+      <c r="U18" s="31">
         <v>-1</v>
       </c>
-      <c r="U18" s="35">
+      <c r="V18" s="35">
         <v>15650</v>
       </c>
-      <c r="V18" s="35">
+      <c r="W18" s="35">
         <v>24000</v>
       </c>
-      <c r="W18" s="36">
+      <c r="X18" s="36">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="X18" s="27">
+      <c r="Y18" s="27">
         <v>150</v>
       </c>
-      <c r="Y18" s="7" t="s">
+      <c r="Z18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="AA18" s="7">
         <v>33</v>
       </c>
-      <c r="AA18" s="27">
+      <c r="AB18" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>111</v>
       </c>
@@ -9960,63 +10025,66 @@
       <c r="I19" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="R19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="S19" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="31">
+      <c r="T19" s="31">
         <v>0</v>
       </c>
-      <c r="T19" s="31">
+      <c r="U19" s="31">
         <v>-2</v>
       </c>
-      <c r="U19" s="35">
+      <c r="V19" s="35">
         <v>18000</v>
       </c>
-      <c r="V19" s="35">
+      <c r="W19" s="35">
         <v>18500</v>
       </c>
-      <c r="W19" s="36">
+      <c r="X19" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="X19" s="27">
+      <c r="Y19" s="27">
         <v>150</v>
       </c>
-      <c r="Y19" s="33" t="s">
+      <c r="Z19" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="AA19" s="7">
         <v>1</v>
       </c>
-      <c r="AA19" s="27">
+      <c r="AB19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
@@ -10044,63 +10112,66 @@
       <c r="I20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="R20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="S20" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="31">
+      <c r="T20" s="31">
         <v>2</v>
       </c>
-      <c r="T20" s="31">
+      <c r="U20" s="31">
         <v>-2</v>
       </c>
-      <c r="U20" s="35">
+      <c r="V20" s="35">
         <v>15650</v>
       </c>
-      <c r="V20" s="35">
+      <c r="W20" s="35">
         <v>22300</v>
       </c>
-      <c r="W20" s="36">
+      <c r="X20" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="X20" s="27">
+      <c r="Y20" s="27">
         <v>150</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Z20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="AA20" s="7">
         <v>33</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AB20" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>111</v>
       </c>
@@ -10128,63 +10199,66 @@
       <c r="I21" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="R21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="27" t="s">
+      <c r="S21" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S21" s="31">
+      <c r="T21" s="31">
         <v>0</v>
       </c>
-      <c r="T21" s="31">
+      <c r="U21" s="31">
         <v>-2</v>
       </c>
-      <c r="U21" s="35">
+      <c r="V21" s="35">
         <v>18000</v>
       </c>
-      <c r="V21" s="35">
+      <c r="W21" s="35">
         <v>18500</v>
       </c>
-      <c r="W21" s="36">
+      <c r="X21" s="36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="X21" s="27">
+      <c r="Y21" s="27">
         <v>150</v>
       </c>
-      <c r="Y21" s="33" t="s">
+      <c r="Z21" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="AA21" s="7">
         <v>1</v>
       </c>
-      <c r="AA21" s="27">
+      <c r="AB21" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>111</v>
       </c>
@@ -10212,63 +10286,66 @@
       <c r="I22" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="31">
+      <c r="T22" s="31">
         <v>2</v>
       </c>
-      <c r="T22" s="31">
+      <c r="U22" s="31">
         <v>-2</v>
       </c>
-      <c r="U22" s="35">
+      <c r="V22" s="35">
         <v>15650</v>
       </c>
-      <c r="V22" s="35">
+      <c r="W22" s="35">
         <v>22300</v>
       </c>
-      <c r="W22" s="36">
+      <c r="X22" s="36">
         <f t="shared" si="0"/>
         <v>6650</v>
       </c>
-      <c r="X22" s="27">
+      <c r="Y22" s="27">
         <v>150</v>
       </c>
-      <c r="Y22" s="7" t="s">
+      <c r="Z22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="AA22" s="7">
         <v>33</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AB22" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -10296,63 +10373,66 @@
       <c r="I23" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="R23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="S23" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="31">
+      <c r="T23" s="31">
         <v>0</v>
       </c>
-      <c r="T23" s="31">
+      <c r="U23" s="31">
         <v>-2</v>
       </c>
-      <c r="U23" s="35">
+      <c r="V23" s="35">
         <v>15650</v>
       </c>
-      <c r="V23" s="35">
+      <c r="W23" s="35">
         <v>25000</v>
       </c>
-      <c r="W23" s="36">
+      <c r="X23" s="36">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="X23" s="27">
+      <c r="Y23" s="27">
         <v>150</v>
       </c>
-      <c r="Y23" s="7" t="s">
+      <c r="Z23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="AA23" s="7">
         <v>33</v>
       </c>
-      <c r="AA23" s="27">
+      <c r="AB23" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>111</v>
       </c>
@@ -10380,130 +10460,133 @@
       <c r="I24" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="R24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="27" t="s">
+      <c r="S24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S24" s="31">
+      <c r="T24" s="31">
         <v>0</v>
       </c>
-      <c r="T24" s="31">
+      <c r="U24" s="31">
         <v>-2</v>
       </c>
-      <c r="U24" s="35">
+      <c r="V24" s="35">
         <v>15650</v>
       </c>
-      <c r="V24" s="35">
+      <c r="W24" s="35">
         <v>26500</v>
       </c>
-      <c r="W24" s="36">
+      <c r="X24" s="36">
         <f t="shared" si="0"/>
         <v>10850</v>
       </c>
-      <c r="X24" s="27">
+      <c r="Y24" s="27">
         <v>150</v>
       </c>
-      <c r="Y24" s="7" t="s">
+      <c r="Z24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="AA24" s="7">
         <v>33</v>
       </c>
-      <c r="AA24" s="27">
+      <c r="AB24" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="W31" s="36"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="W32" s="36"/>
-    </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W33" s="36"/>
-    </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W34" s="36"/>
-    </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W35" s="36"/>
-    </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W36" s="36"/>
-    </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W37" s="36"/>
-    </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W38" s="36"/>
-    </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W39" s="36"/>
-    </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W40" s="36"/>
-    </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W41" s="36"/>
-    </row>
-    <row r="42" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W42" s="36"/>
-    </row>
-    <row r="43" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W43" s="36"/>
-    </row>
-    <row r="44" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W44" s="36"/>
-    </row>
-    <row r="45" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W45" s="36"/>
-    </row>
-    <row r="46" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W46" s="36"/>
-    </row>
-    <row r="47" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W47" s="36"/>
-    </row>
-    <row r="48" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W48" s="36"/>
-    </row>
-    <row r="49" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W49" s="36"/>
-    </row>
-    <row r="50" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W50" s="36"/>
-    </row>
-    <row r="51" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W51" s="36"/>
-    </row>
-    <row r="52" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W52" s="36"/>
-    </row>
-    <row r="53" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W53" s="36"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X31" s="36"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X32" s="36"/>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X33" s="36"/>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X34" s="36"/>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X35" s="36"/>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X36" s="36"/>
+    </row>
+    <row r="37" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X37" s="36"/>
+    </row>
+    <row r="38" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X38" s="36"/>
+    </row>
+    <row r="39" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X39" s="36"/>
+    </row>
+    <row r="40" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X40" s="36"/>
+    </row>
+    <row r="41" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="36"/>
+    </row>
+    <row r="42" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X42" s="36"/>
+    </row>
+    <row r="43" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="36"/>
+    </row>
+    <row r="44" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="36"/>
+    </row>
+    <row r="45" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="36"/>
+    </row>
+    <row r="46" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="36"/>
+    </row>
+    <row r="47" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X47" s="36"/>
+    </row>
+    <row r="48" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="36"/>
+    </row>
+    <row r="49" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X49" s="36"/>
+    </row>
+    <row r="50" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X50" s="36"/>
+    </row>
+    <row r="51" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X51" s="36"/>
+    </row>
+    <row r="52" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="36"/>
+    </row>
+    <row r="53" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X53" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10512,6 +10595,443 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="27">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E2" s="27">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
+        <v>3</v>
+      </c>
+      <c r="T2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W2" s="36">
+        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="27">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E3" s="27">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="31">
+        <v>3</v>
+      </c>
+      <c r="T3" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="35">
+        <v>21500</v>
+      </c>
+      <c r="W3" s="36">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="X3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="27">
+        <v>139</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42601</v>
+      </c>
+      <c r="E4" s="27">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31">
+        <v>4</v>
+      </c>
+      <c r="T4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V4" s="35">
+        <v>23800</v>
+      </c>
+      <c r="W4" s="36">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="X4" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="27">
+        <v>140</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42625</v>
+      </c>
+      <c r="E5" s="27">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31">
+        <v>2</v>
+      </c>
+      <c r="U5" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V5" s="35">
+        <v>25500</v>
+      </c>
+      <c r="W5" s="36">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="X5" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -11831,7 +12351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1260" windowWidth="50860" windowHeight="25500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5680" yWindow="560" windowWidth="47640" windowHeight="25440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -1320,12 +1320,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1532,7 +1550,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,6 +1668,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8411,8 +8480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9215,89 +9284,89 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="49">
         <v>139</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="50">
         <v>42601</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="49">
         <v>28</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="47">
         <v>1</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="51">
         <v>4</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="51">
         <v>-1</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="49">
         <v>18000</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="49">
         <v>23800</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="47">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="49">
         <v>150</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="Z10" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="47">
         <v>1</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AB10" s="49">
         <v>12</v>
       </c>
     </row>
@@ -9650,350 +9719,350 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="42">
         <v>140</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="46">
         <v>42625</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="42">
         <v>28</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="41">
         <v>1</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="43">
         <v>2</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="43">
         <v>2</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="42">
         <v>18000</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="42">
         <v>25500</v>
       </c>
-      <c r="X15" s="36">
+      <c r="X15" s="41">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="42">
         <v>150</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="Z15" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="41">
         <v>1</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AB15" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="42">
         <v>140</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="46">
         <v>42625</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="42">
         <v>28</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="41">
         <v>2</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="R16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="43">
         <v>2</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="43">
         <v>-1</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16" s="42">
         <v>15650</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="42">
         <v>21500</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="41">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="42">
         <v>150</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="41">
         <v>33</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AB16" s="42">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="49">
         <v>141</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="50">
         <v>42634</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="49">
         <v>28</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="47">
         <v>1</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="51">
         <v>0</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="51">
         <v>0</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="49">
         <v>18000</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="49">
         <v>19500</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="47">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y17" s="49">
         <v>150</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="Z17" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="47">
         <v>1</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AB17" s="49">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="49">
         <v>141</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="50">
         <v>42634</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="49">
         <v>28</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="47">
         <v>2</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="R18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="51">
         <v>2</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="51">
         <v>-1</v>
       </c>
-      <c r="V18" s="35">
+      <c r="V18" s="49">
         <v>15650</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="49">
         <v>24000</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="47">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Y18" s="49">
         <v>150</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="47">
         <v>33</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AB18" s="49">
         <v>9</v>
       </c>
     </row>
@@ -10346,89 +10415,89 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="55">
         <v>142</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="56">
         <v>42646</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="55">
         <v>28</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="53">
         <v>2</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="R23" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="57">
         <v>0</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="57">
         <v>-2</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23" s="55">
         <v>15650</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="55">
         <v>25000</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="53">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="Y23" s="55">
         <v>150</v>
       </c>
-      <c r="Z23" s="7" t="s">
+      <c r="Z23" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="53">
         <v>33</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AB23" s="55">
         <v>16</v>
       </c>
     </row>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="19940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="392">
   <si>
     <t>a3</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>m1</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>lowe</t>
@@ -2118,8 +2115,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2144,16 +2141,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -2162,72 +2159,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>183</v>
@@ -2239,28 +2236,28 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>M2</f>
@@ -2271,7 +2268,7 @@
         <v>left</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>13</v>
@@ -2296,7 +2293,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -2307,10 +2304,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>184</v>
@@ -2322,28 +2319,28 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N19" si="1">M3</f>
@@ -2354,10 +2351,10 @@
         <v>left</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="R3" s="8">
         <v>-7</v>
@@ -2379,7 +2376,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -2390,10 +2387,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>185</v>
@@ -2405,28 +2402,28 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2437,10 +2434,10 @@
         <v>left</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="R4" s="8">
         <v>-7</v>
@@ -2462,7 +2459,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y4" s="1">
         <v>1</v>
@@ -2473,10 +2470,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>211</v>
@@ -2488,25 +2485,25 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -2520,10 +2517,10 @@
         <v>right</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="R5" s="8">
         <v>-6.5</v>
@@ -2545,7 +2542,7 @@
         <v>150</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="1">
         <v>8</v>
@@ -2556,10 +2553,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>212</v>
@@ -2571,25 +2568,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
@@ -2603,10 +2600,10 @@
         <v>right</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="8">
         <v>-5</v>
@@ -2628,7 +2625,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="1">
         <v>8</v>
@@ -2639,13 +2636,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="3">
         <v>42458</v>
@@ -2654,25 +2651,25 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -2686,10 +2683,10 @@
         <v>right</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R7" s="8">
         <v>-5</v>
@@ -2711,7 +2708,7 @@
         <v>100</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="1">
         <v>8</v>
@@ -2722,10 +2719,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1">
         <v>213</v>
@@ -2737,25 +2734,25 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -2769,10 +2766,10 @@
         <v>right</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="R8" s="8">
         <v>-4</v>
@@ -2794,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="1">
         <v>8</v>
@@ -2805,13 +2802,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3">
         <v>42467</v>
@@ -2820,25 +2817,25 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -2852,10 +2849,10 @@
         <v>right</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="R9" s="8">
         <v>-5.5</v>
@@ -2877,7 +2874,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y9" s="1">
         <v>8</v>
@@ -2888,10 +2885,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1">
         <v>215</v>
@@ -2903,25 +2900,25 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -2935,10 +2932,10 @@
         <v>right</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R10" s="8">
         <v>-3</v>
@@ -2960,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="1">
         <v>8</v>
@@ -2971,10 +2968,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1">
         <v>216</v>
@@ -2986,25 +2983,25 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -3018,10 +3015,10 @@
         <v>right</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" s="8">
         <v>-6</v>
@@ -3043,7 +3040,7 @@
         <v>100</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y11" s="1">
         <v>8</v>
@@ -3054,13 +3051,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3">
         <v>42479</v>
@@ -3069,25 +3066,25 @@
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -3101,10 +3098,10 @@
         <v>right</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R12" s="8">
         <v>-7</v>
@@ -3126,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="1">
         <v>8</v>
@@ -3137,10 +3134,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1">
         <v>217</v>
@@ -3152,25 +3149,25 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -3184,10 +3181,10 @@
         <v>right</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" s="8">
         <v>-6</v>
@@ -3209,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -3220,10 +3217,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1">
         <v>218</v>
@@ -3235,25 +3232,25 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -3267,10 +3264,10 @@
         <v>right</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R14" s="8">
         <v>-4</v>
@@ -3292,7 +3289,7 @@
         <v>100</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="1">
         <v>8</v>
@@ -3303,10 +3300,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>219</v>
@@ -3318,25 +3315,25 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
@@ -3350,10 +3347,10 @@
         <v>right</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R15" s="8">
         <v>-5</v>
@@ -3375,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="1">
         <v>8</v>
@@ -3386,10 +3383,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1">
         <v>219</v>
@@ -3401,25 +3398,25 @@
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
@@ -3433,10 +3430,10 @@
         <v>right</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R16" s="8">
         <v>-6</v>
@@ -3458,7 +3455,7 @@
         <v>100</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="1">
         <v>8</v>
@@ -3469,10 +3466,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>221</v>
@@ -3484,25 +3481,25 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
@@ -3516,10 +3513,10 @@
         <v>right</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17" s="8">
         <v>-4</v>
@@ -3541,7 +3538,7 @@
         <v>100</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="1">
         <v>8</v>
@@ -3552,10 +3549,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1">
         <v>221</v>
@@ -3567,25 +3564,25 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -3599,10 +3596,10 @@
         <v>right</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R18" s="8">
         <v>-4</v>
@@ -3624,7 +3621,7 @@
         <v>150</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="1">
         <v>8</v>
@@ -3635,10 +3632,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1">
         <v>222</v>
@@ -3650,25 +3647,25 @@
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -3682,10 +3679,10 @@
         <v>right</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R19" s="8">
         <v>-4</v>
@@ -3707,7 +3704,7 @@
         <v>150</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="1">
         <v>8</v>
@@ -3718,10 +3715,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1">
         <v>222</v>
@@ -3733,25 +3730,25 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
@@ -3765,10 +3762,10 @@
         <v>right</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R20" s="8">
         <v>-4</v>
@@ -3790,7 +3787,7 @@
         <v>150</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y20" s="1">
         <v>8</v>
@@ -3801,10 +3798,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1">
         <v>223</v>
@@ -3816,25 +3813,25 @@
         <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>3</v>
@@ -3848,10 +3845,10 @@
         <v>right</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R21" s="8">
         <v>-5.5</v>
@@ -3873,7 +3870,7 @@
         <v>150</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y21" s="1">
         <v>8</v>
@@ -3884,10 +3881,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1">
         <v>223</v>
@@ -3899,25 +3896,25 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
@@ -3931,10 +3928,10 @@
         <v>right</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R22" s="8">
         <v>-4.5</v>
@@ -3956,7 +3953,7 @@
         <v>150</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y22" s="1">
         <v>8</v>
@@ -3967,10 +3964,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1">
         <v>224</v>
@@ -3982,25 +3979,25 @@
         <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>3</v>
@@ -4014,10 +4011,10 @@
         <v>right</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R23" s="8">
         <v>-4</v>
@@ -4039,7 +4036,7 @@
         <v>150</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y23" s="1">
         <v>8</v>
@@ -4100,16 +4097,16 @@
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -4118,72 +4115,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>23</v>
@@ -4195,25 +4192,25 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
@@ -4227,10 +4224,10 @@
         <v>right</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="8">
         <v>4</v>
@@ -4251,7 +4248,7 @@
         <v>100</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="1">
         <v>8</v>
@@ -4262,10 +4259,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7">
         <v>25</v>
@@ -4277,25 +4274,25 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
@@ -4309,10 +4306,10 @@
         <v>right</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="8">
         <v>5.5</v>
@@ -4333,7 +4330,7 @@
         <v>100</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="1">
         <v>8</v>
@@ -4344,10 +4341,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7">
         <v>25</v>
@@ -4359,25 +4356,25 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
@@ -4391,10 +4388,10 @@
         <v>right</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="8">
         <v>5.5</v>
@@ -4415,7 +4412,7 @@
         <v>100</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="1">
         <v>8</v>
@@ -4426,10 +4423,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -4441,25 +4438,25 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -4473,10 +4470,10 @@
         <v>right</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="8">
         <v>3.1</v>
@@ -4497,7 +4494,7 @@
         <v>100</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="1">
         <v>8</v>
@@ -4508,10 +4505,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -4523,25 +4520,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
@@ -4555,10 +4552,10 @@
         <v>right</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="8">
         <v>6</v>
@@ -4579,7 +4576,7 @@
         <v>100</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="1">
         <v>8</v>
@@ -4590,10 +4587,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7">
         <v>33</v>
@@ -4605,25 +4602,25 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -4637,10 +4634,10 @@
         <v>right</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R7" s="8">
         <v>4.8</v>
@@ -4661,7 +4658,7 @@
         <v>100</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="1">
         <v>8</v>
@@ -4672,10 +4669,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -4687,25 +4684,25 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -4719,10 +4716,10 @@
         <v>right</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="8">
         <v>4</v>
@@ -4743,7 +4740,7 @@
         <v>100</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="1">
         <v>8</v>
@@ -4754,10 +4751,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7">
         <v>37</v>
@@ -4769,25 +4766,25 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -4801,10 +4798,10 @@
         <v>right</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="8">
         <v>4</v>
@@ -4825,7 +4822,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y9" s="1">
         <v>8</v>
@@ -4836,10 +4833,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1">
         <v>37</v>
@@ -4851,25 +4848,25 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -4886,7 +4883,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="8">
         <v>2</v>
@@ -4907,7 +4904,7 @@
         <v>100</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="1">
         <v>8</v>
@@ -4918,10 +4915,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -4933,25 +4930,25 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -4989,7 +4986,7 @@
         <v>100</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y11" s="1">
         <v>8</v>
@@ -5000,10 +4997,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -5015,25 +5012,25 @@
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -5047,10 +5044,10 @@
         <v>right</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12" s="8">
         <v>1.2</v>
@@ -5071,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="1">
         <v>8</v>
@@ -5082,10 +5079,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7">
         <v>39</v>
@@ -5097,25 +5094,25 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -5129,10 +5126,10 @@
         <v>right</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" s="8">
         <v>1.2</v>
@@ -5153,7 +5150,7 @@
         <v>100</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -5164,10 +5161,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -5179,25 +5176,25 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -5211,10 +5208,10 @@
         <v>right</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R14" s="8">
         <v>4</v>
@@ -5235,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="1">
         <v>8</v>
@@ -5246,10 +5243,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="7">
         <v>41</v>
@@ -5261,25 +5258,25 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
@@ -5293,10 +5290,10 @@
         <v>right</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="8">
         <v>2.7</v>
@@ -5317,7 +5314,7 @@
         <v>100</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="1">
         <v>8</v>
@@ -5328,10 +5325,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7">
         <v>42</v>
@@ -5343,25 +5340,25 @@
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
@@ -5375,10 +5372,10 @@
         <v>right</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="8">
         <v>2.7</v>
@@ -5399,7 +5396,7 @@
         <v>100</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="1">
         <v>8</v>
@@ -5410,10 +5407,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
@@ -5425,25 +5422,25 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
@@ -5457,10 +5454,10 @@
         <v>right</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="8">
         <v>1.2</v>
@@ -5481,7 +5478,7 @@
         <v>100</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="1">
         <v>8</v>
@@ -5492,10 +5489,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="7">
         <v>44</v>
@@ -5507,25 +5504,25 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -5563,7 +5560,7 @@
         <v>100</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="1">
         <v>8</v>
@@ -5574,10 +5571,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7">
         <v>45</v>
@@ -5589,25 +5586,25 @@
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -5621,10 +5618,10 @@
         <v>right</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R19" s="8">
         <v>1.2</v>
@@ -5645,7 +5642,7 @@
         <v>100</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="1">
         <v>8</v>
@@ -5656,10 +5653,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="7">
         <v>45</v>
@@ -5671,25 +5668,25 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
@@ -5727,7 +5724,7 @@
         <v>100</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y20" s="1">
         <v>8</v>
@@ -5750,7 +5747,7 @@
   </sheetPr>
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10:AA13"/>
     </sheetView>
   </sheetViews>
@@ -5784,16 +5781,16 @@
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -5802,72 +5799,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="19">
         <v>128</v>
@@ -5882,22 +5879,22 @@
         <v>2</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>3</v>
@@ -5936,7 +5933,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="32">
         <v>1</v>
@@ -5947,10 +5944,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="19">
         <v>129</v>
@@ -5965,22 +5962,22 @@
         <v>2</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>3</v>
@@ -6019,7 +6016,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="32">
         <v>1</v>
@@ -6030,10 +6027,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C4" s="19">
         <v>129</v>
@@ -6048,22 +6045,22 @@
         <v>2</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>3</v>
@@ -6102,7 +6099,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="32">
         <v>1</v>
@@ -6113,10 +6110,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="19">
         <v>129</v>
@@ -6131,22 +6128,22 @@
         <v>2</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>3</v>
@@ -6185,7 +6182,7 @@
         <v>150</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y5" s="32">
         <v>1</v>
@@ -6196,10 +6193,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="19">
         <v>130</v>
@@ -6214,22 +6211,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>3</v>
@@ -6268,7 +6265,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y6" s="32">
         <v>1</v>
@@ -6279,10 +6276,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="19">
         <v>130</v>
@@ -6297,22 +6294,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>3</v>
@@ -6351,7 +6348,7 @@
         <v>150</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="32">
         <v>1</v>
@@ -6362,10 +6359,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="19">
         <v>130</v>
@@ -6380,22 +6377,22 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>3</v>
@@ -6434,7 +6431,7 @@
         <v>150</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y8" s="32">
         <v>1</v>
@@ -6445,10 +6442,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="19">
         <v>131</v>
@@ -6463,22 +6460,22 @@
         <v>2</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>3</v>
@@ -6517,7 +6514,7 @@
         <v>150</v>
       </c>
       <c r="X9" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="32">
         <v>1</v>
@@ -6528,10 +6525,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C10" s="19">
         <v>131</v>
@@ -6546,22 +6543,22 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>3</v>
@@ -6600,7 +6597,7 @@
         <v>150</v>
       </c>
       <c r="X10" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y10" s="32">
         <v>1</v>
@@ -6612,10 +6609,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C11" s="19">
         <v>132</v>
@@ -6630,22 +6627,22 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>3</v>
@@ -6684,7 +6681,7 @@
         <v>150</v>
       </c>
       <c r="X11" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y11" s="32">
         <v>1</v>
@@ -6696,10 +6693,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C12" s="19">
         <v>133</v>
@@ -6714,22 +6711,22 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>3</v>
@@ -6768,7 +6765,7 @@
         <v>150</v>
       </c>
       <c r="X12" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="32">
         <v>1</v>
@@ -6780,10 +6777,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="19">
         <v>133</v>
@@ -6798,22 +6795,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>3</v>
@@ -6852,7 +6849,7 @@
         <v>150</v>
       </c>
       <c r="X13" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="32">
         <v>1</v>
@@ -8403,7 +8400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -8423,16 +8420,16 @@
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -8441,75 +8438,75 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="27">
         <v>134</v>
@@ -8521,28 +8518,28 @@
         <v>28</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>3</v>
@@ -8551,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>0</v>
@@ -8579,7 +8576,7 @@
         <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
@@ -8590,10 +8587,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="27">
         <v>134</v>
@@ -8605,28 +8602,28 @@
         <v>28</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>3</v>
@@ -8635,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="27" t="s">
         <v>0</v>
@@ -8663,7 +8660,7 @@
         <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z3" s="7">
         <v>1</v>
@@ -8674,10 +8671,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C4" s="27">
         <v>135</v>
@@ -8689,28 +8686,28 @@
         <v>28</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>3</v>
@@ -8719,7 +8716,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>0</v>
@@ -8747,7 +8744,7 @@
         <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z4" s="7">
         <v>1</v>
@@ -8758,10 +8755,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="27">
         <v>136</v>
@@ -8773,28 +8770,28 @@
         <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>3</v>
@@ -8803,7 +8800,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>4</v>
@@ -8831,7 +8828,7 @@
         <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z5" s="7">
         <v>1</v>
@@ -8842,10 +8839,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="27">
         <v>137</v>
@@ -8857,28 +8854,28 @@
         <v>28</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>3</v>
@@ -8887,7 +8884,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>4</v>
@@ -8915,7 +8912,7 @@
         <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z6" s="7">
         <v>1</v>
@@ -8926,10 +8923,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="27">
         <v>137</v>
@@ -8941,28 +8938,28 @@
         <v>28</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>3</v>
@@ -8971,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="27" t="s">
         <v>0</v>
@@ -8999,7 +8996,7 @@
         <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z7" s="7">
         <v>1</v>
@@ -9010,10 +9007,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="27">
         <v>138</v>
@@ -9025,28 +9022,28 @@
         <v>28</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>3</v>
@@ -9055,10 +9052,10 @@
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z8" s="7">
         <v>1</v>
@@ -9094,10 +9091,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="27">
         <v>138</v>
@@ -9109,28 +9106,28 @@
         <v>28</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>3</v>
@@ -9139,10 +9136,10 @@
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>5</v>
@@ -9167,7 +9164,7 @@
         <v>150</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z9" s="7">
         <v>1</v>
@@ -9178,10 +9175,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C10" s="27">
         <v>139</v>
@@ -9193,28 +9190,28 @@
         <v>28</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>3</v>
@@ -9223,10 +9220,10 @@
         <v>3</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>5</v>
@@ -9251,7 +9248,7 @@
         <v>150</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z10" s="7">
         <v>1</v>
@@ -9262,10 +9259,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C11" s="27">
         <v>139</v>
@@ -9277,28 +9274,28 @@
         <v>28</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>3</v>
@@ -9307,10 +9304,10 @@
         <v>3</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>5</v>
@@ -9335,7 +9332,7 @@
         <v>150</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z11" s="7">
         <v>1</v>
@@ -9346,13 +9343,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C12" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="11">
         <v>42613</v>
@@ -9361,28 +9358,28 @@
         <v>28</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>3</v>
@@ -9391,10 +9388,10 @@
         <v>3</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>8</v>
@@ -9419,7 +9416,7 @@
         <v>150</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z12" s="7">
         <v>1</v>
@@ -9430,10 +9427,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="27">
         <v>140</v>
@@ -9445,28 +9442,28 @@
         <v>28</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>3</v>
@@ -9475,7 +9472,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="27" t="s">
         <v>4</v>
@@ -9503,7 +9500,7 @@
         <v>150</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z13" s="7">
         <v>1</v>
@@ -9514,10 +9511,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C14" s="27">
         <v>140</v>
@@ -9529,28 +9526,28 @@
         <v>28</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>3</v>
@@ -9559,7 +9556,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="27" t="s">
         <v>4</v>
@@ -9587,7 +9584,7 @@
         <v>150</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z14" s="7">
         <v>33</v>
@@ -9598,10 +9595,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C15" s="27">
         <v>140</v>
@@ -9613,28 +9610,28 @@
         <v>28</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>3</v>
@@ -9643,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>4</v>
@@ -9671,7 +9668,7 @@
         <v>150</v>
       </c>
       <c r="Y15" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z15" s="7">
         <v>1</v>
@@ -9682,10 +9679,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C16" s="27">
         <v>140</v>
@@ -9697,28 +9694,28 @@
         <v>28</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>3</v>
@@ -9727,7 +9724,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="27" t="s">
         <v>4</v>
@@ -9755,7 +9752,7 @@
         <v>150</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z16" s="7">
         <v>33</v>
@@ -9766,10 +9763,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C17" s="27">
         <v>141</v>
@@ -9781,28 +9778,28 @@
         <v>28</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>3</v>
@@ -9811,10 +9808,10 @@
         <v>3</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>10</v>
@@ -9839,7 +9836,7 @@
         <v>150</v>
       </c>
       <c r="Y17" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z17" s="7">
         <v>1</v>
@@ -9850,10 +9847,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="27">
         <v>141</v>
@@ -9865,28 +9862,28 @@
         <v>28</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>3</v>
@@ -9895,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="27" t="s">
         <v>4</v>
@@ -9923,7 +9920,7 @@
         <v>150</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z18" s="7">
         <v>33</v>
@@ -9934,10 +9931,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C19" s="27">
         <v>141</v>
@@ -9949,28 +9946,28 @@
         <v>28</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>3</v>
@@ -9979,10 +9976,10 @@
         <v>3</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>1</v>
@@ -10007,7 +10004,7 @@
         <v>150</v>
       </c>
       <c r="Y19" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z19" s="7">
         <v>1</v>
@@ -10018,10 +10015,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C20" s="27">
         <v>141</v>
@@ -10033,28 +10030,28 @@
         <v>28</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>3</v>
@@ -10063,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>4</v>
@@ -10091,7 +10088,7 @@
         <v>150</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z20" s="7">
         <v>33</v>
@@ -10102,13 +10099,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11">
         <v>42641</v>
@@ -10117,28 +10114,28 @@
         <v>28</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>3</v>
@@ -10147,10 +10144,10 @@
         <v>3</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>1</v>
@@ -10175,7 +10172,7 @@
         <v>150</v>
       </c>
       <c r="Y21" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z21" s="7">
         <v>1</v>
@@ -10186,13 +10183,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C22" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="11">
         <v>42641</v>
@@ -10201,28 +10198,28 @@
         <v>28</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>3</v>
@@ -10231,7 +10228,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="27" t="s">
         <v>4</v>
@@ -10259,7 +10256,7 @@
         <v>150</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z22" s="7">
         <v>33</v>
@@ -10270,10 +10267,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C23" s="27">
         <v>142</v>
@@ -10285,28 +10282,28 @@
         <v>28</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>3</v>
@@ -10315,10 +10312,10 @@
         <v>3</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>1</v>
@@ -10343,7 +10340,7 @@
         <v>150</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z23" s="7">
         <v>33</v>
@@ -10354,10 +10351,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C24" s="27">
         <v>142</v>
@@ -10369,28 +10366,28 @@
         <v>28</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>3</v>
@@ -10399,10 +10396,10 @@
         <v>3</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>1</v>
@@ -10427,7 +10424,7 @@
         <v>150</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z24" s="7">
         <v>33</v>
@@ -10518,8 +10515,8 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10550,16 +10547,16 @@
   <sheetData>
     <row r="1" spans="1:28" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -10568,73 +10565,73 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="17">
         <v>59</v>
@@ -10649,28 +10646,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>N2</f>
@@ -10702,11 +10699,11 @@
         <f t="shared" ref="W2" si="0">V2-U2</f>
         <v>2560</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>14</v>
+      <c r="X2" s="15">
+        <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="15">
         <v>1</v>
@@ -10716,10 +10713,10 @@
     </row>
     <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C3" s="17">
         <v>60</v>
@@ -10734,28 +10731,28 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ref="O3:O14" si="1">N3</f>
@@ -10787,11 +10784,11 @@
         <f>V3-U3</f>
         <v>1651</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>14</v>
+      <c r="X3" s="15">
+        <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z3" s="15">
         <v>1</v>
@@ -10801,10 +10798,10 @@
     </row>
     <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C4" s="17">
         <v>61</v>
@@ -10819,28 +10816,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10872,11 +10869,11 @@
         <f>V4-U4</f>
         <v>1600</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>14</v>
+      <c r="X4" s="15">
+        <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="15">
         <v>1</v>
@@ -10886,10 +10883,10 @@
     </row>
     <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="17">
         <v>62</v>
@@ -10904,28 +10901,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>362</v>
-      </c>
       <c r="J5" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10936,7 +10933,7 @@
         <v>left</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>13</v>
@@ -10957,11 +10954,11 @@
         <f t="shared" ref="W5:W14" si="3">V5-U5</f>
         <v>1906</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>14</v>
+      <c r="X5" s="15">
+        <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -10971,10 +10968,10 @@
     </row>
     <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C6" s="17">
         <v>63</v>
@@ -10989,28 +10986,28 @@
         <v>2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11021,7 +11018,7 @@
         <v>left</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>10</v>
@@ -11042,11 +11039,11 @@
         <f t="shared" si="3"/>
         <v>1095</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>14</v>
+      <c r="X6" s="15">
+        <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="15">
         <v>1</v>
@@ -11056,10 +11053,10 @@
     </row>
     <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C7" s="17">
         <v>64</v>
@@ -11074,28 +11071,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11127,11 +11124,11 @@
         <f t="shared" si="3"/>
         <v>3950</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>14</v>
+      <c r="X7" s="15">
+        <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="15">
         <v>1</v>
@@ -11141,10 +11138,10 @@
     </row>
     <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C8" s="17">
         <v>64</v>
@@ -11159,28 +11156,28 @@
         <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11191,7 +11188,7 @@
         <v>left</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>10</v>
@@ -11212,11 +11209,11 @@
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>14</v>
+      <c r="X8" s="15">
+        <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z8" s="15">
         <v>1</v>
@@ -11226,10 +11223,10 @@
     </row>
     <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C9" s="17">
         <v>65</v>
@@ -11244,28 +11241,28 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11276,7 +11273,7 @@
         <v>left</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>9</v>
@@ -11297,11 +11294,11 @@
         <f t="shared" si="3"/>
         <v>4905</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="15">
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="15">
         <v>1</v>
@@ -11311,10 +11308,10 @@
     </row>
     <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>66</v>
@@ -11329,28 +11326,28 @@
         <v>2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11364,7 +11361,7 @@
         <v>11</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="21">
         <v>1</v>
@@ -11382,11 +11379,11 @@
         <f t="shared" si="3"/>
         <v>5032</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="15">
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z10" s="15">
         <v>1</v>
@@ -11396,10 +11393,10 @@
     </row>
     <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C11" s="17">
         <v>68</v>
@@ -11414,28 +11411,28 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11471,7 +11468,7 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z11" s="15">
         <v>1</v>
@@ -11481,10 +11478,10 @@
     </row>
     <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C12" s="17">
         <v>69</v>
@@ -11499,28 +11496,28 @@
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11531,7 +11528,7 @@
         <v>left</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>9</v>
@@ -11556,7 +11553,7 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z12" s="15">
         <v>1</v>
@@ -11566,10 +11563,10 @@
     </row>
     <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C13" s="17">
         <v>69</v>
@@ -11584,28 +11581,28 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11616,7 +11613,7 @@
         <v>left</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="17" t="s">
         <v>9</v>
@@ -11641,7 +11638,7 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z13" s="15">
         <v>1</v>
@@ -11651,10 +11648,10 @@
     </row>
     <row r="14" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C14" s="17">
         <v>71</v>
@@ -11669,28 +11666,28 @@
         <v>2</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11701,7 +11698,7 @@
         <v>left</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="17" t="s">
         <v>5</v>
@@ -11726,7 +11723,7 @@
         <v>200</v>
       </c>
       <c r="Y14" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z14" s="15">
         <v>1</v>
@@ -11838,8 +11835,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11862,16 +11859,16 @@
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -11880,73 +11877,73 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="15">
         <v>31</v>
@@ -11961,28 +11958,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>N2</f>
@@ -11993,7 +11990,7 @@
         <v>left</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>9</v>
@@ -12014,11 +12011,11 @@
         <f t="shared" ref="W2" si="0">V2-U2</f>
         <v>3355</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>14</v>
+      <c r="X2" s="15">
+        <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="18">
         <v>1</v>
@@ -12027,10 +12024,10 @@
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C3" s="15">
         <v>31</v>
@@ -12045,28 +12042,28 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ref="O3:O13" si="1">N3</f>
@@ -12077,7 +12074,7 @@
         <v>left</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>9</v>
@@ -12098,11 +12095,11 @@
         <f>V3-U3</f>
         <v>3355</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>14</v>
+      <c r="X3" s="15">
+        <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z3" s="18">
         <v>1</v>
@@ -12111,10 +12108,10 @@
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C4" s="15">
         <v>32</v>
@@ -12129,28 +12126,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12161,7 +12158,7 @@
         <v>left</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>13</v>
@@ -12182,11 +12179,11 @@
         <f>V4-U4</f>
         <v>2000</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>14</v>
+      <c r="X4" s="15">
+        <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="18">
         <v>1</v>
@@ -12195,10 +12192,10 @@
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="15">
         <v>33</v>
@@ -12213,28 +12210,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12245,7 +12242,7 @@
         <v>left</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>13</v>
@@ -12266,11 +12263,11 @@
         <f t="shared" ref="W5:W13" si="3">V5-U5</f>
         <v>7153</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>14</v>
+      <c r="X5" s="15">
+        <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="18">
         <v>1</v>
@@ -12279,10 +12276,10 @@
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="15">
         <v>34</v>
@@ -12297,28 +12294,28 @@
         <v>2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12329,7 +12326,7 @@
         <v>left</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>9</v>
@@ -12350,11 +12347,11 @@
         <f t="shared" si="3"/>
         <v>3300</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>14</v>
+      <c r="X6" s="15">
+        <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="18">
         <v>1</v>
@@ -12363,10 +12360,10 @@
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C7" s="15">
         <v>35</v>
@@ -12381,28 +12378,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12413,7 +12410,7 @@
         <v>left</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>9</v>
@@ -12434,11 +12431,11 @@
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>14</v>
+      <c r="X7" s="15">
+        <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="18">
         <v>1</v>
@@ -12447,10 +12444,10 @@
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C8" s="15">
         <v>35</v>
@@ -12465,28 +12462,28 @@
         <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12497,7 +12494,7 @@
         <v>left</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>9</v>
@@ -12518,11 +12515,11 @@
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>14</v>
+      <c r="X8" s="15">
+        <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z8" s="18">
         <v>1</v>
@@ -12531,10 +12528,10 @@
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C9" s="15">
         <v>38</v>
@@ -12549,28 +12546,28 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12581,7 +12578,7 @@
         <v>left</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>9</v>
@@ -12606,7 +12603,7 @@
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="18">
         <v>1</v>
@@ -12615,10 +12612,10 @@
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C10" s="15">
         <v>40</v>
@@ -12633,28 +12630,28 @@
         <v>2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12665,7 +12662,7 @@
         <v>left</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>13</v>
@@ -12690,7 +12687,7 @@
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z10" s="18">
         <v>1</v>
@@ -12699,10 +12696,10 @@
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C11" s="15">
         <v>40</v>
@@ -12717,28 +12714,28 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12749,7 +12746,7 @@
         <v>left</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>13</v>
@@ -12774,7 +12771,7 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z11" s="18">
         <v>1</v>
@@ -12783,10 +12780,10 @@
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C12" s="15">
         <v>41</v>
@@ -12801,28 +12798,28 @@
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12833,7 +12830,7 @@
         <v>left</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>10</v>
@@ -12858,7 +12855,7 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z12" s="18">
         <v>1</v>
@@ -12867,10 +12864,10 @@
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C13" s="15">
         <v>42</v>
@@ -12885,28 +12882,28 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12917,10 +12914,10 @@
         <v>left</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="S13" s="22">
         <v>-1</v>
@@ -12942,7 +12939,7 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z13" s="18">
         <v>1</v>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="560" windowWidth="47640" windowHeight="25440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-2580" yWindow="11380" windowWidth="41760" windowHeight="25600" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
     <sheet name="Da_WJ" sheetId="6" r:id="rId3"/>
     <sheet name="Da_K" sheetId="7" r:id="rId4"/>
-    <sheet name="TestDarwin" sheetId="8" r:id="rId5"/>
-    <sheet name="Ga" sheetId="4" r:id="rId6"/>
-    <sheet name="He" sheetId="5" r:id="rId7"/>
+    <sheet name="Ga" sheetId="4" r:id="rId5"/>
+    <sheet name="He" sheetId="5" r:id="rId6"/>
+    <sheet name="TestNhp" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="393">
   <si>
     <t>a3</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>m1</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>lowe</t>
@@ -2221,16 +2218,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -2239,72 +2236,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>183</v>
@@ -2316,28 +2313,28 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>M2</f>
@@ -2348,7 +2345,7 @@
         <v>left</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>13</v>
@@ -2373,7 +2370,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -2384,10 +2381,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>184</v>
@@ -2399,28 +2396,28 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N19" si="1">M3</f>
@@ -2431,10 +2428,10 @@
         <v>left</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="R3" s="8">
         <v>-7</v>
@@ -2456,7 +2453,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -2467,10 +2464,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>185</v>
@@ -2482,28 +2479,28 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2514,10 +2511,10 @@
         <v>left</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="R4" s="8">
         <v>-7</v>
@@ -2539,7 +2536,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y4" s="1">
         <v>1</v>
@@ -2550,10 +2547,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>211</v>
@@ -2565,25 +2562,25 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -2597,10 +2594,10 @@
         <v>right</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="R5" s="8">
         <v>-6.5</v>
@@ -2622,7 +2619,7 @@
         <v>150</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="1">
         <v>8</v>
@@ -2633,10 +2630,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>212</v>
@@ -2648,25 +2645,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
@@ -2680,10 +2677,10 @@
         <v>right</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="8">
         <v>-5</v>
@@ -2705,7 +2702,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="1">
         <v>8</v>
@@ -2716,13 +2713,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="3">
         <v>42458</v>
@@ -2731,25 +2728,25 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -2763,10 +2760,10 @@
         <v>right</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R7" s="8">
         <v>-5</v>
@@ -2788,7 +2785,7 @@
         <v>100</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="1">
         <v>8</v>
@@ -2799,10 +2796,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1">
         <v>213</v>
@@ -2814,25 +2811,25 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -2846,10 +2843,10 @@
         <v>right</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="R8" s="8">
         <v>-4</v>
@@ -2871,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="1">
         <v>8</v>
@@ -2882,13 +2879,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3">
         <v>42467</v>
@@ -2897,25 +2894,25 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -2929,10 +2926,10 @@
         <v>right</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="R9" s="8">
         <v>-5.5</v>
@@ -2954,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y9" s="1">
         <v>8</v>
@@ -2965,10 +2962,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1">
         <v>215</v>
@@ -2980,25 +2977,25 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -3012,10 +3009,10 @@
         <v>right</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R10" s="8">
         <v>-3</v>
@@ -3037,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="1">
         <v>8</v>
@@ -3048,10 +3045,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1">
         <v>216</v>
@@ -3063,25 +3060,25 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -3095,10 +3092,10 @@
         <v>right</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" s="8">
         <v>-6</v>
@@ -3120,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y11" s="1">
         <v>8</v>
@@ -3131,13 +3128,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3">
         <v>42479</v>
@@ -3146,25 +3143,25 @@
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -3178,10 +3175,10 @@
         <v>right</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R12" s="8">
         <v>-7</v>
@@ -3203,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="1">
         <v>8</v>
@@ -3214,10 +3211,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1">
         <v>217</v>
@@ -3229,25 +3226,25 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -3261,10 +3258,10 @@
         <v>right</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" s="8">
         <v>-6</v>
@@ -3286,7 +3283,7 @@
         <v>100</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -3297,10 +3294,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1">
         <v>218</v>
@@ -3312,25 +3309,25 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -3344,10 +3341,10 @@
         <v>right</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R14" s="8">
         <v>-4</v>
@@ -3369,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="1">
         <v>8</v>
@@ -3380,10 +3377,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>219</v>
@@ -3395,25 +3392,25 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
@@ -3427,10 +3424,10 @@
         <v>right</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R15" s="8">
         <v>-5</v>
@@ -3452,7 +3449,7 @@
         <v>100</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="1">
         <v>8</v>
@@ -3463,10 +3460,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1">
         <v>219</v>
@@ -3478,25 +3475,25 @@
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
@@ -3510,10 +3507,10 @@
         <v>right</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R16" s="8">
         <v>-6</v>
@@ -3535,7 +3532,7 @@
         <v>100</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="1">
         <v>8</v>
@@ -3546,10 +3543,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>221</v>
@@ -3561,25 +3558,25 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
@@ -3593,10 +3590,10 @@
         <v>right</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17" s="8">
         <v>-4</v>
@@ -3618,7 +3615,7 @@
         <v>100</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="1">
         <v>8</v>
@@ -3629,10 +3626,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1">
         <v>221</v>
@@ -3644,25 +3641,25 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -3676,10 +3673,10 @@
         <v>right</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R18" s="8">
         <v>-4</v>
@@ -3701,7 +3698,7 @@
         <v>150</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="1">
         <v>8</v>
@@ -3712,10 +3709,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1">
         <v>222</v>
@@ -3727,25 +3724,25 @@
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -3759,10 +3756,10 @@
         <v>right</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R19" s="8">
         <v>-4</v>
@@ -3784,7 +3781,7 @@
         <v>150</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="1">
         <v>8</v>
@@ -3795,10 +3792,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1">
         <v>222</v>
@@ -3810,25 +3807,25 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
@@ -3842,10 +3839,10 @@
         <v>right</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R20" s="8">
         <v>-4</v>
@@ -3867,7 +3864,7 @@
         <v>150</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y20" s="1">
         <v>8</v>
@@ -3878,10 +3875,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1">
         <v>223</v>
@@ -3893,25 +3890,25 @@
         <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>3</v>
@@ -3925,10 +3922,10 @@
         <v>right</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R21" s="8">
         <v>-5.5</v>
@@ -3950,7 +3947,7 @@
         <v>150</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y21" s="1">
         <v>8</v>
@@ -3961,10 +3958,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1">
         <v>223</v>
@@ -3976,25 +3973,25 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
@@ -4008,10 +4005,10 @@
         <v>right</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R22" s="8">
         <v>-4.5</v>
@@ -4033,7 +4030,7 @@
         <v>150</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y22" s="1">
         <v>8</v>
@@ -4044,10 +4041,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1">
         <v>224</v>
@@ -4059,25 +4056,25 @@
         <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>3</v>
@@ -4091,10 +4088,10 @@
         <v>right</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R23" s="8">
         <v>-4</v>
@@ -4116,7 +4113,7 @@
         <v>150</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y23" s="1">
         <v>8</v>
@@ -4177,16 +4174,16 @@
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -4195,72 +4192,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>23</v>
@@ -4272,25 +4269,25 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
@@ -4304,10 +4301,10 @@
         <v>right</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="8">
         <v>4</v>
@@ -4328,7 +4325,7 @@
         <v>100</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="1">
         <v>8</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7">
         <v>25</v>
@@ -4354,25 +4351,25 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
@@ -4386,10 +4383,10 @@
         <v>right</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="8">
         <v>5.5</v>
@@ -4410,7 +4407,7 @@
         <v>100</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="1">
         <v>8</v>
@@ -4421,10 +4418,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7">
         <v>25</v>
@@ -4436,25 +4433,25 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
@@ -4468,10 +4465,10 @@
         <v>right</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="8">
         <v>5.5</v>
@@ -4492,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="1">
         <v>8</v>
@@ -4503,10 +4500,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -4518,25 +4515,25 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -4550,10 +4547,10 @@
         <v>right</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="8">
         <v>3.1</v>
@@ -4574,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="1">
         <v>8</v>
@@ -4585,10 +4582,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -4600,25 +4597,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
@@ -4632,10 +4629,10 @@
         <v>right</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="8">
         <v>6</v>
@@ -4656,7 +4653,7 @@
         <v>100</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="1">
         <v>8</v>
@@ -4667,10 +4664,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7">
         <v>33</v>
@@ -4682,25 +4679,25 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -4714,10 +4711,10 @@
         <v>right</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R7" s="8">
         <v>4.8</v>
@@ -4738,7 +4735,7 @@
         <v>100</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="1">
         <v>8</v>
@@ -4749,10 +4746,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -4764,25 +4761,25 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -4796,10 +4793,10 @@
         <v>right</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="8">
         <v>4</v>
@@ -4820,7 +4817,7 @@
         <v>100</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="1">
         <v>8</v>
@@ -4831,10 +4828,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7">
         <v>37</v>
@@ -4846,25 +4843,25 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -4878,10 +4875,10 @@
         <v>right</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="8">
         <v>4</v>
@@ -4902,7 +4899,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y9" s="1">
         <v>8</v>
@@ -4913,10 +4910,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1">
         <v>37</v>
@@ -4928,25 +4925,25 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -4963,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" s="8">
         <v>2</v>
@@ -4984,7 +4981,7 @@
         <v>100</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y10" s="1">
         <v>8</v>
@@ -4995,10 +4992,10 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -5010,25 +5007,25 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -5066,7 +5063,7 @@
         <v>100</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y11" s="1">
         <v>8</v>
@@ -5077,10 +5074,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -5092,25 +5089,25 @@
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -5124,10 +5121,10 @@
         <v>right</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12" s="8">
         <v>1.2</v>
@@ -5148,7 +5145,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="1">
         <v>8</v>
@@ -5159,10 +5156,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7">
         <v>39</v>
@@ -5174,25 +5171,25 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -5206,10 +5203,10 @@
         <v>right</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" s="8">
         <v>1.2</v>
@@ -5230,7 +5227,7 @@
         <v>100</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -5241,10 +5238,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -5256,25 +5253,25 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -5288,10 +5285,10 @@
         <v>right</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R14" s="8">
         <v>4</v>
@@ -5312,7 +5309,7 @@
         <v>100</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="1">
         <v>8</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="7">
         <v>41</v>
@@ -5338,25 +5335,25 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
@@ -5370,10 +5367,10 @@
         <v>right</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="8">
         <v>2.7</v>
@@ -5394,7 +5391,7 @@
         <v>100</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="1">
         <v>8</v>
@@ -5405,10 +5402,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7">
         <v>42</v>
@@ -5420,25 +5417,25 @@
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
@@ -5452,10 +5449,10 @@
         <v>right</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="8">
         <v>2.7</v>
@@ -5476,7 +5473,7 @@
         <v>100</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="1">
         <v>8</v>
@@ -5487,10 +5484,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
@@ -5502,25 +5499,25 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
@@ -5534,10 +5531,10 @@
         <v>right</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="8">
         <v>1.2</v>
@@ -5558,7 +5555,7 @@
         <v>100</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="1">
         <v>8</v>
@@ -5569,10 +5566,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="7">
         <v>44</v>
@@ -5584,25 +5581,25 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -5640,7 +5637,7 @@
         <v>100</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="1">
         <v>8</v>
@@ -5651,10 +5648,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7">
         <v>45</v>
@@ -5666,25 +5663,25 @@
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -5698,10 +5695,10 @@
         <v>right</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R19" s="8">
         <v>1.2</v>
@@ -5722,7 +5719,7 @@
         <v>100</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="1">
         <v>8</v>
@@ -5733,10 +5730,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="7">
         <v>45</v>
@@ -5748,25 +5745,25 @@
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
@@ -5804,7 +5801,7 @@
         <v>100</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y20" s="1">
         <v>8</v>
@@ -5861,16 +5858,16 @@
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -5879,72 +5876,72 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="19">
         <v>128</v>
@@ -5959,22 +5956,22 @@
         <v>2</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>3</v>
@@ -6013,7 +6010,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="32">
         <v>1</v>
@@ -6024,10 +6021,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="19">
         <v>129</v>
@@ -6042,22 +6039,22 @@
         <v>2</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>3</v>
@@ -6096,7 +6093,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="32">
         <v>1</v>
@@ -6107,10 +6104,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C4" s="19">
         <v>129</v>
@@ -6125,22 +6122,22 @@
         <v>2</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>3</v>
@@ -6179,7 +6176,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="32">
         <v>1</v>
@@ -6190,10 +6187,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="19">
         <v>129</v>
@@ -6208,22 +6205,22 @@
         <v>2</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>3</v>
@@ -6262,7 +6259,7 @@
         <v>150</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y5" s="32">
         <v>1</v>
@@ -6273,10 +6270,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="19">
         <v>130</v>
@@ -6291,22 +6288,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>3</v>
@@ -6345,7 +6342,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y6" s="32">
         <v>1</v>
@@ -6356,10 +6353,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="19">
         <v>130</v>
@@ -6374,22 +6371,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>3</v>
@@ -6428,7 +6425,7 @@
         <v>150</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="32">
         <v>1</v>
@@ -6439,10 +6436,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="19">
         <v>130</v>
@@ -6457,22 +6454,22 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>3</v>
@@ -6511,7 +6508,7 @@
         <v>150</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y8" s="32">
         <v>1</v>
@@ -6522,10 +6519,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="19">
         <v>131</v>
@@ -6540,22 +6537,22 @@
         <v>2</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>3</v>
@@ -6594,7 +6591,7 @@
         <v>150</v>
       </c>
       <c r="X9" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="32">
         <v>1</v>
@@ -6605,10 +6602,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C10" s="19">
         <v>131</v>
@@ -6623,22 +6620,22 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>3</v>
@@ -6677,7 +6674,7 @@
         <v>150</v>
       </c>
       <c r="X10" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y10" s="32">
         <v>1</v>
@@ -6689,10 +6686,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C11" s="19">
         <v>132</v>
@@ -6707,22 +6704,22 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>3</v>
@@ -6761,7 +6758,7 @@
         <v>150</v>
       </c>
       <c r="X11" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y11" s="32">
         <v>1</v>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C12" s="19">
         <v>133</v>
@@ -6791,22 +6788,22 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>3</v>
@@ -6845,7 +6842,7 @@
         <v>150</v>
       </c>
       <c r="X12" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="32">
         <v>1</v>
@@ -6857,10 +6854,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="19">
         <v>133</v>
@@ -6875,22 +6872,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>3</v>
@@ -6929,7 +6926,7 @@
         <v>150</v>
       </c>
       <c r="X13" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="32">
         <v>1</v>
@@ -8480,7 +8477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -8503,16 +8500,16 @@
   <sheetData>
     <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -8521,78 +8518,78 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="27">
         <v>134</v>
@@ -8604,31 +8601,31 @@
         <v>28</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>3</v>
@@ -8637,7 +8634,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>0</v>
@@ -8665,7 +8662,7 @@
         <v>150</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA2" s="7">
         <v>1</v>
@@ -8676,10 +8673,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="27">
         <v>134</v>
@@ -8691,31 +8688,31 @@
         <v>28</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>3</v>
@@ -8724,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>0</v>
@@ -8752,7 +8749,7 @@
         <v>150</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA3" s="7">
         <v>1</v>
@@ -8763,10 +8760,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C4" s="27">
         <v>135</v>
@@ -8778,31 +8775,31 @@
         <v>28</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>3</v>
@@ -8811,7 +8808,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>0</v>
@@ -8839,7 +8836,7 @@
         <v>150</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA4" s="7">
         <v>1</v>
@@ -8850,10 +8847,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="27">
         <v>136</v>
@@ -8865,31 +8862,31 @@
         <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>3</v>
@@ -8898,7 +8895,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>4</v>
@@ -8926,7 +8923,7 @@
         <v>150</v>
       </c>
       <c r="Z5" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA5" s="7">
         <v>1</v>
@@ -8937,10 +8934,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="27">
         <v>137</v>
@@ -8952,31 +8949,31 @@
         <v>28</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>3</v>
@@ -8985,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>4</v>
@@ -9013,7 +9010,7 @@
         <v>150</v>
       </c>
       <c r="Z6" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA6" s="7">
         <v>1</v>
@@ -9024,10 +9021,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="27">
         <v>137</v>
@@ -9039,31 +9036,31 @@
         <v>28</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>3</v>
@@ -9072,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>0</v>
@@ -9100,7 +9097,7 @@
         <v>150</v>
       </c>
       <c r="Z7" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA7" s="7">
         <v>1</v>
@@ -9111,10 +9108,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="27">
         <v>138</v>
@@ -9126,31 +9123,31 @@
         <v>28</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>3</v>
@@ -9159,10 +9156,10 @@
         <v>3</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8" s="27" t="s">
         <v>1</v>
@@ -9187,7 +9184,7 @@
         <v>150</v>
       </c>
       <c r="Z8" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="7">
         <v>1</v>
@@ -9198,10 +9195,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="27">
         <v>138</v>
@@ -9213,31 +9210,31 @@
         <v>28</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>3</v>
@@ -9246,10 +9243,10 @@
         <v>3</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" s="27" t="s">
         <v>5</v>
@@ -9274,7 +9271,7 @@
         <v>150</v>
       </c>
       <c r="Z9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA9" s="7">
         <v>1</v>
@@ -9285,10 +9282,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>112</v>
       </c>
       <c r="C10" s="49">
         <v>139</v>
@@ -9300,31 +9297,31 @@
         <v>28</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J10" s="47">
         <v>1</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>3</v>
@@ -9333,10 +9330,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="49" t="s">
         <v>5</v>
@@ -9361,7 +9358,7 @@
         <v>150</v>
       </c>
       <c r="Z10" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA10" s="47">
         <v>1</v>
@@ -9372,10 +9369,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C11" s="27">
         <v>139</v>
@@ -9387,31 +9384,31 @@
         <v>28</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>3</v>
@@ -9420,10 +9417,10 @@
         <v>3</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" s="27" t="s">
         <v>5</v>
@@ -9448,7 +9445,7 @@
         <v>150</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA11" s="7">
         <v>1</v>
@@ -9459,13 +9456,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C12" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="11">
         <v>42613</v>
@@ -9474,31 +9471,31 @@
         <v>28</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>3</v>
@@ -9507,10 +9504,10 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="27" t="s">
         <v>8</v>
@@ -9535,7 +9532,7 @@
         <v>150</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA12" s="7">
         <v>1</v>
@@ -9546,10 +9543,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="27">
         <v>140</v>
@@ -9561,31 +9558,31 @@
         <v>28</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>3</v>
@@ -9594,7 +9591,7 @@
         <v>3</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>4</v>
@@ -9622,7 +9619,7 @@
         <v>150</v>
       </c>
       <c r="Z13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA13" s="7">
         <v>1</v>
@@ -9633,10 +9630,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C14" s="27">
         <v>140</v>
@@ -9648,31 +9645,31 @@
         <v>28</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>3</v>
@@ -9681,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>4</v>
@@ -9709,7 +9706,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA14" s="7">
         <v>33</v>
@@ -9720,10 +9717,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="C15" s="42">
         <v>140</v>
@@ -9735,31 +9732,31 @@
         <v>28</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J15" s="41">
         <v>1</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O15" s="41" t="s">
         <v>3</v>
@@ -9768,7 +9765,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R15" s="42" t="s">
         <v>4</v>
@@ -9796,7 +9793,7 @@
         <v>150</v>
       </c>
       <c r="Z15" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA15" s="41">
         <v>1</v>
@@ -9807,10 +9804,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="C16" s="42">
         <v>140</v>
@@ -9822,31 +9819,31 @@
         <v>28</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J16" s="41">
         <v>2</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="41" t="s">
         <v>3</v>
@@ -9855,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R16" s="42" t="s">
         <v>4</v>
@@ -9883,7 +9880,7 @@
         <v>150</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA16" s="41">
         <v>33</v>
@@ -9894,10 +9891,10 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>112</v>
       </c>
       <c r="C17" s="49">
         <v>141</v>
@@ -9909,31 +9906,31 @@
         <v>28</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J17" s="47">
         <v>1</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" s="47" t="s">
         <v>3</v>
@@ -9942,10 +9939,10 @@
         <v>3</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R17" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S17" s="49" t="s">
         <v>10</v>
@@ -9970,7 +9967,7 @@
         <v>150</v>
       </c>
       <c r="Z17" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA17" s="47">
         <v>1</v>
@@ -9981,10 +9978,10 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="49">
         <v>141</v>
@@ -9996,31 +9993,31 @@
         <v>28</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J18" s="47">
         <v>2</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" s="47" t="s">
         <v>3</v>
@@ -10029,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R18" s="49" t="s">
         <v>4</v>
@@ -10057,7 +10054,7 @@
         <v>150</v>
       </c>
       <c r="Z18" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA18" s="47">
         <v>33</v>
@@ -10068,10 +10065,10 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C19" s="27">
         <v>141</v>
@@ -10083,31 +10080,31 @@
         <v>28</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>3</v>
@@ -10116,10 +10113,10 @@
         <v>3</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S19" s="27" t="s">
         <v>1</v>
@@ -10144,7 +10141,7 @@
         <v>150</v>
       </c>
       <c r="Z19" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA19" s="7">
         <v>1</v>
@@ -10155,10 +10152,10 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C20" s="27">
         <v>141</v>
@@ -10170,31 +10167,31 @@
         <v>28</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>3</v>
@@ -10203,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>4</v>
@@ -10231,7 +10228,7 @@
         <v>150</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA20" s="7">
         <v>33</v>
@@ -10242,13 +10239,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11">
         <v>42641</v>
@@ -10257,31 +10254,31 @@
         <v>28</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>3</v>
@@ -10290,10 +10287,10 @@
         <v>3</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S21" s="27" t="s">
         <v>1</v>
@@ -10318,7 +10315,7 @@
         <v>150</v>
       </c>
       <c r="Z21" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA21" s="7">
         <v>1</v>
@@ -10329,13 +10326,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="C22" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="11">
         <v>42641</v>
@@ -10344,31 +10341,31 @@
         <v>28</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>3</v>
@@ -10377,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>4</v>
@@ -10405,7 +10402,7 @@
         <v>150</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA22" s="7">
         <v>33</v>
@@ -10416,10 +10413,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>112</v>
       </c>
       <c r="C23" s="55">
         <v>142</v>
@@ -10431,31 +10428,31 @@
         <v>28</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J23" s="53">
         <v>2</v>
       </c>
       <c r="K23" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L23" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M23" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N23" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="53" t="s">
         <v>3</v>
@@ -10464,10 +10461,10 @@
         <v>3</v>
       </c>
       <c r="Q23" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R23" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S23" s="55" t="s">
         <v>1</v>
@@ -10492,7 +10489,7 @@
         <v>150</v>
       </c>
       <c r="Z23" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA23" s="53">
         <v>33</v>
@@ -10503,10 +10500,10 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="C24" s="27">
         <v>142</v>
@@ -10518,31 +10515,31 @@
         <v>28</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>3</v>
@@ -10551,10 +10548,10 @@
         <v>3</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S24" s="27" t="s">
         <v>1</v>
@@ -10579,7 +10576,7 @@
         <v>150</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA24" s="7">
         <v>33</v>
@@ -10665,450 +10662,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="27">
-        <v>134</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42564</v>
-      </c>
-      <c r="E2" s="27">
-        <v>28</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="31">
-        <v>3</v>
-      </c>
-      <c r="T2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="U2" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V2" s="35">
-        <v>21000</v>
-      </c>
-      <c r="W2" s="36">
-        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
-        <v>3800</v>
-      </c>
-      <c r="X2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="27">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11">
-        <v>42566</v>
-      </c>
-      <c r="E3" s="27">
-        <v>28</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="31">
-        <v>3</v>
-      </c>
-      <c r="T3" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V3" s="35">
-        <v>21500</v>
-      </c>
-      <c r="W3" s="36">
-        <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-      <c r="X3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="27">
-        <v>139</v>
-      </c>
-      <c r="D4" s="11">
-        <v>42601</v>
-      </c>
-      <c r="E4" s="27">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="31">
-        <v>4</v>
-      </c>
-      <c r="T4" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V4" s="35">
-        <v>23800</v>
-      </c>
-      <c r="W4" s="36">
-        <f t="shared" si="0"/>
-        <v>5800</v>
-      </c>
-      <c r="X4" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="27">
-        <v>140</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42625</v>
-      </c>
-      <c r="E5" s="27">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="31">
-        <v>2</v>
-      </c>
-      <c r="T5" s="31">
-        <v>2</v>
-      </c>
-      <c r="U5" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V5" s="35">
-        <v>25500</v>
-      </c>
-      <c r="W5" s="36">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="X5" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="27">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11139,16 +10699,16 @@
   <sheetData>
     <row r="1" spans="1:28" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -11157,73 +10717,73 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="17">
         <v>59</v>
@@ -11238,28 +10798,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>N2</f>
@@ -11291,11 +10851,11 @@
         <f t="shared" ref="W2" si="0">V2-U2</f>
         <v>2560</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>14</v>
+      <c r="X2" s="15">
+        <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="15">
         <v>1</v>
@@ -11305,10 +10865,10 @@
     </row>
     <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C3" s="17">
         <v>60</v>
@@ -11323,28 +10883,28 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ref="O3:O14" si="1">N3</f>
@@ -11376,11 +10936,11 @@
         <f>V3-U3</f>
         <v>1651</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>14</v>
+      <c r="X3" s="15">
+        <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z3" s="15">
         <v>1</v>
@@ -11390,10 +10950,10 @@
     </row>
     <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C4" s="17">
         <v>61</v>
@@ -11408,28 +10968,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11461,11 +11021,11 @@
         <f>V4-U4</f>
         <v>1600</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>14</v>
+      <c r="X4" s="15">
+        <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="15">
         <v>1</v>
@@ -11475,10 +11035,10 @@
     </row>
     <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="17">
         <v>62</v>
@@ -11493,28 +11053,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>362</v>
-      </c>
       <c r="J5" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11525,7 +11085,7 @@
         <v>left</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>13</v>
@@ -11546,11 +11106,11 @@
         <f t="shared" ref="W5:W14" si="3">V5-U5</f>
         <v>1906</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>14</v>
+      <c r="X5" s="15">
+        <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -11560,10 +11120,10 @@
     </row>
     <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C6" s="17">
         <v>63</v>
@@ -11578,28 +11138,28 @@
         <v>2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11610,7 +11170,7 @@
         <v>left</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>10</v>
@@ -11631,11 +11191,11 @@
         <f t="shared" si="3"/>
         <v>1095</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>14</v>
+      <c r="X6" s="15">
+        <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="15">
         <v>1</v>
@@ -11645,10 +11205,10 @@
     </row>
     <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C7" s="17">
         <v>64</v>
@@ -11663,28 +11223,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11716,11 +11276,11 @@
         <f t="shared" si="3"/>
         <v>3950</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>14</v>
+      <c r="X7" s="15">
+        <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="15">
         <v>1</v>
@@ -11730,10 +11290,10 @@
     </row>
     <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C8" s="17">
         <v>64</v>
@@ -11748,28 +11308,28 @@
         <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11780,7 +11340,7 @@
         <v>left</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>10</v>
@@ -11801,11 +11361,11 @@
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>14</v>
+      <c r="X8" s="15">
+        <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z8" s="15">
         <v>1</v>
@@ -11815,10 +11375,10 @@
     </row>
     <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C9" s="17">
         <v>65</v>
@@ -11833,28 +11393,28 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11865,7 +11425,7 @@
         <v>left</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>9</v>
@@ -11886,11 +11446,11 @@
         <f t="shared" si="3"/>
         <v>4905</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="15">
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="15">
         <v>1</v>
@@ -11900,10 +11460,10 @@
     </row>
     <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>66</v>
@@ -11918,28 +11478,28 @@
         <v>2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11953,7 +11513,7 @@
         <v>11</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="21">
         <v>1</v>
@@ -11971,11 +11531,11 @@
         <f t="shared" si="3"/>
         <v>5032</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="15">
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z10" s="15">
         <v>1</v>
@@ -11985,10 +11545,10 @@
     </row>
     <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C11" s="17">
         <v>68</v>
@@ -12003,28 +11563,28 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12060,7 +11620,7 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z11" s="15">
         <v>1</v>
@@ -12070,10 +11630,10 @@
     </row>
     <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C12" s="17">
         <v>69</v>
@@ -12088,28 +11648,28 @@
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12120,7 +11680,7 @@
         <v>left</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>9</v>
@@ -12145,7 +11705,7 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z12" s="15">
         <v>1</v>
@@ -12155,10 +11715,10 @@
     </row>
     <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C13" s="17">
         <v>69</v>
@@ -12173,28 +11733,28 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12205,7 +11765,7 @@
         <v>left</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="17" t="s">
         <v>9</v>
@@ -12230,7 +11790,7 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z13" s="15">
         <v>1</v>
@@ -12240,10 +11800,10 @@
     </row>
     <row r="14" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="C14" s="17">
         <v>71</v>
@@ -12258,28 +11818,28 @@
         <v>2</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12290,7 +11850,7 @@
         <v>left</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="17" t="s">
         <v>5</v>
@@ -12315,7 +11875,7 @@
         <v>200</v>
       </c>
       <c r="Y14" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z14" s="15">
         <v>1</v>
@@ -12420,15 +11980,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12451,16 +12011,16 @@
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -12469,73 +12029,73 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="15">
         <v>31</v>
@@ -12550,28 +12110,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>N2</f>
@@ -12582,7 +12142,7 @@
         <v>left</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>9</v>
@@ -12603,11 +12163,11 @@
         <f t="shared" ref="W2" si="0">V2-U2</f>
         <v>3355</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>14</v>
+      <c r="X2" s="15">
+        <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="18">
         <v>1</v>
@@ -12616,10 +12176,10 @@
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C3" s="15">
         <v>31</v>
@@ -12634,28 +12194,28 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" ref="O3:O13" si="1">N3</f>
@@ -12666,7 +12226,7 @@
         <v>left</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>9</v>
@@ -12687,11 +12247,11 @@
         <f>V3-U3</f>
         <v>3355</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>14</v>
+      <c r="X3" s="15">
+        <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z3" s="18">
         <v>1</v>
@@ -12700,10 +12260,10 @@
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C4" s="15">
         <v>32</v>
@@ -12718,28 +12278,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12750,7 +12310,7 @@
         <v>left</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>13</v>
@@ -12771,11 +12331,11 @@
         <f>V4-U4</f>
         <v>2000</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>14</v>
+      <c r="X4" s="15">
+        <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z4" s="18">
         <v>1</v>
@@ -12784,10 +12344,10 @@
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="15">
         <v>33</v>
@@ -12802,28 +12362,28 @@
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12834,7 +12394,7 @@
         <v>left</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>13</v>
@@ -12855,11 +12415,11 @@
         <f t="shared" ref="W5:W13" si="3">V5-U5</f>
         <v>7153</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>14</v>
+      <c r="X5" s="15">
+        <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="18">
         <v>1</v>
@@ -12868,10 +12428,10 @@
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="15">
         <v>34</v>
@@ -12886,28 +12446,28 @@
         <v>2</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12918,7 +12478,7 @@
         <v>left</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>9</v>
@@ -12939,11 +12499,11 @@
         <f t="shared" si="3"/>
         <v>3300</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>14</v>
+      <c r="X6" s="15">
+        <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="18">
         <v>1</v>
@@ -12952,10 +12512,10 @@
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C7" s="15">
         <v>35</v>
@@ -12970,28 +12530,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13002,7 +12562,7 @@
         <v>left</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>9</v>
@@ -13023,11 +12583,11 @@
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>14</v>
+      <c r="X7" s="15">
+        <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="18">
         <v>1</v>
@@ -13036,10 +12596,10 @@
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C8" s="15">
         <v>35</v>
@@ -13054,28 +12614,28 @@
         <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13086,7 +12646,7 @@
         <v>left</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>9</v>
@@ -13107,11 +12667,11 @@
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>14</v>
+      <c r="X8" s="15">
+        <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z8" s="18">
         <v>1</v>
@@ -13120,10 +12680,10 @@
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C9" s="15">
         <v>38</v>
@@ -13138,28 +12698,28 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13170,7 +12730,7 @@
         <v>left</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>9</v>
@@ -13195,7 +12755,7 @@
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="18">
         <v>1</v>
@@ -13204,10 +12764,10 @@
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C10" s="15">
         <v>40</v>
@@ -13222,28 +12782,28 @@
         <v>2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13254,7 +12814,7 @@
         <v>left</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>13</v>
@@ -13279,7 +12839,7 @@
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z10" s="18">
         <v>1</v>
@@ -13288,10 +12848,10 @@
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C11" s="15">
         <v>40</v>
@@ -13306,28 +12866,28 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13338,7 +12898,7 @@
         <v>left</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>13</v>
@@ -13363,7 +12923,7 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z11" s="18">
         <v>1</v>
@@ -13372,10 +12932,10 @@
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C12" s="15">
         <v>41</v>
@@ -13390,28 +12950,28 @@
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13422,7 +12982,7 @@
         <v>left</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>10</v>
@@ -13447,7 +13007,7 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z12" s="18">
         <v>1</v>
@@ -13456,10 +13016,10 @@
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C13" s="15">
         <v>42</v>
@@ -13474,28 +13034,28 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13506,10 +13066,10 @@
         <v>left</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="S13" s="22">
         <v>-1</v>
@@ -13531,7 +13091,7 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z13" s="18">
         <v>1</v>
@@ -13822,4 +13382,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="27">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E2" s="27">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
+        <v>3</v>
+      </c>
+      <c r="T2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W2" s="36">
+        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="27">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E3" s="27">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="31">
+        <v>3</v>
+      </c>
+      <c r="T3" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="35">
+        <v>21500</v>
+      </c>
+      <c r="W3" s="36">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="X3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="27">
+        <v>139</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42601</v>
+      </c>
+      <c r="E4" s="27">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31">
+        <v>4</v>
+      </c>
+      <c r="T4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V4" s="35">
+        <v>23800</v>
+      </c>
+      <c r="W4" s="36">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="X4" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="27">
+        <v>140</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42625</v>
+      </c>
+      <c r="E5" s="27">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31">
+        <v>2</v>
+      </c>
+      <c r="U5" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V5" s="35">
+        <v>25500</v>
+      </c>
+      <c r="W5" s="36">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="X5" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="418">
   <si>
     <t>a3</t>
   </si>
@@ -346,9 +346,6 @@
     <t>214, 215</t>
   </si>
   <si>
-    <t>216, 217</t>
-  </si>
-  <si>
     <t>he</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>bp235n01</t>
   </si>
   <si>
-    <t>bp236n01</t>
-  </si>
-  <si>
     <t>bp237n01</t>
   </si>
   <si>
@@ -613,9 +607,6 @@
     <t>data/Broca/bp235n01.mat</t>
   </si>
   <si>
-    <t>data/Broca/bp236n01.mat</t>
-  </si>
-  <si>
     <t>data/Broca/bp237n01.mat</t>
   </si>
   <si>
@@ -679,9 +670,6 @@
     <t>data/Broca/bp235n01.plx</t>
   </si>
   <si>
-    <t>data/Broca/bp236n01.plx</t>
-  </si>
-  <si>
     <t>data/Broca/bp237n01.plx</t>
   </si>
   <si>
@@ -1208,6 +1196,96 @@
   </si>
   <si>
     <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>preferredDirection</t>
+  </si>
+  <si>
+    <t>qualityOfSession</t>
+  </si>
+  <si>
+    <t>qualityOfSession_explained</t>
+  </si>
+  <si>
+    <t>low clustering, few channels</t>
+  </si>
+  <si>
+    <t>high clustering, few channels</t>
+  </si>
+  <si>
+    <t>low clustering</t>
+  </si>
+  <si>
+    <t>no clustering</t>
+  </si>
+  <si>
+    <t>high clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>low clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>no clustering, missing channels</t>
+  </si>
+  <si>
+    <t>edge cutoff</t>
+  </si>
+  <si>
+    <t>few channels, low clustering</t>
+  </si>
+  <si>
+    <t>few channels, edge cutoff</t>
+  </si>
+  <si>
+    <t>few channels, no clustering</t>
+  </si>
+  <si>
+    <t>one missing channel, edge cutoff</t>
+  </si>
+  <si>
+    <t>edge cutoff, entire array clustered</t>
+  </si>
+  <si>
+    <t>edge cutoff, missing channels</t>
+  </si>
+  <si>
+    <t>edge cutoff, missing channel</t>
+  </si>
+  <si>
+    <t>missing channel, good clustering</t>
+  </si>
+  <si>
+    <t>few clusters</t>
+  </si>
+  <si>
+    <t>missing channels, some clustering</t>
+  </si>
+  <si>
+    <t>some clustering</t>
+  </si>
+  <si>
+    <t>good clustering</t>
+  </si>
+  <si>
+    <t>edge cutoff, some clustering</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff, missing channel</t>
+  </si>
+  <si>
+    <t>great clustering</t>
+  </si>
+  <si>
+    <t>excellent clustering and activity</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff, missing channels</t>
+  </si>
+  <si>
+    <t>some clustering, edge cutoff, missing channels</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1408,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1644,7 +1732,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1740,6 +1828,11 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1835,6 +1928,11 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2113,10 +2211,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,9 +2235,11 @@
     <col min="22" max="23" width="18.83203125" customWidth="1"/>
     <col min="24" max="24" width="89.33203125" customWidth="1"/>
     <col min="25" max="26" width="26" customWidth="1"/>
+    <col min="27" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -2162,7 +2262,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -2218,8 +2318,17 @@
       <c r="Z1" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -2242,13 +2351,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>44</v>
@@ -2293,7 +2402,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -2301,8 +2410,17 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2325,13 +2443,13 @@
         <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>44</v>
@@ -2343,11 +2461,11 @@
         <v>35</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N19" si="1">M3</f>
+        <f t="shared" ref="N3:N18" si="1">M3</f>
         <v>right</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3:O19" si="2">IF(N3="left", "right", "left")</f>
+        <f t="shared" ref="O3:O18" si="2">IF(N3="left", "right", "left")</f>
         <v>left</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -2376,7 +2494,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -2384,8 +2502,17 @@
       <c r="Z3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2408,13 +2535,13 @@
         <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>44</v>
@@ -2459,7 +2586,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y4" s="1">
         <v>1</v>
@@ -2467,8 +2594,17 @@
       <c r="Z4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -2491,13 +2627,13 @@
         <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>48</v>
@@ -2535,7 +2671,7 @@
         <v>23500</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" ref="V5:V16" si="3">U5-T5</f>
+        <f t="shared" ref="V5:V15" si="3">U5-T5</f>
         <v>7500</v>
       </c>
       <c r="W5" s="1">
@@ -2550,8 +2686,17 @@
       <c r="Z5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2574,13 +2719,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -2633,8 +2778,17 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2657,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>48</v>
@@ -2716,8 +2870,17 @@
       <c r="Z7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -2740,13 +2903,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>48</v>
@@ -2799,8 +2962,17 @@
       <c r="Z8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2823,13 +2995,13 @@
         <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>48</v>
@@ -2882,8 +3054,17 @@
       <c r="Z9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -2906,13 +3087,13 @@
         <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>48</v>
@@ -2965,8 +3146,17 @@
       <c r="Z10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -2989,13 +3179,13 @@
         <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>48</v>
@@ -3048,19 +3238,28 @@
       <c r="Z11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>104</v>
+      <c r="C12" s="1">
+        <v>217</v>
       </c>
       <c r="D12" s="3">
-        <v>42479</v>
+        <v>42482</v>
       </c>
       <c r="E12" s="10">
         <v>29</v>
@@ -3072,13 +3271,13 @@
         <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>48</v>
@@ -3098,26 +3297,26 @@
         <v>right</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="R12" s="8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="S12" s="8">
         <v>3</v>
       </c>
       <c r="T12" s="1">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="U12" s="1">
-        <v>22600</v>
+        <v>22000</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="3"/>
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="W12" s="1">
         <v>100</v>
@@ -3129,10 +3328,19 @@
         <v>8</v>
       </c>
       <c r="Z12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -3140,10 +3348,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" s="3">
-        <v>42482</v>
+        <v>42493</v>
       </c>
       <c r="E13" s="10">
         <v>29</v>
@@ -3155,13 +3363,13 @@
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>48</v>
@@ -3181,41 +3389,50 @@
         <v>right</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R13" s="8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="S13" s="8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T13" s="1">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="U13" s="1">
         <v>22000</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="W13" s="1">
         <v>100</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
       </c>
       <c r="Z13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -3223,10 +3440,10 @@
         <v>101</v>
       </c>
       <c r="C14" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3">
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="E14" s="10">
         <v>29</v>
@@ -3238,13 +3455,13 @@
         <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>48</v>
@@ -3264,41 +3481,50 @@
         <v>right</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R14" s="8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="S14" s="8">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T14" s="1">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="U14" s="1">
         <v>22000</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="W14" s="1">
         <v>100</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Y14" s="1">
         <v>8</v>
       </c>
       <c r="Z14" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -3309,7 +3535,7 @@
         <v>219</v>
       </c>
       <c r="D15" s="3">
-        <v>42495</v>
+        <v>42500</v>
       </c>
       <c r="E15" s="10">
         <v>29</v>
@@ -3321,13 +3547,13 @@
         <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>48</v>
@@ -3347,26 +3573,26 @@
         <v>right</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R15" s="8">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="S15" s="8">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T15" s="1">
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="U15" s="1">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="W15" s="1">
         <v>100</v>
@@ -3378,21 +3604,30 @@
         <v>8</v>
       </c>
       <c r="Z15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3">
-        <v>42500</v>
+        <v>42507</v>
       </c>
       <c r="E16" s="10">
         <v>29</v>
@@ -3404,13 +3639,13 @@
         <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>48</v>
@@ -3430,25 +3665,25 @@
         <v>right</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R16" s="8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="S16" s="8">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T16" s="1">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="U16" s="1">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="3"/>
+        <f>U16-T16</f>
         <v>3000</v>
       </c>
       <c r="W16" s="1">
@@ -3461,21 +3696,30 @@
         <v>8</v>
       </c>
       <c r="Z16" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>221</v>
       </c>
       <c r="D17" s="3">
-        <v>42507</v>
+        <v>42509</v>
       </c>
       <c r="E17" s="10">
         <v>29</v>
@@ -3487,13 +3731,13 @@
         <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>48</v>
@@ -3516,26 +3760,26 @@
         <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R17" s="8">
         <v>-4</v>
       </c>
       <c r="S17" s="8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T17" s="1">
-        <v>20500</v>
+        <v>19000</v>
       </c>
       <c r="U17" s="1">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="V17" s="1">
-        <f>U17-T17</f>
-        <v>3000</v>
+        <f t="shared" ref="V17:V22" si="4">U17-T17</f>
+        <v>5000</v>
       </c>
       <c r="W17" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>98</v>
@@ -3544,10 +3788,19 @@
         <v>8</v>
       </c>
       <c r="Z17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -3555,10 +3808,10 @@
         <v>101</v>
       </c>
       <c r="C18" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3">
-        <v>42509</v>
+        <v>42515</v>
       </c>
       <c r="E18" s="10">
         <v>29</v>
@@ -3570,13 +3823,13 @@
         <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>48</v>
@@ -3599,13 +3852,13 @@
         <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R18" s="8">
         <v>-4</v>
       </c>
       <c r="S18" s="8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T18" s="1">
         <v>19000</v>
@@ -3614,7 +3867,7 @@
         <v>24000</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" ref="V18:V23" si="4">U18-T18</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="W18" s="1">
@@ -3627,10 +3880,19 @@
         <v>8</v>
       </c>
       <c r="Z18" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -3641,7 +3903,7 @@
         <v>222</v>
       </c>
       <c r="D19" s="3">
-        <v>42515</v>
+        <v>42517</v>
       </c>
       <c r="E19" s="10">
         <v>29</v>
@@ -3653,13 +3915,13 @@
         <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>48</v>
@@ -3671,24 +3933,24 @@
         <v>3</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N19:N22" si="5">M19</f>
         <v>left</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O19:O22" si="6">IF(N19="left", "right", "left")</f>
         <v>right</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R19" s="8">
         <v>-4</v>
       </c>
       <c r="S19" s="8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T19" s="1">
         <v>19000</v>
@@ -3710,10 +3972,19 @@
         <v>8</v>
       </c>
       <c r="Z19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -3721,10 +3992,10 @@
         <v>101</v>
       </c>
       <c r="C20" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D20" s="3">
-        <v>42517</v>
+        <v>42523</v>
       </c>
       <c r="E20" s="10">
         <v>29</v>
@@ -3736,13 +4007,13 @@
         <v>100</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>48</v>
@@ -3754,34 +4025,34 @@
         <v>3</v>
       </c>
       <c r="N20" s="1" t="str">
-        <f t="shared" ref="N20:N23" si="5">M20</f>
+        <f t="shared" si="5"/>
         <v>left</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" ref="O20:O23" si="6">IF(N20="left", "right", "left")</f>
+        <f t="shared" si="6"/>
         <v>right</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="R20" s="8">
-        <v>-4</v>
+        <v>-5.5</v>
       </c>
       <c r="S20" s="8">
         <v>5.5</v>
       </c>
       <c r="T20" s="1">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="U20" s="1">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="W20" s="1">
         <v>150</v>
@@ -3793,10 +4064,19 @@
         <v>8</v>
       </c>
       <c r="Z20" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -3807,7 +4087,7 @@
         <v>223</v>
       </c>
       <c r="D21" s="3">
-        <v>42523</v>
+        <v>42530</v>
       </c>
       <c r="E21" s="10">
         <v>29</v>
@@ -3819,13 +4099,13 @@
         <v>100</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>48</v>
@@ -3845,26 +4125,26 @@
         <v>right</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R21" s="8">
-        <v>-5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="S21" s="8">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T21" s="1">
         <v>18500</v>
       </c>
       <c r="U21" s="1">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="W21" s="1">
         <v>150</v>
@@ -3876,10 +4156,19 @@
         <v>8</v>
       </c>
       <c r="Z21" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -3887,10 +4176,10 @@
         <v>101</v>
       </c>
       <c r="C22" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D22" s="3">
-        <v>42530</v>
+        <v>42551</v>
       </c>
       <c r="E22" s="10">
         <v>29</v>
@@ -3902,13 +4191,13 @@
         <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>48</v>
@@ -3928,26 +4217,26 @@
         <v>right</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R22" s="8">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="S22" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T22" s="1">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="U22" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="4"/>
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="W22" s="1">
         <v>150</v>
@@ -3959,90 +4248,16 @@
         <v>8</v>
       </c>
       <c r="Z22" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1">
-        <v>224</v>
-      </c>
-      <c r="D23" s="3">
-        <v>42551</v>
-      </c>
-      <c r="E23" s="10">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>left</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>right</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="8">
-        <v>-4</v>
-      </c>
-      <c r="S23" s="8">
+        <v>14</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB22" s="1">
         <v>4</v>
       </c>
-      <c r="T23" s="1">
-        <v>18000</v>
-      </c>
-      <c r="U23" s="1">
-        <v>24000</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="W23" s="1">
-        <v>150</v>
-      </c>
-      <c r="X23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>14</v>
+      <c r="AC22" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4265,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="1048575" man="1"/>
@@ -4118,7 +4333,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -4198,13 +4413,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>48</v>
@@ -4280,13 +4495,13 @@
         <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>48</v>
@@ -4362,13 +4577,13 @@
         <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>48</v>
@@ -4444,13 +4659,13 @@
         <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>48</v>
@@ -4526,13 +4741,13 @@
         <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -4608,13 +4823,13 @@
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>48</v>
@@ -4690,13 +4905,13 @@
         <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>48</v>
@@ -4772,13 +4987,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>48</v>
@@ -4854,13 +5069,13 @@
         <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>48</v>
@@ -4936,13 +5151,13 @@
         <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>48</v>
@@ -5018,13 +5233,13 @@
         <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>48</v>
@@ -5100,13 +5315,13 @@
         <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>48</v>
@@ -5182,13 +5397,13 @@
         <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>48</v>
@@ -5264,13 +5479,13 @@
         <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>48</v>
@@ -5346,13 +5561,13 @@
         <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>48</v>
@@ -5428,13 +5643,13 @@
         <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>48</v>
@@ -5510,13 +5725,13 @@
         <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>48</v>
@@ -5592,13 +5807,13 @@
         <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>48</v>
@@ -5674,13 +5889,13 @@
         <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>48</v>
@@ -5745,10 +5960,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10:AA13"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5775,11 +5990,13 @@
     <col min="24" max="24" width="106.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" style="10" customWidth="1"/>
     <col min="26" max="26" width="18.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -5802,7 +6019,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -5858,13 +6075,22 @@
       <c r="Z1" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="19">
         <v>128</v>
@@ -5882,13 +6108,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>48</v>
@@ -5933,7 +6159,7 @@
         <v>150</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="32">
         <v>1</v>
@@ -5941,13 +6167,22 @@
       <c r="Z2" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C3" s="19">
         <v>129</v>
@@ -5965,13 +6200,13 @@
         <v>62</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>48</v>
@@ -6016,7 +6251,7 @@
         <v>150</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="32">
         <v>1</v>
@@ -6024,13 +6259,22 @@
       <c r="Z3" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C4" s="19">
         <v>129</v>
@@ -6048,13 +6292,13 @@
         <v>62</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>48</v>
@@ -6099,7 +6343,7 @@
         <v>150</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="32">
         <v>1</v>
@@ -6107,13 +6351,22 @@
       <c r="Z4" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="19">
         <v>129</v>
@@ -6131,13 +6384,13 @@
         <v>62</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>48</v>
@@ -6182,7 +6435,7 @@
         <v>150</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="32">
         <v>1</v>
@@ -6190,13 +6443,22 @@
       <c r="Z5" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C6" s="19">
         <v>130</v>
@@ -6214,13 +6476,13 @@
         <v>62</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>48</v>
@@ -6265,7 +6527,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="32">
         <v>1</v>
@@ -6273,13 +6535,22 @@
       <c r="Z6" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C7" s="19">
         <v>130</v>
@@ -6297,13 +6568,13 @@
         <v>62</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>48</v>
@@ -6348,7 +6619,7 @@
         <v>150</v>
       </c>
       <c r="X7" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="32">
         <v>1</v>
@@ -6356,13 +6627,22 @@
       <c r="Z7" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C8" s="19">
         <v>130</v>
@@ -6380,13 +6660,13 @@
         <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>48</v>
@@ -6431,7 +6711,7 @@
         <v>150</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="32">
         <v>1</v>
@@ -6439,13 +6719,22 @@
       <c r="Z8" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C9" s="19">
         <v>131</v>
@@ -6463,13 +6752,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>48</v>
@@ -6514,7 +6803,7 @@
         <v>150</v>
       </c>
       <c r="X9" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="32">
         <v>1</v>
@@ -6522,13 +6811,22 @@
       <c r="Z9" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C10" s="19">
         <v>131</v>
@@ -6546,13 +6844,13 @@
         <v>62</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>48</v>
@@ -6597,7 +6895,7 @@
         <v>150</v>
       </c>
       <c r="X10" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y10" s="32">
         <v>1</v>
@@ -6605,14 +6903,22 @@
       <c r="Z10" s="19">
         <v>6</v>
       </c>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C11" s="19">
         <v>132</v>
@@ -6630,13 +6936,13 @@
         <v>62</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>48</v>
@@ -6681,7 +6987,7 @@
         <v>150</v>
       </c>
       <c r="X11" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y11" s="32">
         <v>1</v>
@@ -6689,14 +6995,22 @@
       <c r="Z11" s="19">
         <v>7</v>
       </c>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C12" s="19">
         <v>133</v>
@@ -6714,13 +7028,13 @@
         <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>48</v>
@@ -6765,7 +7079,7 @@
         <v>150</v>
       </c>
       <c r="X12" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y12" s="32">
         <v>1</v>
@@ -6773,14 +7087,22 @@
       <c r="Z12" s="19">
         <v>8</v>
       </c>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C13" s="19">
         <v>133</v>
@@ -6798,13 +7120,13 @@
         <v>62</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>48</v>
@@ -6849,7 +7171,7 @@
         <v>150</v>
       </c>
       <c r="X13" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y13" s="32">
         <v>1</v>
@@ -6857,9 +7179,17 @@
       <c r="Z13" s="19">
         <v>9</v>
       </c>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="25"/>
       <c r="C14" s="27"/>
@@ -6887,7 +7217,7 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="25"/>
       <c r="C15" s="27"/>
@@ -6915,7 +7245,7 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="25"/>
       <c r="C16" s="27"/>
@@ -8398,10 +8728,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8416,9 +8746,12 @@
     <col min="24" max="24" width="19" customWidth="1"/>
     <col min="25" max="25" width="105.5" customWidth="1"/>
     <col min="26" max="27" width="30" customWidth="1"/>
+    <col min="28" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -8441,7 +8774,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -8450,7 +8783,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>76</v>
@@ -8500,13 +8833,22 @@
       <c r="AA1" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="27">
         <v>134</v>
@@ -8521,19 +8863,19 @@
         <v>14</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>48</v>
@@ -8576,7 +8918,7 @@
         <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z2" s="7">
         <v>1</v>
@@ -8584,13 +8926,22 @@
       <c r="AA2" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C3" s="27">
         <v>134</v>
@@ -8605,19 +8956,19 @@
         <v>14</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>48</v>
@@ -8660,7 +9011,7 @@
         <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z3" s="7">
         <v>1</v>
@@ -8668,13 +9019,22 @@
       <c r="AA3" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C4" s="27">
         <v>135</v>
@@ -8689,19 +9049,19 @@
         <v>14</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>48</v>
@@ -8744,7 +9104,7 @@
         <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z4" s="7">
         <v>1</v>
@@ -8753,12 +9113,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C5" s="27">
         <v>136</v>
@@ -8773,19 +9133,19 @@
         <v>14</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>48</v>
@@ -8828,7 +9188,7 @@
         <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z5" s="7">
         <v>1</v>
@@ -8836,13 +9196,22 @@
       <c r="AA5" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C6" s="27">
         <v>137</v>
@@ -8857,19 +9226,19 @@
         <v>14</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>48</v>
@@ -8912,7 +9281,7 @@
         <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z6" s="7">
         <v>1</v>
@@ -8920,13 +9289,22 @@
       <c r="AA6" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C7" s="27">
         <v>137</v>
@@ -8941,19 +9319,19 @@
         <v>14</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>48</v>
@@ -8996,7 +9374,7 @@
         <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="7">
         <v>1</v>
@@ -9004,13 +9382,22 @@
       <c r="AA7" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C8" s="27">
         <v>138</v>
@@ -9025,19 +9412,19 @@
         <v>14</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>48</v>
@@ -9080,7 +9467,7 @@
         <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="7">
         <v>1</v>
@@ -9088,13 +9475,22 @@
       <c r="AA8" s="27">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C9" s="27">
         <v>138</v>
@@ -9109,19 +9505,19 @@
         <v>14</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>48</v>
@@ -9164,7 +9560,7 @@
         <v>150</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z9" s="7">
         <v>1</v>
@@ -9172,13 +9568,22 @@
       <c r="AA9" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C10" s="27">
         <v>139</v>
@@ -9193,19 +9598,19 @@
         <v>14</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>48</v>
@@ -9248,7 +9653,7 @@
         <v>150</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z10" s="7">
         <v>1</v>
@@ -9257,12 +9662,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C11" s="27">
         <v>139</v>
@@ -9277,19 +9682,19 @@
         <v>14</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -9332,7 +9737,7 @@
         <v>150</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z11" s="7">
         <v>1</v>
@@ -9340,16 +9745,25 @@
       <c r="AA11" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="11">
         <v>42613</v>
@@ -9361,19 +9775,19 @@
         <v>14</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>48</v>
@@ -9416,7 +9830,7 @@
         <v>150</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z12" s="7">
         <v>1</v>
@@ -9424,13 +9838,22 @@
       <c r="AA12" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C13" s="27">
         <v>140</v>
@@ -9445,19 +9868,19 @@
         <v>14</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>48</v>
@@ -9500,7 +9923,7 @@
         <v>150</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z13" s="7">
         <v>1</v>
@@ -9508,13 +9931,22 @@
       <c r="AA13" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C14" s="27">
         <v>140</v>
@@ -9529,19 +9961,19 @@
         <v>14</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>48</v>
@@ -9584,7 +10016,7 @@
         <v>150</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z14" s="7">
         <v>33</v>
@@ -9593,12 +10025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C15" s="27">
         <v>140</v>
@@ -9613,19 +10045,19 @@
         <v>14</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>48</v>
@@ -9668,7 +10100,7 @@
         <v>150</v>
       </c>
       <c r="Y15" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z15" s="7">
         <v>1</v>
@@ -9677,12 +10109,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C16" s="27">
         <v>140</v>
@@ -9697,19 +10129,19 @@
         <v>14</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>48</v>
@@ -9752,7 +10184,7 @@
         <v>150</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z16" s="7">
         <v>33</v>
@@ -9761,12 +10193,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C17" s="27">
         <v>141</v>
@@ -9781,19 +10213,19 @@
         <v>14</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>48</v>
@@ -9836,7 +10268,7 @@
         <v>150</v>
       </c>
       <c r="Y17" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z17" s="7">
         <v>1</v>
@@ -9844,13 +10276,22 @@
       <c r="AA17" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C18" s="27">
         <v>141</v>
@@ -9865,19 +10306,19 @@
         <v>14</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>48</v>
@@ -9920,7 +10361,7 @@
         <v>150</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z18" s="7">
         <v>33</v>
@@ -9928,13 +10369,22 @@
       <c r="AA18" s="27">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C19" s="27">
         <v>141</v>
@@ -9949,19 +10399,19 @@
         <v>14</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>48</v>
@@ -10004,7 +10454,7 @@
         <v>150</v>
       </c>
       <c r="Y19" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z19" s="7">
         <v>1</v>
@@ -10012,13 +10462,22 @@
       <c r="AA19" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C20" s="27">
         <v>141</v>
@@ -10033,19 +10492,19 @@
         <v>14</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>48</v>
@@ -10088,7 +10547,7 @@
         <v>150</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z20" s="7">
         <v>33</v>
@@ -10096,16 +10555,25 @@
       <c r="AA20" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="11">
         <v>42641</v>
@@ -10117,19 +10585,19 @@
         <v>14</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>48</v>
@@ -10172,7 +10640,7 @@
         <v>150</v>
       </c>
       <c r="Y21" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z21" s="7">
         <v>1</v>
@@ -10180,16 +10648,25 @@
       <c r="AA21" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="C22" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="11">
         <v>42641</v>
@@ -10201,19 +10678,19 @@
         <v>14</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>48</v>
@@ -10256,7 +10733,7 @@
         <v>150</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z22" s="7">
         <v>33</v>
@@ -10264,13 +10741,22 @@
       <c r="AA22" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C23" s="27">
         <v>142</v>
@@ -10285,19 +10771,19 @@
         <v>14</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>48</v>
@@ -10340,7 +10826,7 @@
         <v>150</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z23" s="7">
         <v>33</v>
@@ -10348,13 +10834,22 @@
       <c r="AA23" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="C24" s="27">
         <v>142</v>
@@ -10369,19 +10864,19 @@
         <v>14</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>48</v>
@@ -10424,7 +10919,7 @@
         <v>150</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z24" s="7">
         <v>33</v>
@@ -10432,11 +10927,20 @@
       <c r="AA24" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="W31" s="36"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="W32" s="36"/>
     </row>
     <row r="33" spans="23:23" x14ac:dyDescent="0.2">
@@ -10513,10 +11017,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10542,10 +11046,13 @@
     <col min="24" max="24" width="24.1640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="71.5" style="19" customWidth="1"/>
     <col min="26" max="26" width="24.33203125" style="19" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -10568,7 +11075,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -10577,7 +11084,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>76</v>
@@ -10624,14 +11131,22 @@
       <c r="Z1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C2" s="17">
         <v>59</v>
@@ -10649,13 +11164,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>36</v>
@@ -10703,20 +11218,27 @@
         <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="15">
         <v>1</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C3" s="17">
         <v>60</v>
@@ -10734,13 +11256,13 @@
         <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>36</v>
@@ -10788,20 +11310,27 @@
         <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="15">
         <v>1</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-    </row>
-    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C4" s="17">
         <v>61</v>
@@ -10819,13 +11348,13 @@
         <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>36</v>
@@ -10873,20 +11402,27 @@
         <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C5" s="17">
         <v>62</v>
@@ -10904,13 +11440,13 @@
         <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>36</v>
@@ -10958,20 +11494,27 @@
         <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C6" s="17">
         <v>63</v>
@@ -10989,13 +11532,13 @@
         <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>36</v>
@@ -11043,20 +11586,27 @@
         <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C7" s="17">
         <v>64</v>
@@ -11074,13 +11624,13 @@
         <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>38</v>
@@ -11128,20 +11678,27 @@
         <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z7" s="15">
         <v>1</v>
       </c>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C8" s="17">
         <v>64</v>
@@ -11159,13 +11716,13 @@
         <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>36</v>
@@ -11213,20 +11770,27 @@
         <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z8" s="15">
         <v>1</v>
       </c>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C9" s="17">
         <v>65</v>
@@ -11244,13 +11808,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>36</v>
@@ -11298,20 +11862,27 @@
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="15">
         <v>1</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C10" s="17">
         <v>66</v>
@@ -11329,13 +11900,13 @@
         <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>36</v>
@@ -11383,20 +11954,27 @@
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z10" s="15">
         <v>1</v>
       </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C11" s="17">
         <v>68</v>
@@ -11414,13 +11992,13 @@
         <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>36</v>
@@ -11468,20 +12046,27 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="15">
         <v>1</v>
       </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C12" s="17">
         <v>69</v>
@@ -11499,13 +12084,13 @@
         <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>36</v>
@@ -11553,20 +12138,27 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z12" s="15">
         <v>1</v>
       </c>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C13" s="17">
         <v>69</v>
@@ -11584,13 +12176,13 @@
         <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>36</v>
@@ -11638,20 +12230,27 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z13" s="15">
         <v>1</v>
       </c>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C14" s="17">
         <v>71</v>
@@ -11669,13 +12268,13 @@
         <v>62</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>36</v>
@@ -11723,87 +12322,106 @@
         <v>200</v>
       </c>
       <c r="Y14" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z14" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:29" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="15:29" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="U19" s="15"/>
-    </row>
-    <row r="20" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="U20" s="15"/>
-    </row>
-    <row r="21" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P23" s="17"/>
       <c r="U23" s="15"/>
-    </row>
-    <row r="24" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P24" s="17"/>
       <c r="U24" s="15"/>
-    </row>
-    <row r="25" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P25" s="17"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P26" s="17"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P27" s="17"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P28" s="17"/>
       <c r="U28" s="17"/>
     </row>
-    <row r="29" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P29" s="17"/>
       <c r="U29" s="17"/>
     </row>
-    <row r="30" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P30" s="17"/>
       <c r="U30" s="17"/>
     </row>
-    <row r="31" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P31" s="17"/>
       <c r="U31" s="17"/>
     </row>
-    <row r="32" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="16:16" ht="17" x14ac:dyDescent="0.2">
@@ -11833,10 +12451,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11853,11 +12471,14 @@
     <col min="22" max="24" width="16.33203125" style="19" customWidth="1"/>
     <col min="25" max="25" width="70.1640625" style="19" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="27" width="18.33203125" style="19" customWidth="1"/>
+    <col min="28" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -11880,7 +12501,7 @@
         <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>93</v>
@@ -11889,7 +12510,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>76</v>
@@ -11936,14 +12557,25 @@
       <c r="Z1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C2" s="15">
         <v>31</v>
@@ -11961,13 +12593,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>36</v>
@@ -12015,19 +12647,30 @@
         <v>150</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="18">
         <v>1</v>
       </c>
-      <c r="AA2" s="18"/>
-    </row>
-    <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="15">
         <v>31</v>
@@ -12045,13 +12688,13 @@
         <v>62</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>38</v>
@@ -12099,19 +12742,30 @@
         <v>150</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="18">
         <v>1</v>
       </c>
-      <c r="AA3" s="18"/>
-    </row>
-    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C4" s="15">
         <v>32</v>
@@ -12129,13 +12783,13 @@
         <v>62</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>36</v>
@@ -12183,19 +12837,30 @@
         <v>150</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z4" s="18">
         <v>1</v>
       </c>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C5" s="15">
         <v>33</v>
@@ -12213,13 +12878,13 @@
         <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>36</v>
@@ -12267,19 +12932,30 @@
         <v>150</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z5" s="18">
         <v>1</v>
       </c>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="15">
         <v>34</v>
@@ -12297,13 +12973,13 @@
         <v>62</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>36</v>
@@ -12351,19 +13027,30 @@
         <v>150</v>
       </c>
       <c r="Y6" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z6" s="18">
         <v>1</v>
       </c>
-      <c r="AA6" s="18"/>
-    </row>
-    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="15">
         <v>35</v>
@@ -12381,13 +13068,13 @@
         <v>62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>36</v>
@@ -12435,19 +13122,30 @@
         <v>150</v>
       </c>
       <c r="Y7" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z7" s="18">
         <v>1</v>
       </c>
-      <c r="AA7" s="18"/>
-    </row>
-    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA7" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C8" s="15">
         <v>35</v>
@@ -12465,13 +13163,13 @@
         <v>62</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>36</v>
@@ -12519,19 +13217,30 @@
         <v>150</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z8" s="18">
         <v>1</v>
       </c>
-      <c r="AA8" s="18"/>
-    </row>
-    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA8" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C9" s="15">
         <v>38</v>
@@ -12549,13 +13258,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>36</v>
@@ -12603,19 +13312,30 @@
         <v>200</v>
       </c>
       <c r="Y9" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="18">
         <v>1</v>
       </c>
-      <c r="AA9" s="18"/>
-    </row>
-    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA9" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C10" s="15">
         <v>40</v>
@@ -12633,13 +13353,13 @@
         <v>62</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>36</v>
@@ -12687,19 +13407,30 @@
         <v>200</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z10" s="18">
         <v>1</v>
       </c>
-      <c r="AA10" s="18"/>
-    </row>
-    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA10" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C11" s="15">
         <v>40</v>
@@ -12717,13 +13448,13 @@
         <v>62</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>36</v>
@@ -12771,19 +13502,30 @@
         <v>200</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="18">
         <v>1</v>
       </c>
-      <c r="AA11" s="18"/>
-    </row>
-    <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA11" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="C12" s="15">
         <v>41</v>
@@ -12801,13 +13543,13 @@
         <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>36</v>
@@ -12855,19 +13597,30 @@
         <v>200</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z12" s="18">
         <v>1</v>
       </c>
-      <c r="AA12" s="18"/>
-    </row>
-    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA12" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="C13" s="15">
         <v>42</v>
@@ -12885,13 +13638,13 @@
         <v>62</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>36</v>
@@ -12939,113 +13692,134 @@
         <v>200</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z13" s="18">
         <v>1</v>
       </c>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA13" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="J14" s="18"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="R14" s="18"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="J15" s="18"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="18"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="J16" s="18"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="R16" s="17"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="R17" s="17"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC17" s="7"/>
+    </row>
+    <row r="18" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="R18" s="17"/>
       <c r="U18" s="15"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="R19" s="17"/>
       <c r="U19" s="15"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="R20" s="17"/>
       <c r="U20" s="15"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" s="17"/>
       <c r="U21" s="15"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="R22" s="17"/>
       <c r="U22" s="15"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="R23" s="17"/>
       <c r="U23" s="15"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R24" s="17"/>
       <c r="U24" s="15"/>
-    </row>
-    <row r="25" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R25" s="17"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R26" s="17"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R27" s="17"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R28" s="17"/>
       <c r="U28" s="17"/>
     </row>
-    <row r="29" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R29" s="17"/>
       <c r="U29" s="17"/>
     </row>
-    <row r="30" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R30" s="17"/>
     </row>
-    <row r="31" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="15:30" ht="17" x14ac:dyDescent="0.2">
       <c r="R32" s="17"/>
     </row>
     <row r="33" spans="18:18" ht="17" x14ac:dyDescent="0.2">

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="560" windowWidth="47640" windowHeight="25440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="424">
   <si>
     <t>a3</t>
   </si>
@@ -1215,6 +1215,96 @@
   </si>
   <si>
     <t>probeNo</t>
+  </si>
+  <si>
+    <t>preferredDirection</t>
+  </si>
+  <si>
+    <t>qualityOfSession</t>
+  </si>
+  <si>
+    <t>qualityOfSession_explained</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff, missing channel</t>
+  </si>
+  <si>
+    <t>great clustering</t>
+  </si>
+  <si>
+    <t>excellent clustering and activity</t>
+  </si>
+  <si>
+    <t>good clustering</t>
+  </si>
+  <si>
+    <t>edge cutoff, missing channels</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>good clustering, edge cutoff, missing channels</t>
+  </si>
+  <si>
+    <t>some clustering, edge cutoff, missing channels</t>
+  </si>
+  <si>
+    <t>few channels, edge cutoff</t>
+  </si>
+  <si>
+    <t>one missing channel, edge cutoff</t>
+  </si>
+  <si>
+    <t>edge cutoff</t>
+  </si>
+  <si>
+    <t>edge cutoff, entire array clustered</t>
+  </si>
+  <si>
+    <t>edge cutoff, missing channel</t>
+  </si>
+  <si>
+    <t>low clustering</t>
+  </si>
+  <si>
+    <t>missing channel, good clustering</t>
+  </si>
+  <si>
+    <t>few clusters</t>
+  </si>
+  <si>
+    <t>missing channels, some clustering</t>
+  </si>
+  <si>
+    <t>some clustering</t>
+  </si>
+  <si>
+    <t>edge cutoff, some clustering</t>
+  </si>
+  <si>
+    <t>few channels, no clustering</t>
+  </si>
+  <si>
+    <t>few channels, low clustering</t>
+  </si>
+  <si>
+    <t>low clustering, few channels</t>
+  </si>
+  <si>
+    <t>high clustering, few channels</t>
+  </si>
+  <si>
+    <t>no clustering</t>
+  </si>
+  <si>
+    <t>low clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>high clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>no clustering, missing channels</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2283,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2217,9 +2307,11 @@
     <col min="22" max="23" width="18.83203125" customWidth="1"/>
     <col min="24" max="24" width="89.33203125" customWidth="1"/>
     <col min="25" max="26" width="26" customWidth="1"/>
+    <col min="27" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -2298,8 +2390,17 @@
       <c r="Z1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -2381,8 +2482,17 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -2464,8 +2574,17 @@
       <c r="Z3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -2547,8 +2666,17 @@
       <c r="Z4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -2630,8 +2758,17 @@
       <c r="Z5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -2713,8 +2850,17 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -2796,8 +2942,17 @@
       <c r="Z7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -2879,8 +3034,17 @@
       <c r="Z8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -2962,8 +3126,17 @@
       <c r="Z9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -3045,8 +3218,17 @@
       <c r="Z10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -3128,8 +3310,17 @@
       <c r="Z11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -3211,8 +3402,17 @@
       <c r="Z12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -3294,8 +3494,17 @@
       <c r="Z13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
@@ -3377,8 +3586,17 @@
       <c r="Z14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -3460,8 +3678,17 @@
       <c r="Z15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -3543,8 +3770,17 @@
       <c r="Z16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -3626,8 +3862,17 @@
       <c r="Z17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -3709,8 +3954,17 @@
       <c r="Z18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -3792,8 +4046,17 @@
       <c r="Z19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -3875,8 +4138,17 @@
       <c r="Z20" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -3958,8 +4230,17 @@
       <c r="Z21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -4041,8 +4322,17 @@
       <c r="Z22" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -4145,7 +4435,7 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -5825,10 +6115,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10:AA13"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5855,11 +6145,13 @@
     <col min="24" max="24" width="106.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" style="10" customWidth="1"/>
     <col min="26" max="26" width="18.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -5938,8 +6230,17 @@
       <c r="Z1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>111</v>
       </c>
@@ -6021,8 +6322,17 @@
       <c r="Z2" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>111</v>
       </c>
@@ -6104,8 +6414,17 @@
       <c r="Z3" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>111</v>
       </c>
@@ -6187,8 +6506,17 @@
       <c r="Z4" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>111</v>
       </c>
@@ -6270,8 +6598,17 @@
       <c r="Z5" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>111</v>
       </c>
@@ -6353,8 +6690,17 @@
       <c r="Z6" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>111</v>
       </c>
@@ -6436,8 +6782,17 @@
       <c r="Z7" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>111</v>
       </c>
@@ -6519,8 +6874,17 @@
       <c r="Z8" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>111</v>
       </c>
@@ -6602,8 +6966,17 @@
       <c r="Z9" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>111</v>
       </c>
@@ -6685,9 +7058,17 @@
       <c r="Z10" s="19">
         <v>6</v>
       </c>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>111</v>
       </c>
@@ -6769,9 +7150,17 @@
       <c r="Z11" s="19">
         <v>7</v>
       </c>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>111</v>
       </c>
@@ -6853,9 +7242,17 @@
       <c r="Z12" s="19">
         <v>8</v>
       </c>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>111</v>
       </c>
@@ -6937,9 +7334,17 @@
       <c r="Z13" s="19">
         <v>9</v>
       </c>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="25"/>
       <c r="C14" s="27"/>
@@ -6967,7 +7372,7 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="25"/>
       <c r="C15" s="27"/>
@@ -6995,7 +7400,7 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="25"/>
       <c r="C16" s="27"/>
@@ -8478,10 +8883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8499,9 +8904,12 @@
     <col min="25" max="25" width="16.1640625" customWidth="1"/>
     <col min="26" max="26" width="105.5" customWidth="1"/>
     <col min="27" max="28" width="30" customWidth="1"/>
+    <col min="29" max="29" width="37.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="48" style="1" customWidth="1"/>
+    <col min="31" max="31" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -8586,8 +8994,17 @@
       <c r="AB1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -8673,8 +9090,17 @@
       <c r="AB2" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
@@ -8760,8 +9186,17 @@
       <c r="AB3" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -8848,7 +9283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
@@ -8934,8 +9369,17 @@
       <c r="AB5" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
@@ -9021,8 +9465,17 @@
       <c r="AB6" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
@@ -9108,8 +9561,17 @@
       <c r="AB7" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
@@ -9195,8 +9657,17 @@
       <c r="AB8" s="27">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>111</v>
       </c>
@@ -9282,8 +9753,17 @@
       <c r="AB9" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>111</v>
       </c>
@@ -9370,7 +9850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
@@ -9456,8 +9936,17 @@
       <c r="AB11" s="27">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
@@ -9543,8 +10032,17 @@
       <c r="AB12" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -9630,8 +10128,17 @@
       <c r="AB13" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -9718,7 +10225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>111</v>
       </c>
@@ -9805,7 +10312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>111</v>
       </c>
@@ -9892,7 +10399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>111</v>
       </c>
@@ -9978,8 +10485,17 @@
       <c r="AB17" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>111</v>
       </c>
@@ -10065,8 +10581,17 @@
       <c r="AB18" s="49">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>111</v>
       </c>
@@ -10152,8 +10677,17 @@
       <c r="AB19" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>111</v>
       </c>
@@ -10239,8 +10773,17 @@
       <c r="AB20" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>111</v>
       </c>
@@ -10326,8 +10869,17 @@
       <c r="AB21" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>111</v>
       </c>
@@ -10413,8 +10965,17 @@
       <c r="AB22" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>111</v>
       </c>
@@ -10500,8 +11061,17 @@
       <c r="AB23" s="55">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>111</v>
       </c>
@@ -10587,11 +11157,20 @@
       <c r="AB24" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="X31" s="36"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="X32" s="36"/>
     </row>
     <row r="33" spans="24:24" x14ac:dyDescent="0.2">
@@ -11105,10 +11684,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11134,10 +11713,13 @@
     <col min="24" max="24" width="24.1640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="71.5" style="19" customWidth="1"/>
     <col min="26" max="26" width="24.33203125" style="19" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -11216,9 +11798,17 @@
       <c r="Z1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>109</v>
       </c>
@@ -11300,10 +11890,17 @@
       <c r="Z2" s="15">
         <v>1</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
@@ -11385,10 +11982,17 @@
       <c r="Z3" s="15">
         <v>1</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-    </row>
-    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>109</v>
       </c>
@@ -11470,10 +12074,17 @@
       <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>109</v>
       </c>
@@ -11555,10 +12166,17 @@
       <c r="Z5" s="15">
         <v>1</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-    </row>
-    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>109</v>
       </c>
@@ -11640,10 +12258,17 @@
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>109</v>
       </c>
@@ -11725,10 +12350,17 @@
       <c r="Z7" s="15">
         <v>1</v>
       </c>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-    </row>
-    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>109</v>
       </c>
@@ -11810,10 +12442,17 @@
       <c r="Z8" s="15">
         <v>1</v>
       </c>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>109</v>
       </c>
@@ -11895,10 +12534,17 @@
       <c r="Z9" s="15">
         <v>1</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>109</v>
       </c>
@@ -11980,10 +12626,17 @@
       <c r="Z10" s="15">
         <v>1</v>
       </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>109</v>
       </c>
@@ -12065,10 +12718,17 @@
       <c r="Z11" s="15">
         <v>1</v>
       </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>109</v>
       </c>
@@ -12150,10 +12810,17 @@
       <c r="Z12" s="15">
         <v>1</v>
       </c>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>109</v>
       </c>
@@ -12235,10 +12902,17 @@
       <c r="Z13" s="15">
         <v>1</v>
       </c>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
@@ -12320,82 +12994,101 @@
       <c r="Z14" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:29" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="15:29" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="U19" s="15"/>
-    </row>
-    <row r="20" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="U20" s="15"/>
-    </row>
-    <row r="21" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P23" s="17"/>
       <c r="U23" s="15"/>
-    </row>
-    <row r="24" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P24" s="17"/>
       <c r="U24" s="15"/>
-    </row>
-    <row r="25" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P25" s="17"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P26" s="17"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P27" s="17"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P28" s="17"/>
       <c r="U28" s="17"/>
     </row>
-    <row r="29" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P29" s="17"/>
       <c r="U29" s="17"/>
     </row>
-    <row r="30" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P30" s="17"/>
       <c r="U30" s="17"/>
     </row>
-    <row r="31" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P31" s="17"/>
       <c r="U31" s="17"/>
     </row>
-    <row r="32" spans="15:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="16:16" ht="17" x14ac:dyDescent="0.2">
@@ -12425,10 +13118,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12445,11 +13138,13 @@
     <col min="22" max="24" width="16.33203125" style="19" customWidth="1"/>
     <col min="25" max="25" width="70.1640625" style="19" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="71" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -12528,9 +13223,17 @@
       <c r="Z1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>106</v>
       </c>
@@ -12612,9 +13315,17 @@
       <c r="Z2" s="18">
         <v>1</v>
       </c>
-      <c r="AA2" s="18"/>
-    </row>
-    <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>106</v>
       </c>
@@ -12696,9 +13407,17 @@
       <c r="Z3" s="18">
         <v>1</v>
       </c>
-      <c r="AA3" s="18"/>
-    </row>
-    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -12780,9 +13499,17 @@
       <c r="Z4" s="18">
         <v>1</v>
       </c>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>106</v>
       </c>
@@ -12864,9 +13591,17 @@
       <c r="Z5" s="18">
         <v>1</v>
       </c>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>106</v>
       </c>
@@ -12948,9 +13683,17 @@
       <c r="Z6" s="18">
         <v>1</v>
       </c>
-      <c r="AA6" s="18"/>
-    </row>
-    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
@@ -13032,9 +13775,17 @@
       <c r="Z7" s="18">
         <v>1</v>
       </c>
-      <c r="AA7" s="18"/>
-    </row>
-    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>106</v>
       </c>
@@ -13116,9 +13867,17 @@
       <c r="Z8" s="18">
         <v>1</v>
       </c>
-      <c r="AA8" s="18"/>
-    </row>
-    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>106</v>
       </c>
@@ -13200,9 +13959,17 @@
       <c r="Z9" s="18">
         <v>1</v>
       </c>
-      <c r="AA9" s="18"/>
-    </row>
-    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>106</v>
       </c>
@@ -13284,9 +14051,17 @@
       <c r="Z10" s="18">
         <v>1</v>
       </c>
-      <c r="AA10" s="18"/>
-    </row>
-    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -13368,9 +14143,17 @@
       <c r="Z11" s="18">
         <v>1</v>
       </c>
-      <c r="AA11" s="18"/>
-    </row>
-    <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>106</v>
       </c>
@@ -13452,9 +14235,17 @@
       <c r="Z12" s="18">
         <v>1</v>
       </c>
-      <c r="AA12" s="18"/>
-    </row>
-    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>106</v>
       </c>
@@ -13536,108 +14327,126 @@
       <c r="Z13" s="18">
         <v>1</v>
       </c>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="J14" s="18"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="R14" s="18"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="J15" s="18"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="18"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="J16" s="18"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="R16" s="17"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="R17" s="17"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="R18" s="17"/>
       <c r="U18" s="15"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="R19" s="17"/>
       <c r="U19" s="15"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="R20" s="17"/>
       <c r="U20" s="15"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" s="17"/>
       <c r="U21" s="15"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="R22" s="17"/>
       <c r="U22" s="15"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="R23" s="17"/>
       <c r="U23" s="15"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R24" s="17"/>
       <c r="U24" s="15"/>
-    </row>
-    <row r="25" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R25" s="17"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R26" s="17"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R27" s="17"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R28" s="17"/>
       <c r="U28" s="17"/>
     </row>
-    <row r="29" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R29" s="17"/>
       <c r="U29" s="17"/>
     </row>
-    <row r="30" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R30" s="17"/>
     </row>
-    <row r="31" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="15:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="15:29" ht="17" x14ac:dyDescent="0.2">
       <c r="R32" s="17"/>
     </row>
     <row r="33" spans="18:18" ht="17" x14ac:dyDescent="0.2">

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="432">
   <si>
     <t>a3</t>
   </si>
@@ -1305,6 +1305,30 @@
   </si>
   <si>
     <t>no clustering, missing channels</t>
+  </si>
+  <si>
+    <t>great clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>few clusters, edge cutoff</t>
+  </si>
+  <si>
+    <t>few clusters, missing channels</t>
+  </si>
+  <si>
+    <t>good clustering, sparcely connected clusters</t>
+  </si>
+  <si>
+    <t>no clusters</t>
+  </si>
+  <si>
+    <t>one cluster with edge cutoff</t>
+  </si>
+  <si>
+    <t>one small cluster</t>
+  </si>
+  <si>
+    <t>few clusters, sparcely connected</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1469,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1812,7 +1838,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1909,6 +1935,7 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2005,6 +2032,7 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2285,8 +2313,8 @@
   </sheetPr>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4433,10 +4461,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,10 +4490,14 @@
     <col min="24" max="24" width="87.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="31.83203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="16.83203125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="54.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="36.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="54.33203125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -4544,8 +4576,20 @@
       <c r="Z1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -4626,8 +4670,20 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -4708,8 +4764,20 @@
       <c r="Z3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -4790,8 +4858,20 @@
       <c r="Z4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -4872,8 +4952,20 @@
       <c r="Z5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4954,8 +5046,20 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -5036,8 +5140,20 @@
       <c r="Z7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -5118,8 +5234,20 @@
       <c r="Z8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -5200,8 +5328,20 @@
       <c r="Z9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -5282,8 +5422,20 @@
       <c r="Z10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -5364,8 +5516,20 @@
       <c r="Z11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -5446,8 +5610,20 @@
       <c r="Z12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -5528,8 +5704,20 @@
       <c r="Z13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -5610,8 +5798,20 @@
       <c r="Z14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -5692,8 +5892,20 @@
       <c r="Z15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -5774,8 +5986,20 @@
       <c r="Z16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -5856,8 +6080,20 @@
       <c r="Z17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -5938,8 +6174,20 @@
       <c r="Z18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6020,8 +6268,20 @@
       <c r="Z19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -6102,6 +6362,32 @@
       <c r="Z20" s="1">
         <v>8</v>
       </c>
+      <c r="AA20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8885,7 +9171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
@@ -13120,8 +13406,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="432">
   <si>
     <t>a3</t>
   </si>
@@ -1305,6 +1305,30 @@
   </si>
   <si>
     <t>no clustering, missing channels</t>
+  </si>
+  <si>
+    <t>great clustering, edge cutoff</t>
+  </si>
+  <si>
+    <t>few clusters, edge cutoff</t>
+  </si>
+  <si>
+    <t>few clusters, missing channels</t>
+  </si>
+  <si>
+    <t>good clustering, sparcely connected clusters</t>
+  </si>
+  <si>
+    <t>no clusters</t>
+  </si>
+  <si>
+    <t>one cluster with edge cutoff</t>
+  </si>
+  <si>
+    <t>one small cluster</t>
+  </si>
+  <si>
+    <t>few clusters, sparcely connected</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1469,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1812,7 +1838,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1909,6 +1935,7 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2005,6 +2032,7 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2285,8 +2313,8 @@
   </sheetPr>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4433,10 +4461,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4462,10 +4490,14 @@
     <col min="24" max="24" width="87.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="31.83203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="16.83203125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="54.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="36.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="54.33203125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -4544,8 +4576,20 @@
       <c r="Z1" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -4626,8 +4670,20 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -4708,8 +4764,20 @@
       <c r="Z3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -4790,8 +4858,20 @@
       <c r="Z4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -4872,8 +4952,20 @@
       <c r="Z5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4954,8 +5046,20 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -5036,8 +5140,20 @@
       <c r="Z7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -5118,8 +5234,20 @@
       <c r="Z8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -5200,8 +5328,20 @@
       <c r="Z9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -5282,8 +5422,20 @@
       <c r="Z10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -5364,8 +5516,20 @@
       <c r="Z11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -5446,8 +5610,20 @@
       <c r="Z12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -5528,8 +5704,20 @@
       <c r="Z13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -5610,8 +5798,20 @@
       <c r="Z14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -5692,8 +5892,20 @@
       <c r="Z15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -5774,8 +5986,20 @@
       <c r="Z16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -5856,8 +6080,20 @@
       <c r="Z17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -5938,8 +6174,20 @@
       <c r="Z18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6020,8 +6268,20 @@
       <c r="Z19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -6102,6 +6362,32 @@
       <c r="Z20" s="1">
         <v>8</v>
       </c>
+      <c r="AA20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6117,8 +6403,8 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8885,8 +9171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11687,7 +11973,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13120,8 +13406,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="436">
   <si>
     <t>a3</t>
   </si>
@@ -1166,54 +1166,12 @@
     <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
   </si>
   <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/chan*.mat</t>
-  </si>
-  <si>
     <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
   </si>
   <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/chan*.mat</t>
-  </si>
-  <si>
     <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
   </si>
   <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/chan*.mat</t>
-  </si>
-  <si>
     <t>probeNo</t>
   </si>
   <si>
@@ -1329,6 +1287,60 @@
   </si>
   <si>
     <t>few clusters, sparcely connected</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160711-151215/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160802-144253/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160808-152950/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160811-145107/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160812-150028/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160816-145437/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160829-153146/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160831-144727/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160909-132302/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160921-141512/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160926-134654/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160928-132038/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161003-134515/Channel*/*MUA.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-161005-134520/Channel*/*MUA.mat</t>
   </si>
 </sst>
 </file>
@@ -2419,13 +2431,13 @@
         <v>81</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -2517,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -2609,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2701,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2793,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2885,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2977,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -3069,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -3161,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -3253,7 +3265,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -3345,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -3437,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -3529,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3621,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -3713,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3805,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3897,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3989,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -4081,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -4173,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -4265,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -4357,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4463,7 +4475,7 @@
   </sheetPr>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
@@ -4580,13 +4592,13 @@
         <v>122</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -4680,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4774,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -4868,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -4962,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -5056,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -5150,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -5244,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -5338,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -5432,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -5526,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -5620,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -5714,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -5808,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -5902,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -5996,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -6090,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -6184,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -6278,7 +6290,7 @@
         <v>3</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -6372,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -6517,13 +6529,13 @@
         <v>81</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -6615,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -6707,7 +6719,7 @@
         <v>4</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -6799,7 +6811,7 @@
         <v>4</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -6891,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -6983,7 +6995,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -7075,7 +7087,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -7167,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -7259,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -7351,7 +7363,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -7443,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -7535,7 +7547,7 @@
         <v>4</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -7627,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -9171,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9224,7 +9236,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>93</v>
@@ -9281,13 +9293,13 @@
         <v>81</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -9316,7 +9328,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
@@ -9383,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -9412,7 +9424,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -9479,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -9508,7 +9520,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -9595,7 +9607,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -9662,7 +9674,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -9691,7 +9703,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
@@ -9758,7 +9770,7 @@
         <v>4</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -9787,7 +9799,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
@@ -9854,7 +9866,7 @@
         <v>4</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -9883,7 +9895,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -9950,7 +9962,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -9979,7 +9991,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -10046,7 +10058,7 @@
         <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -10075,7 +10087,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="J10" s="47">
         <v>1</v>
@@ -10162,7 +10174,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -10229,7 +10241,7 @@
         <v>4</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -10258,7 +10270,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -10325,7 +10337,7 @@
         <v>4</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -10354,7 +10366,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -10421,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -10450,7 +10462,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
@@ -10537,7 +10549,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="J15" s="41">
         <v>1</v>
@@ -10624,7 +10636,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="J16" s="41">
         <v>2</v>
@@ -10711,7 +10723,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="J17" s="47">
         <v>1</v>
@@ -10778,7 +10790,7 @@
         <v>4</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -10807,7 +10819,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="J18" s="47">
         <v>2</v>
@@ -10874,7 +10886,7 @@
         <v>4</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -10903,7 +10915,7 @@
         <v>32</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
@@ -10970,7 +10982,7 @@
         <v>4</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -10999,7 +11011,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
@@ -11066,7 +11078,7 @@
         <v>4</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -11095,7 +11107,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -11162,7 +11174,7 @@
         <v>4</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -11191,7 +11203,7 @@
         <v>33</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
@@ -11258,7 +11270,7 @@
         <v>4</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -11287,7 +11299,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="J23" s="53">
         <v>2</v>
@@ -11354,7 +11366,7 @@
         <v>4</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -11383,7 +11395,7 @@
         <v>35</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -11450,7 +11462,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -11818,7 +11830,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>299</v>
@@ -11902,7 +11914,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>303</v>
@@ -12085,13 +12097,13 @@
         <v>97</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12183,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12275,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12367,7 +12379,7 @@
         <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12459,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12551,7 +12563,7 @@
         <v>3</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12643,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12735,7 +12747,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12827,7 +12839,7 @@
         <v>3</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -12919,7 +12931,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13011,7 +13023,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13103,7 +13115,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13195,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13287,7 +13299,7 @@
         <v>3</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -13510,13 +13522,13 @@
         <v>97</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13608,7 +13620,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13700,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13792,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13884,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13976,7 +13988,7 @@
         <v>3</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14068,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14160,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14252,7 +14264,7 @@
         <v>3</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14344,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14436,7 +14448,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14528,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -14620,7 +14632,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
     <sheet name="Da_WJ" sheetId="6" r:id="rId3"/>
     <sheet name="Da_K" sheetId="7" r:id="rId4"/>
-    <sheet name="TestDarwin" sheetId="8" r:id="rId5"/>
-    <sheet name="Ga" sheetId="4" r:id="rId6"/>
-    <sheet name="He" sheetId="5" r:id="rId7"/>
+    <sheet name="Ga" sheetId="4" r:id="rId5"/>
+    <sheet name="He" sheetId="5" r:id="rId6"/>
+    <sheet name="Test" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="435">
   <si>
     <t>a3</t>
   </si>
@@ -1143,18 +1143,6 @@
   </si>
   <si>
     <t>Users/Wolf/ephys_db/Helmholtz/2015-03-12a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
   </si>
   <si>
     <t>probeNo</t>
@@ -2454,16 +2442,16 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2555,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -2650,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -2742,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -2837,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -2929,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -3021,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -3113,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -3205,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3297,7 +3285,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -3389,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -3481,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -3573,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -3665,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3757,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3849,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -3941,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -4034,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -4127,7 +4115,7 @@
         <v>4</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -4220,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -4313,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -4406,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -4430,7 +4418,7 @@
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
@@ -4549,19 +4537,19 @@
         <v>120</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AE1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -4655,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -4749,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -4843,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -4937,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5031,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5125,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5219,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5313,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5407,10 +5395,10 @@
         <v>3</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5504,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -5598,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -5692,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -5786,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -5880,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -5974,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6068,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AE17"/>
     </row>
@@ -6163,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE18"/>
     </row>
@@ -6258,7 +6246,7 @@
         <v>3</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AE19"/>
     </row>
@@ -6353,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AE20"/>
     </row>
@@ -6501,13 +6489,13 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -6599,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -6691,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -6783,7 +6771,7 @@
         <v>4</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -6875,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -6967,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -7059,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -7151,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -7243,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -7335,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -7427,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -7519,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -7611,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -9155,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9208,7 +9196,7 @@
         <v>93</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>92</v>
@@ -9265,13 +9253,13 @@
         <v>80</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -9300,7 +9288,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
@@ -9367,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -9396,7 +9384,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -9463,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -9492,7 +9480,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -9579,7 +9567,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -9646,7 +9634,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -9675,7 +9663,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
@@ -9742,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -9771,7 +9759,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
@@ -9838,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -9867,7 +9855,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -9934,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -9963,7 +9951,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -10030,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -10059,7 +10047,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J10" s="47">
         <v>1</v>
@@ -10146,7 +10134,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -10213,7 +10201,7 @@
         <v>4</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -10242,7 +10230,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -10309,7 +10297,7 @@
         <v>4</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -10338,7 +10326,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -10405,7 +10393,7 @@
         <v>4</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -10434,7 +10422,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
@@ -10521,7 +10509,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J15" s="41">
         <v>1</v>
@@ -10608,7 +10596,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J16" s="41">
         <v>2</v>
@@ -10695,7 +10683,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J17" s="47">
         <v>1</v>
@@ -10762,7 +10750,7 @@
         <v>4</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -10791,7 +10779,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J18" s="47">
         <v>2</v>
@@ -10858,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -10887,7 +10875,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
@@ -10954,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -10983,7 +10971,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
@@ -11050,7 +11038,7 @@
         <v>4</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -11079,7 +11067,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -11146,7 +11134,7 @@
         <v>4</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -11175,7 +11163,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
@@ -11242,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -11271,7 +11259,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J23" s="53">
         <v>2</v>
@@ -11338,7 +11326,7 @@
         <v>4</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -11367,7 +11355,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -11434,7 +11422,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -11513,443 +11501,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="27">
-        <v>134</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42564</v>
-      </c>
-      <c r="E2" s="27">
-        <v>28</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="31">
-        <v>3</v>
-      </c>
-      <c r="T2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="U2" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V2" s="35">
-        <v>21000</v>
-      </c>
-      <c r="W2" s="36">
-        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
-        <v>3800</v>
-      </c>
-      <c r="X2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="27">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11">
-        <v>42566</v>
-      </c>
-      <c r="E3" s="27">
-        <v>28</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="31">
-        <v>3</v>
-      </c>
-      <c r="T3" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V3" s="35">
-        <v>21500</v>
-      </c>
-      <c r="W3" s="36">
-        <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-      <c r="X3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="27">
-        <v>139</v>
-      </c>
-      <c r="D4" s="11">
-        <v>42601</v>
-      </c>
-      <c r="E4" s="27">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="31">
-        <v>4</v>
-      </c>
-      <c r="T4" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V4" s="35">
-        <v>23800</v>
-      </c>
-      <c r="W4" s="36">
-        <f t="shared" si="0"/>
-        <v>5800</v>
-      </c>
-      <c r="X4" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="27">
-        <v>140</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42625</v>
-      </c>
-      <c r="E5" s="27">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="31">
-        <v>2</v>
-      </c>
-      <c r="T5" s="31">
-        <v>2</v>
-      </c>
-      <c r="U5" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V5" s="35">
-        <v>25500</v>
-      </c>
-      <c r="W5" s="36">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="X5" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="27">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -12071,19 +11622,19 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12175,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12267,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12359,7 +11910,7 @@
         <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12451,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12543,7 +12094,7 @@
         <v>2</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12635,7 +12186,7 @@
         <v>3</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12727,7 +12278,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12819,10 +12370,10 @@
         <v>3</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12914,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13006,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13098,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13190,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13282,10 +12833,10 @@
         <v>2</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -13403,7 +12954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -13516,19 +13067,19 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13620,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13712,7 +13263,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13804,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13896,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13988,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14080,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14172,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14264,7 +13815,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14356,13 +13907,13 @@
         <v>2</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AD10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE10" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14454,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14546,7 +14097,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14638,7 +14189,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14941,4 +14492,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="45.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="27">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11">
+        <v>42562</v>
+      </c>
+      <c r="E2" s="27">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="31">
+        <v>3</v>
+      </c>
+      <c r="U2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="V2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="X2" s="36">
+        <f>W2-V2</f>
+        <v>3800</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="27">
+        <v>134</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E3" s="27">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="31">
+        <v>3</v>
+      </c>
+      <c r="U3" s="31">
+        <v>-2</v>
+      </c>
+      <c r="V3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W3" s="35">
+        <v>21000</v>
+      </c>
+      <c r="X3" s="36">
+        <f t="shared" ref="X3:X4" si="0">W3-V3</f>
+        <v>3800</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27">
+        <v>135</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E4" s="27">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="31">
+        <v>3</v>
+      </c>
+      <c r="U4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W4" s="35">
+        <v>21500</v>
+      </c>
+      <c r="X4" s="36">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -2334,8 +2334,8 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6375,8 +6375,8 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9143,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11507,8 +11507,8 @@
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12961,8 +12961,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14498,14 +14498,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="45.1640625" customWidth="1"/>
+    <col min="9" max="9" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
     <sheet name="Da_WJ" sheetId="6" r:id="rId3"/>
     <sheet name="Da_K" sheetId="7" r:id="rId4"/>
-    <sheet name="TestDarwin" sheetId="8" r:id="rId5"/>
-    <sheet name="Ga" sheetId="4" r:id="rId6"/>
-    <sheet name="He" sheetId="5" r:id="rId7"/>
+    <sheet name="Ga" sheetId="4" r:id="rId5"/>
+    <sheet name="He" sheetId="5" r:id="rId6"/>
+    <sheet name="Test" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="435">
   <si>
     <t>a3</t>
   </si>
@@ -1143,18 +1143,6 @@
   </si>
   <si>
     <t>Users/Wolf/ephys_db/Helmholtz/2015-03-12a/DSP/DSP*/*MG*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
-  </si>
-  <si>
-    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
   </si>
   <si>
     <t>probeNo</t>
@@ -2346,8 +2334,8 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,16 +2442,16 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2555,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -2650,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -2742,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -2837,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -2929,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -3021,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -3113,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -3205,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3297,7 +3285,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -3389,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -3481,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -3573,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -3665,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3757,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3849,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -3941,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD17"/>
     </row>
@@ -4034,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD18"/>
     </row>
@@ -4127,7 +4115,7 @@
         <v>4</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD19"/>
     </row>
@@ -4220,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AD20"/>
     </row>
@@ -4313,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD21"/>
     </row>
@@ -4406,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -4430,7 +4418,7 @@
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
@@ -4549,19 +4537,19 @@
         <v>120</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AE1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -4655,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -4749,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -4843,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -4937,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5031,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5125,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5219,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5313,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5407,10 +5395,10 @@
         <v>3</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5504,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -5598,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -5692,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -5786,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -5880,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -5974,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6068,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AE17"/>
     </row>
@@ -6163,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE18"/>
     </row>
@@ -6258,7 +6246,7 @@
         <v>3</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AE19"/>
     </row>
@@ -6353,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AE20"/>
     </row>
@@ -6387,8 +6375,8 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6501,13 +6489,13 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -6599,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -6691,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -6783,7 +6771,7 @@
         <v>4</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -6875,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -6967,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -7059,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -7151,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -7243,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -7335,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -7427,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -7519,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -7611,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -9155,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9208,7 +9196,7 @@
         <v>93</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>92</v>
@@ -9265,13 +9253,13 @@
         <v>80</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -9300,7 +9288,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
@@ -9367,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -9396,7 +9384,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -9463,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -9492,7 +9480,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -9579,7 +9567,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -9646,7 +9634,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -9675,7 +9663,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
@@ -9742,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -9771,7 +9759,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
@@ -9838,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -9867,7 +9855,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -9934,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -9963,7 +9951,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -10030,7 +10018,7 @@
         <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -10059,7 +10047,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J10" s="47">
         <v>1</v>
@@ -10146,7 +10134,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -10213,7 +10201,7 @@
         <v>4</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -10242,7 +10230,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -10309,7 +10297,7 @@
         <v>4</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -10338,7 +10326,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -10405,7 +10393,7 @@
         <v>4</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -10434,7 +10422,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
@@ -10521,7 +10509,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J15" s="41">
         <v>1</v>
@@ -10608,7 +10596,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J16" s="41">
         <v>2</v>
@@ -10695,7 +10683,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J17" s="47">
         <v>1</v>
@@ -10762,7 +10750,7 @@
         <v>4</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -10791,7 +10779,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J18" s="47">
         <v>2</v>
@@ -10858,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -10887,7 +10875,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
@@ -10954,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -10983,7 +10971,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
@@ -11050,7 +11038,7 @@
         <v>4</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -11079,7 +11067,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -11146,7 +11134,7 @@
         <v>4</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -11175,7 +11163,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
@@ -11242,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -11271,7 +11259,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J23" s="53">
         <v>2</v>
@@ -11338,7 +11326,7 @@
         <v>4</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -11367,7 +11355,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -11434,7 +11422,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -11514,450 +11502,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="27">
-        <v>134</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42564</v>
-      </c>
-      <c r="E2" s="27">
-        <v>28</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="31">
-        <v>3</v>
-      </c>
-      <c r="T2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="U2" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V2" s="35">
-        <v>21000</v>
-      </c>
-      <c r="W2" s="36">
-        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
-        <v>3800</v>
-      </c>
-      <c r="X2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="27">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11">
-        <v>42566</v>
-      </c>
-      <c r="E3" s="27">
-        <v>28</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="31">
-        <v>3</v>
-      </c>
-      <c r="T3" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="35">
-        <v>17200</v>
-      </c>
-      <c r="V3" s="35">
-        <v>21500</v>
-      </c>
-      <c r="W3" s="36">
-        <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-      <c r="X3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="27">
-        <v>139</v>
-      </c>
-      <c r="D4" s="11">
-        <v>42601</v>
-      </c>
-      <c r="E4" s="27">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="31">
-        <v>4</v>
-      </c>
-      <c r="T4" s="31">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V4" s="35">
-        <v>23800</v>
-      </c>
-      <c r="W4" s="36">
-        <f t="shared" si="0"/>
-        <v>5800</v>
-      </c>
-      <c r="X4" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="27">
-        <v>140</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42625</v>
-      </c>
-      <c r="E5" s="27">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="31">
-        <v>2</v>
-      </c>
-      <c r="T5" s="31">
-        <v>2</v>
-      </c>
-      <c r="U5" s="35">
-        <v>18000</v>
-      </c>
-      <c r="V5" s="35">
-        <v>25500</v>
-      </c>
-      <c r="W5" s="36">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="X5" s="27">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="27">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12071,19 +11622,19 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12175,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12267,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12359,7 +11910,7 @@
         <v>2</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12451,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12543,7 +12094,7 @@
         <v>2</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12635,7 +12186,7 @@
         <v>3</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12727,7 +12278,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12819,10 +12370,10 @@
         <v>3</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -12914,7 +12465,7 @@
         <v>3</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13006,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13098,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13190,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13282,10 +12833,10 @@
         <v>2</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -13403,15 +12954,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13516,19 +13067,19 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13620,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13712,7 +13263,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13804,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13896,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -13988,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14080,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14172,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14264,7 +13815,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14356,13 +13907,13 @@
         <v>2</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AD10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE10" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14454,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14546,7 +14097,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14638,7 +14189,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14941,4 +14492,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="79.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="27">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11">
+        <v>42562</v>
+      </c>
+      <c r="E2" s="27">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="31">
+        <v>3</v>
+      </c>
+      <c r="U2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="V2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="X2" s="36">
+        <f>W2-V2</f>
+        <v>3800</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="27">
+        <v>134</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E3" s="27">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="31">
+        <v>3</v>
+      </c>
+      <c r="U3" s="31">
+        <v>-2</v>
+      </c>
+      <c r="V3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W3" s="35">
+        <v>21000</v>
+      </c>
+      <c r="X3" s="36">
+        <f t="shared" ref="X3:X4" si="0">W3-V3</f>
+        <v>3800</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27">
+        <v>135</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E4" s="27">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="31">
+        <v>3</v>
+      </c>
+      <c r="U4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W4" s="35">
+        <v>21500</v>
+      </c>
+      <c r="X4" s="36">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5540" yWindow="7520" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="437">
   <si>
     <t>a3</t>
   </si>
@@ -1338,6 +1338,12 @@
   </si>
   <si>
     <t>16, 15, 14, 13, 12, 11, 10, 9</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -2334,8 +2340,8 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2533,8 +2539,8 @@
       <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="1">
-        <v>1</v>
+      <c r="Z2" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>82</v>
@@ -9144,7 +9150,7 @@
   <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9340,7 +9346,7 @@
         <v>150</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>112</v>
+        <v>436</v>
       </c>
       <c r="AA2" s="7">
         <v>1</v>
@@ -14496,16 +14502,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="38.5" customWidth="1"/>
     <col min="9" max="9" width="79.83203125" customWidth="1"/>
+    <col min="26" max="26" width="108.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -14611,10 +14618,10 @@
         <v>110</v>
       </c>
       <c r="C2" s="27">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D2" s="11">
-        <v>42562</v>
+        <v>42639</v>
       </c>
       <c r="E2" s="27">
         <v>28</v>
@@ -14626,16 +14633,16 @@
         <v>111</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>119</v>
@@ -14656,43 +14663,43 @@
         <v>35</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2" s="31">
         <v>-2</v>
       </c>
       <c r="V2" s="35">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="W2" s="35">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="X2" s="36">
-        <f>W2-V2</f>
-        <v>3800</v>
+        <f t="shared" ref="X2" si="0">W2-V2</f>
+        <v>500</v>
       </c>
       <c r="Y2" s="27">
         <v>150</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>112</v>
+        <v>436</v>
       </c>
       <c r="AA2" s="7">
         <v>1</v>
       </c>
       <c r="AB2" s="27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="7">
         <v>4</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -14707,10 +14714,10 @@
         <v>110</v>
       </c>
       <c r="C3" s="27">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D3" s="11">
-        <v>42564</v>
+        <v>42590</v>
       </c>
       <c r="E3" s="27">
         <v>28</v>
@@ -14722,16 +14729,16 @@
         <v>111</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>119</v>
@@ -14752,38 +14759,38 @@
         <v>35</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="31">
-        <v>3</v>
-      </c>
-      <c r="U3" s="31">
+        <v>2</v>
+      </c>
+      <c r="U3" s="34">
         <v>-2</v>
       </c>
-      <c r="V3" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W3" s="35">
-        <v>21000</v>
+      <c r="V3" s="36">
+        <v>18000</v>
+      </c>
+      <c r="W3" s="36">
+        <v>25000</v>
       </c>
       <c r="X3" s="36">
-        <f t="shared" ref="X3:X4" si="0">W3-V3</f>
-        <v>3800</v>
+        <f t="shared" ref="X3" si="1">W3-V3</f>
+        <v>7000</v>
       </c>
       <c r="Y3" s="27">
         <v>150</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="AA3" s="7">
         <v>1</v>
       </c>
       <c r="AB3" s="27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>82</v>
@@ -14803,10 +14810,10 @@
         <v>110</v>
       </c>
       <c r="C4" s="27">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="11">
-        <v>42566</v>
+        <v>42562</v>
       </c>
       <c r="E4" s="27">
         <v>28</v>
@@ -14818,16 +14825,16 @@
         <v>111</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>119</v>
@@ -14851,23 +14858,23 @@
         <v>0</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" s="31">
         <v>3</v>
       </c>
       <c r="U4" s="31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V4" s="35">
         <v>17200</v>
       </c>
       <c r="W4" s="35">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="X4" s="36">
-        <f t="shared" si="0"/>
-        <v>4300</v>
+        <f>W4-V4</f>
+        <v>3800</v>
       </c>
       <c r="Y4" s="27">
         <v>150</v>
@@ -14879,11 +14886,203 @@
         <v>1</v>
       </c>
       <c r="AB4" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="27">
+        <v>134</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E5" s="27">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="31">
+        <v>3</v>
+      </c>
+      <c r="U5" s="31">
+        <v>-2</v>
+      </c>
+      <c r="V5" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W5" s="35">
+        <v>21000</v>
+      </c>
+      <c r="X5" s="36">
+        <f t="shared" ref="X5:X6" si="2">W5-V5</f>
+        <v>3800</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="27">
+        <v>135</v>
+      </c>
+      <c r="D6" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E6" s="27">
+        <v>28</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="31">
+        <v>3</v>
+      </c>
+      <c r="U6" s="31">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="35">
+        <v>17200</v>
+      </c>
+      <c r="W6" s="35">
+        <v>21500</v>
+      </c>
+      <c r="X6" s="36">
+        <f t="shared" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="Y6" s="27">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="27">
         <v>2</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="7520" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-160" yWindow="9360" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="436">
   <si>
     <t>a3</t>
   </si>
@@ -1341,9 +1341,6 @@
   </si>
   <si>
     <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -2341,7 +2338,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,8 +2536,8 @@
       <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>436</v>
+      <c r="Z2" s="1">
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>82</v>
@@ -9149,8 +9146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9346,7 +9343,7 @@
         <v>150</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>436</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="7">
         <v>1</v>
@@ -14505,7 +14502,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14688,7 +14685,7 @@
         <v>150</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA2" s="7">
         <v>1</v>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38740" yWindow="460" windowWidth="37540" windowHeight="19440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1477,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,7 +1709,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,6 +1884,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2346,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2368,8 +2453,8 @@
     <col min="22" max="23" width="18.83203125" customWidth="1"/>
     <col min="24" max="24" width="89.33203125" customWidth="1"/>
     <col min="25" max="26" width="26" customWidth="1"/>
-    <col min="27" max="27" width="48" style="1" customWidth="1"/>
-    <col min="28" max="28" width="35" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="71" style="1" customWidth="1"/>
     <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
   </cols>
@@ -2609,10 +2694,10 @@
         <f t="shared" ref="O3:O18" si="2">IF(N3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="60" t="s">
         <v>46</v>
       </c>
       <c r="R3" s="8">
@@ -2701,10 +2786,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="60" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="8">
@@ -2888,10 +2973,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="61" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="8">
@@ -2980,10 +3065,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="61" t="s">
         <v>50</v>
       </c>
       <c r="R7" s="8">
@@ -3300,97 +3385,98 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:30" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="65">
         <v>216</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="66">
         <v>42473</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="67">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>left</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="65" t="str">
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="68">
         <v>-6</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="68">
         <v>4</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="65">
         <v>19000</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="65">
         <v>22000</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="65">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="65">
         <v>100</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="65">
         <v>8</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="65">
         <v>8</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="69">
         <v>2</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AC11" s="65" t="s">
         <v>403</v>
       </c>
+      <c r="AD11" s="65"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3532,10 +3618,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="62" t="s">
         <v>58</v>
       </c>
       <c r="R13" s="8">
@@ -3808,10 +3894,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="63" t="s">
         <v>55</v>
       </c>
       <c r="R16" s="8">
@@ -3900,10 +3986,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="62" t="s">
         <v>58</v>
       </c>
       <c r="R17" s="8">
@@ -4365,10 +4451,10 @@
         <f t="shared" si="4"/>
         <v>right</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="63" t="s">
         <v>55</v>
       </c>
       <c r="R22" s="8">
@@ -4430,8 +4516,8 @@
   </sheetPr>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5034,99 +5120,100 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:32" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="53">
         <v>33</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="66">
         <v>42669</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="65">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="65" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="68">
         <v>4.8</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="68">
         <v>-4.7</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="65">
         <v>20000</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="65">
         <v>25500</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="65">
         <v>5500</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="65">
         <v>100</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="65">
         <v>8</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="65">
         <v>5</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="65">
         <v>2</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="65" t="s">
         <v>383</v>
       </c>
+      <c r="AF7" s="69"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -5977,7 +6064,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -6072,7 +6159,7 @@
       </c>
       <c r="AE17"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6167,7 +6254,7 @@
       </c>
       <c r="AE18"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -6262,114 +6349,115 @@
       </c>
       <c r="AE19"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:32" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="53">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="66">
         <v>42754</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="65">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N20" s="65" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O20" s="1" t="str">
+      <c r="O20" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="68">
         <v>2</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="68">
         <v>-3</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="65">
         <v>20000</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="65">
         <v>26000</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="65">
         <v>6000</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="65">
         <v>100</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="65">
         <v>8</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="65">
         <v>8</v>
       </c>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="53">
         <v>1</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AD20" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="AE20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="69"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AC21" s="7"/>
       <c r="AE21"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AC22" s="7"/>
       <c r="AE22"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
     </row>
@@ -6387,8 +6475,8 @@
   </sheetPr>
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6786,95 +6874,95 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="69">
         <v>129</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="72">
         <v>42422</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="69">
         <v>28</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="69" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="69" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="73">
         <v>2</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="73">
         <v>0</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="69">
         <v>18000</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="69">
         <v>24500</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="69">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="69">
         <v>150</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="75">
         <v>1</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="69">
         <v>4</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="65">
         <v>2</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="65" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7062,95 +7150,95 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="69">
         <v>130</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="72">
         <v>42426</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="69">
         <v>28</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="69" t="str">
         <f t="shared" ref="N8:N13" si="3">M8</f>
         <v>left</v>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="69" t="str">
         <f t="shared" ref="O8:O13" si="4">IF(N8="left", "right", "left")</f>
         <v>right</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="73">
         <v>1</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="73">
         <v>0</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="69">
         <v>18000</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="69">
         <v>23200</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="69">
         <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="69">
         <v>150</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="75">
         <v>1</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="69">
         <v>5</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="65">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="65" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9155,7 +9243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -11956,8 +12044,8 @@
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB14" activeCellId="3" sqref="AB4 AB6 AB8 AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12178,97 +12266,98 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:31" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="77">
         <v>60</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="76">
         <v>41982</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="77">
         <v>28</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="65" t="str">
         <f t="shared" ref="O3:O14" si="1">N3</f>
         <v>right</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="65" t="str">
         <f t="shared" ref="P3:P14" si="2">IF(O3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="79">
         <v>1</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="79">
         <v>0</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="78">
         <v>2100</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="78">
         <v>3751</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="65">
         <f>V3-U3</f>
         <v>1651</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="78">
         <v>150</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="78">
         <v>1</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="65">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="65" t="s">
         <v>387</v>
       </c>
+      <c r="AD3" s="65"/>
     </row>
     <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -12362,97 +12451,98 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:31" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="77">
         <v>62</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="76">
         <v>42009</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="77">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="78" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="65" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="79">
         <v>1</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="79">
         <v>-1</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="78">
         <v>4099</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="78">
         <v>6005</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="65">
         <f t="shared" ref="W5:W14" si="3">V5-U5</f>
         <v>1906</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="78">
         <v>150</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="78">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="65">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="65" t="s">
         <v>389</v>
       </c>
+      <c r="AD5" s="65"/>
     </row>
     <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
@@ -13410,8 +13500,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="H2:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13950,10 +14040,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="21">
@@ -13991,97 +14081,98 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:31" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="78">
         <v>35</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="76">
         <v>41990</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="78">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="79">
         <v>-2</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="79">
         <v>-2</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="78">
         <v>2500</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="78">
         <v>4503</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="65">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="78">
         <v>150</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="82">
         <v>1</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="65">
         <v>1</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="65" t="s">
         <v>379</v>
       </c>
+      <c r="AD7" s="65"/>
     </row>
     <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
@@ -14134,10 +14225,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="21">
@@ -14226,10 +14317,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="21">

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="9360" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3320" yWindow="2460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="439">
   <si>
     <t>a3</t>
   </si>
@@ -1341,6 +1341,15 @@
   </si>
   <si>
     <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>missingChannels</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1360,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1445,8 +1454,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1487,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1481,7 +1515,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,8 +1715,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1805,37 +1841,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1857,8 +1863,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1958,6 +2046,7 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2057,6 +2146,7 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2335,10 +2425,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2438,7 @@
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29" style="59" customWidth="1"/>
+    <col min="10" max="10" width="29" style="49" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
@@ -2359,13 +2449,13 @@
     <col min="22" max="23" width="18.83203125" customWidth="1"/>
     <col min="24" max="24" width="89.33203125" customWidth="1"/>
     <col min="25" max="26" width="26" customWidth="1"/>
-    <col min="27" max="27" width="48" style="1" customWidth="1"/>
-    <col min="28" max="28" width="35" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="48" style="1" customWidth="1"/>
+    <col min="29" max="29" width="35" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -2448,16 +2538,19 @@
         <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -2485,7 +2578,7 @@
       <c r="I2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="48" t="s">
         <v>202</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2542,17 +2635,20 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="19">
+      <c r="AB2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="19">
         <v>3</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2600,10 +2696,10 @@
         <f t="shared" ref="O3:O18" si="2">IF(N3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="57" t="s">
         <v>46</v>
       </c>
       <c r="R3" s="8">
@@ -2637,14 +2733,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="19">
         <v>2</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2692,10 +2791,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="57" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="8">
@@ -2729,17 +2828,20 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC4" s="19">
         <v>3</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -2824,14 +2926,17 @@
       <c r="AA5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC5" s="19">
         <v>4</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2879,10 +2984,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="58" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="8">
@@ -2916,14 +3021,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="19">
         <v>4</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2971,10 +3079,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="58" t="s">
         <v>50</v>
       </c>
       <c r="R7" s="8">
@@ -3008,14 +3116,17 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC7" s="19">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -3100,14 +3211,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC8" s="19">
         <v>3</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -3192,14 +3306,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC9" s="19">
         <v>2</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -3284,106 +3401,113 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC10" s="19">
         <v>4</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:31" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="50">
         <v>216</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="51">
         <v>42473</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="52">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="50" t="str">
         <f t="shared" si="1"/>
         <v>left</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="50" t="str">
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="53">
         <v>-6</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="53">
         <v>4</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="50">
         <v>19000</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="50">
         <v>22000</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="50">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="50">
         <v>100</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="50">
         <v>8</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="50">
         <v>8</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC11" s="54">
         <v>2</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="50" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="50"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -3468,14 +3592,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="AB12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC12" s="19">
         <v>2</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -3523,10 +3650,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="61" t="s">
         <v>58</v>
       </c>
       <c r="R13" s="8">
@@ -3560,14 +3687,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC13" s="19">
         <v>1</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -3652,14 +3782,17 @@
       <c r="AA14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="AB14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC14" s="19">
         <v>3</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -3744,14 +3877,17 @@
       <c r="AA15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB15" s="19">
+      <c r="AB15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC15" s="19">
         <v>3</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3799,10 +3935,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="64" t="s">
         <v>55</v>
       </c>
       <c r="R16" s="8">
@@ -3836,14 +3972,17 @@
       <c r="AA16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC16" s="19">
         <v>4</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -3891,10 +4030,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="61" t="s">
         <v>58</v>
       </c>
       <c r="R17" s="8">
@@ -3928,15 +4067,18 @@
       <c r="AA17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB17" s="19">
+      <c r="AB17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC17" s="19">
         <v>3</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -4021,15 +4163,18 @@
       <c r="AA18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC18" s="19">
         <v>3</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -4114,15 +4259,18 @@
       <c r="AA19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC19" s="19">
         <v>4</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -4207,15 +4355,18 @@
       <c r="AA20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC20" s="19">
         <v>4</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4300,15 +4451,18 @@
       <c r="AA21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AB21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC21" s="19">
         <v>4</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -4356,10 +4510,10 @@
         <f t="shared" si="4"/>
         <v>right</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="64" t="s">
         <v>55</v>
       </c>
       <c r="R22" s="8">
@@ -4393,13 +4547,16 @@
       <c r="AA22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB22" s="19">
+      <c r="AB22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC22" s="19">
         <v>4</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AD22"/>
+      <c r="AE22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4419,10 +4576,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4457,7 +4614,7 @@
     <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -4543,19 +4700,22 @@
         <v>371</v>
       </c>
       <c r="AC1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -4642,14 +4802,19 @@
       <c r="AB2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD2" s="7">
         <v>2</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="19"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,14 +4901,19 @@
       <c r="AB3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="19"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,14 +5000,19 @@
       <c r="AB4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD4" s="1">
         <v>2</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="19"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -4924,14 +5099,19 @@
       <c r="AB5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD5" s="1">
         <v>4</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="19"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -5018,108 +5198,117 @@
       <c r="AB6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="19"/>
+    </row>
+    <row r="7" spans="1:33" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="43">
         <v>33</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="51">
         <v>42669</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="50">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="50" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="50" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="53">
         <v>4.8</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="53">
         <v>-4.7</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="50">
         <v>20000</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="50">
         <v>25500</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="50">
         <v>5500</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="50">
         <v>100</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="50">
         <v>8</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="50">
         <v>5</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD7" s="50">
         <v>2</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="50" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" s="54"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -5206,14 +5395,19 @@
       <c r="AB8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD8" s="1">
         <v>3</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="19"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -5300,14 +5494,19 @@
       <c r="AB9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD9" s="7">
         <v>2</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="19"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -5394,17 +5593,21 @@
       <c r="AB10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD10" s="1">
         <v>3</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="19"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -5491,14 +5694,19 @@
       <c r="AB11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD11" s="7">
         <v>2</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="19"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -5585,14 +5793,19 @@
       <c r="AB12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD12" s="7">
         <v>3</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="19"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -5679,14 +5892,19 @@
       <c r="AB13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD13" s="7">
         <v>4</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="19"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -5773,14 +5991,19 @@
       <c r="AB14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD14" s="1">
         <v>3</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="19"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -5867,14 +6090,19 @@
       <c r="AB15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD15" s="1">
         <v>4</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="19"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -5961,14 +6189,19 @@
       <c r="AB16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD16" s="1">
         <v>2</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="19"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -6055,15 +6288,19 @@
       <c r="AB17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD17" s="7">
         <v>1</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AE17"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17"/>
+      <c r="AG17" s="19"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6150,15 +6387,19 @@
       <c r="AB18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD18" s="7">
         <v>3</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AE18"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18"/>
+      <c r="AG18" s="19"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -6245,122 +6486,130 @@
       <c r="AB19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD19" s="7">
         <v>3</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AE19"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="AF19"/>
+      <c r="AG19" s="19"/>
+    </row>
+    <row r="20" spans="1:33" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="43">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="51">
         <v>42754</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="50">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O20" s="1" t="str">
+      <c r="O20" s="50" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="53">
         <v>2</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="53">
         <v>-3</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="50">
         <v>20000</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="50">
         <v>26000</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="50">
         <v>6000</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="50">
         <v>100</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="50">
         <v>8</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="50">
         <v>8</v>
       </c>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD20" s="43">
         <v>1</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="AE20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="54"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC21" s="7"/>
       <c r="AE21"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC22" s="7"/>
       <c r="AE22"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
     </row>
@@ -6376,10 +6625,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6406,13 +6655,13 @@
     <col min="24" max="24" width="106.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" style="10" customWidth="1"/>
     <col min="26" max="26" width="18.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -6495,13 +6744,16 @@
         <v>371</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>109</v>
       </c>
@@ -6586,14 +6838,17 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="1">
         <v>4</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
@@ -6678,14 +6933,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>109</v>
       </c>
@@ -6770,106 +7028,112 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC4" s="1">
         <v>4</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="54">
         <v>129</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="68">
         <v>42422</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="54">
         <v>28</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="54" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="54" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="69">
         <v>2</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="69">
         <v>0</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="54">
         <v>18000</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="54">
         <v>24500</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="54">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="54">
         <v>150</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="71">
         <v>1</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="54">
         <v>4</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC5" s="50">
         <v>2</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>109</v>
       </c>
@@ -6954,14 +7218,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="1">
         <v>4</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>109</v>
       </c>
@@ -7046,106 +7313,112 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC7" s="1">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="54">
         <v>130</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="68">
         <v>42426</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="54">
         <v>28</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="54" t="str">
         <f t="shared" ref="N8:N13" si="3">M8</f>
         <v>left</v>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="54" t="str">
         <f t="shared" ref="O8:O13" si="4">IF(N8="left", "right", "left")</f>
         <v>right</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="69">
         <v>1</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="69">
         <v>0</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="54">
         <v>18000</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="54">
         <v>23200</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="54">
         <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="54">
         <v>150</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="71">
         <v>1</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="54">
         <v>5</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC8" s="50">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>109</v>
       </c>
@@ -7230,14 +7503,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC9" s="1">
         <v>4</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>109</v>
       </c>
@@ -7322,14 +7598,17 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC10" s="1">
         <v>4</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>109</v>
       </c>
@@ -7414,14 +7693,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC11" s="1">
         <v>4</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>109</v>
       </c>
@@ -7506,14 +7788,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC12" s="7">
         <v>4</v>
       </c>
-      <c r="AC12" s="7" t="s">
+      <c r="AD12" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>109</v>
       </c>
@@ -7598,14 +7883,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC13" s="1">
         <v>4</v>
       </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AD13" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="25"/>
       <c r="C14" s="27"/>
@@ -7633,7 +7921,7 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="25"/>
       <c r="C15" s="27"/>
@@ -7661,7 +7949,7 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="25"/>
       <c r="C16" s="27"/>
@@ -9144,10 +9432,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9164,13 +9452,13 @@
     <col min="24" max="24" width="19.1640625" customWidth="1"/>
     <col min="25" max="25" width="16.1640625" customWidth="1"/>
     <col min="26" max="26" width="105.5" customWidth="1"/>
-    <col min="27" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="37.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="48" style="1" customWidth="1"/>
-    <col min="31" max="31" width="71" style="1" customWidth="1"/>
+    <col min="27" max="29" width="30" customWidth="1"/>
+    <col min="30" max="31" width="37.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="48" style="1" customWidth="1"/>
+    <col min="33" max="33" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -9253,19 +9541,25 @@
         <v>96</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
@@ -9348,20 +9642,26 @@
       <c r="AA2" s="7">
         <v>1</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="27">
         <v>1</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="1">
-        <v>4</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>109</v>
       </c>
@@ -9407,10 +9707,10 @@
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="41" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -9444,20 +9744,26 @@
       <c r="AA3" s="7">
         <v>1</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="27">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="1">
-        <v>4</v>
-      </c>
       <c r="AE3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -9503,10 +9809,10 @@
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="41" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="27" t="s">
@@ -9540,11 +9846,14 @@
       <c r="AA4" s="7">
         <v>1</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC4" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
@@ -9627,20 +9936,26 @@
       <c r="AA5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC5" s="27">
         <v>10</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF5" s="1">
         <v>4</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>109</v>
       </c>
@@ -9686,10 +10001,10 @@
       <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="59" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="27" t="s">
@@ -9723,20 +10038,26 @@
       <c r="AA6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="27">
         <v>10</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD6" s="1">
-        <v>4</v>
-      </c>
       <c r="AE6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -9782,10 +10103,10 @@
       <c r="O7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="59" t="s">
         <v>35</v>
       </c>
       <c r="R7" s="27" t="s">
@@ -9819,20 +10140,26 @@
       <c r="AA7" s="7">
         <v>1</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AB7" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC7" s="27">
         <v>1</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="1">
-        <v>4</v>
-      </c>
       <c r="AE7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>109</v>
       </c>
@@ -9915,20 +10242,26 @@
       <c r="AA8" s="7">
         <v>1</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC8" s="27">
         <v>11</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="1">
-        <v>4</v>
-      </c>
       <c r="AE8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>109</v>
       </c>
@@ -10011,203 +10344,218 @@
       <c r="AA9" s="7">
         <v>1</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AB9" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC9" s="27">
         <v>12</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AE9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="42">
+        <v>139</v>
+      </c>
+      <c r="D10" s="42">
+        <v>42601</v>
+      </c>
+      <c r="E10" s="42">
+        <v>28</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="J10" s="42">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="42">
         <v>4</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="49">
-        <v>139</v>
-      </c>
-      <c r="D10" s="50">
-        <v>42601</v>
-      </c>
-      <c r="E10" s="49">
-        <v>28</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="J10" s="47">
-        <v>1</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="51">
-        <v>4</v>
-      </c>
-      <c r="U10" s="51">
+      <c r="U10" s="42">
         <v>-1</v>
       </c>
-      <c r="V10" s="49">
+      <c r="V10" s="42">
         <v>18000</v>
       </c>
-      <c r="W10" s="49">
+      <c r="W10" s="42">
         <v>23800</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X10" s="42">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y10" s="42">
         <v>150</v>
       </c>
-      <c r="Z10" s="52" t="s">
+      <c r="Z10" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="42">
         <v>1</v>
       </c>
-      <c r="AB10" s="49">
+      <c r="AB10" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC10" s="42">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:33" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="45">
         <v>139</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="46">
         <v>42611</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="45">
         <v>28</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="47">
         <v>4</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="47">
         <v>-1</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="45">
         <v>18000</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="45">
         <v>26000</v>
       </c>
-      <c r="X11" s="36">
+      <c r="X11" s="43">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="Y11" s="45">
         <v>150</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="Z11" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="43">
         <v>1</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AB11" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC11" s="45">
         <v>12</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AD11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AE11" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF11" s="43">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="50" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>109</v>
       </c>
@@ -10290,20 +10638,26 @@
       <c r="AA12" s="7">
         <v>1</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AB12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC12" s="27">
         <v>13</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD12" s="1">
-        <v>4</v>
-      </c>
       <c r="AE12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>109</v>
       </c>
@@ -10349,10 +10703,10 @@
       <c r="O13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="63" t="s">
         <v>35</v>
       </c>
       <c r="R13" s="27" t="s">
@@ -10386,20 +10740,26 @@
       <c r="AA13" s="7">
         <v>1</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AB13" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC13" s="27">
         <v>14</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="1">
-        <v>4</v>
-      </c>
       <c r="AE13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>109</v>
       </c>
@@ -10482,30 +10842,33 @@
       <c r="AA14" s="7">
         <v>33</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AB14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC14" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>140</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>42625</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>28</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>111</v>
       </c>
       <c r="H15" s="41" t="s">
@@ -10538,61 +10901,64 @@
       <c r="Q15" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="43">
+      <c r="T15" s="41">
         <v>2</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="41">
         <v>2</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="41">
         <v>18000</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <v>25500</v>
       </c>
       <c r="X15" s="41">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="41">
         <v>150</v>
       </c>
-      <c r="Z15" s="44" t="s">
+      <c r="Z15" s="41" t="s">
         <v>112</v>
       </c>
       <c r="AA15" s="41">
         <v>1</v>
       </c>
-      <c r="AB15" s="42">
+      <c r="AB15" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>140</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>42625</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>28</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
         <v>111</v>
       </c>
       <c r="H16" s="41" t="s">
@@ -10625,29 +10991,29 @@
       <c r="Q16" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="41">
         <v>2</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>-1</v>
       </c>
-      <c r="V16" s="42">
+      <c r="V16" s="41">
         <v>15650</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <v>21500</v>
       </c>
       <c r="X16" s="41">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="Y16" s="42">
+      <c r="Y16" s="41">
         <v>150</v>
       </c>
       <c r="Z16" s="41" t="s">
@@ -10656,203 +11022,218 @@
       <c r="AA16" s="41">
         <v>33</v>
       </c>
-      <c r="AB16" s="42">
+      <c r="AB16" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC16" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="42">
         <v>141</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="42">
         <v>42634</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="42">
         <v>28</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="42">
         <v>1</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="47" t="s">
+      <c r="P17" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="47" t="s">
+      <c r="Q17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="49" t="s">
+      <c r="R17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="42">
         <v>0</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="42">
         <v>0</v>
       </c>
-      <c r="V17" s="49">
+      <c r="V17" s="42">
         <v>18000</v>
       </c>
-      <c r="W17" s="49">
+      <c r="W17" s="42">
         <v>19500</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="42">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="Y17" s="49">
+      <c r="Y17" s="42">
         <v>150</v>
       </c>
-      <c r="Z17" s="52" t="s">
+      <c r="Z17" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AA17" s="47">
+      <c r="AA17" s="42">
         <v>1</v>
       </c>
-      <c r="AB17" s="49">
+      <c r="AB17" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC17" s="42">
         <v>15</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AE17" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF17" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="42">
+        <v>141</v>
+      </c>
+      <c r="D18" s="42">
+        <v>42634</v>
+      </c>
+      <c r="E18" s="42">
+        <v>28</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" s="42">
+        <v>2</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="49">
-        <v>141</v>
-      </c>
-      <c r="D18" s="50">
-        <v>42634</v>
-      </c>
-      <c r="E18" s="49">
-        <v>28</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="J18" s="47">
+      <c r="S18" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="42">
         <v>2</v>
       </c>
-      <c r="K18" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="51">
-        <v>2</v>
-      </c>
-      <c r="U18" s="51">
+      <c r="U18" s="42">
         <v>-1</v>
       </c>
-      <c r="V18" s="49">
+      <c r="V18" s="42">
         <v>15650</v>
       </c>
-      <c r="W18" s="49">
+      <c r="W18" s="42">
         <v>24000</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="42">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="Y18" s="49">
+      <c r="Y18" s="42">
         <v>150</v>
       </c>
-      <c r="Z18" s="47" t="s">
+      <c r="Z18" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="AA18" s="47">
+      <c r="AA18" s="42">
         <v>33</v>
       </c>
-      <c r="AB18" s="49">
+      <c r="AB18" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC18" s="42">
         <v>9</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AD18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF18" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>109</v>
       </c>
@@ -10935,20 +11316,26 @@
       <c r="AA19" s="7">
         <v>1</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AB19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC19" s="27">
         <v>16</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="7">
-        <v>4</v>
-      </c>
       <c r="AE19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>109</v>
       </c>
@@ -11031,20 +11418,26 @@
       <c r="AA20" s="7">
         <v>33</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AB20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC20" s="27">
         <v>10</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD20" s="7">
-        <v>4</v>
-      </c>
       <c r="AE20" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -11127,20 +11520,26 @@
       <c r="AA21" s="7">
         <v>1</v>
       </c>
-      <c r="AB21" s="27">
+      <c r="AB21" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC21" s="27">
         <v>16</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD21" s="7">
-        <v>4</v>
-      </c>
       <c r="AE21" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -11186,10 +11585,10 @@
       <c r="O22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="66" t="s">
         <v>35</v>
       </c>
       <c r="R22" s="27" t="s">
@@ -11223,116 +11622,126 @@
       <c r="AA22" s="7">
         <v>33</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AB22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC22" s="27">
         <v>10</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD22" s="7">
-        <v>4</v>
-      </c>
       <c r="AE22" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:33" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="45">
         <v>142</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="46">
         <v>42646</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="45">
         <v>28</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="43">
         <v>2</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="53" t="s">
+      <c r="M23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="53" t="s">
+      <c r="N23" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="53" t="s">
+      <c r="O23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="53" t="s">
+      <c r="P23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="53" t="s">
+      <c r="Q23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="55" t="s">
+      <c r="R23" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="55" t="s">
+      <c r="S23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="47">
         <v>0</v>
       </c>
-      <c r="U23" s="57">
+      <c r="U23" s="47">
         <v>-2</v>
       </c>
-      <c r="V23" s="55">
+      <c r="V23" s="45">
         <v>15650</v>
       </c>
-      <c r="W23" s="55">
+      <c r="W23" s="45">
         <v>25000</v>
       </c>
-      <c r="X23" s="53">
+      <c r="X23" s="43">
         <f t="shared" si="0"/>
         <v>9350</v>
       </c>
-      <c r="Y23" s="55">
+      <c r="Y23" s="45">
         <v>150</v>
       </c>
-      <c r="Z23" s="53" t="s">
+      <c r="Z23" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AA23" s="53">
+      <c r="AA23" s="43">
         <v>33</v>
       </c>
-      <c r="AB23" s="55">
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="45">
         <v>16</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AD23" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE23" s="7" t="s">
+      <c r="AE23" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF23" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="43" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>109</v>
       </c>
@@ -11415,23 +11824,27 @@
       <c r="AA24" s="7">
         <v>33</v>
       </c>
-      <c r="AB24" s="27">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="27">
         <v>16</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD24" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE24" s="7" t="s">
+      <c r="AE24" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="X31" s="36"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="X32" s="36"/>
     </row>
     <row r="33" spans="24:24" x14ac:dyDescent="0.2">
@@ -11508,10 +11921,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11537,15 +11950,15 @@
     <col min="24" max="24" width="24.1640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="71.5" style="19" customWidth="1"/>
     <col min="26" max="26" width="24.33203125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="39.5" style="19" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="39.5" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -11627,20 +12040,23 @@
       <c r="AA1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>107</v>
       </c>
@@ -11725,106 +12141,113 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="1">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:32" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="73">
         <v>60</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="72">
         <v>41982</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="73">
         <v>28</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="50" t="str">
         <f t="shared" ref="O3:O14" si="1">N3</f>
         <v>right</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="50" t="str">
         <f t="shared" ref="P3:P14" si="2">IF(O3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="75">
         <v>1</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="75">
         <v>0</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="74">
         <v>2100</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="74">
         <v>3751</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="50">
         <f>V3-U3</f>
         <v>1651</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="74">
         <v>150</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="74">
         <v>1</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="50">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="50" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE3" s="50"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
@@ -11909,106 +12332,113 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:32" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="73">
         <v>62</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="72">
         <v>42009</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="73">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="74" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="74" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="50" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="50" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="75">
         <v>1</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="75">
         <v>-1</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="74">
         <v>4099</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="74">
         <v>6005</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="50">
         <f t="shared" ref="W5:W14" si="3">V5-U5</f>
         <v>1906</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="74">
         <v>150</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="74">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC5" s="50">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="50" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE5" s="50"/>
+    </row>
+    <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>107</v>
       </c>
@@ -12093,14 +12523,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="1">
         <v>2</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>107</v>
       </c>
@@ -12185,14 +12618,17 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC7" s="1">
         <v>3</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>107</v>
       </c>
@@ -12277,14 +12713,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC8" s="1">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>107</v>
       </c>
@@ -12369,17 +12808,20 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC9" s="7">
         <v>3</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>107</v>
       </c>
@@ -12464,14 +12906,17 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC10" s="1">
         <v>3</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>107</v>
       </c>
@@ -12556,14 +13001,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC11" s="7">
         <v>3</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>107</v>
       </c>
@@ -12648,14 +13096,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC12" s="1">
         <v>1</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>107</v>
       </c>
@@ -12740,14 +13191,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC13" s="1">
         <v>1</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>107</v>
       </c>
@@ -12832,123 +13286,197 @@
       <c r="AA14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC14" s="1">
         <v>2</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="15:31" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="AB17" s="7"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="AC17" s="7"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="15:31" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="AB18" s="7"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="7"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="U19" s="15"/>
       <c r="AB19" s="7"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="7"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="U20" s="15"/>
       <c r="AB20" s="7"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="7"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="U21" s="15"/>
       <c r="AB21" s="7"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="U22" s="15"/>
       <c r="AB22" s="7"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P23" s="17"/>
       <c r="U23" s="15"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P24" s="17"/>
       <c r="U24" s="15"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P25" s="17"/>
       <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P26" s="17"/>
       <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P27" s="17"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P28" s="17"/>
       <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P29" s="17"/>
       <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P30" s="17"/>
       <c r="U30" s="17"/>
-    </row>
-    <row r="31" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P31" s="17"/>
       <c r="U31" s="17"/>
-    </row>
-    <row r="32" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P37" s="17"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB53" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12962,10 +13490,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12982,15 +13510,15 @@
     <col min="22" max="24" width="16.33203125" style="19" customWidth="1"/>
     <col min="25" max="25" width="70.1640625" style="19" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5" style="19" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="42.5" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -13072,20 +13600,23 @@
       <c r="AA1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -13170,14 +13701,17 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="1">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>104</v>
       </c>
@@ -13262,14 +13796,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="1">
         <v>2</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>104</v>
       </c>
@@ -13354,14 +13891,17 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>104</v>
       </c>
@@ -13446,14 +13986,17 @@
       <c r="AA5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>104</v>
       </c>
@@ -13504,10 +14047,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="21">
@@ -13538,106 +14081,113 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="1">
         <v>2</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:32" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="74">
         <v>35</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="72">
         <v>41990</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="74">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="50" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="50" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="75">
         <v>-2</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="75">
         <v>-2</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="74">
         <v>2500</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="74">
         <v>4503</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="50">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="74">
         <v>150</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="79">
         <v>1</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC7" s="50">
         <v>1</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="50" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE7" s="50"/>
+    </row>
+    <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>104</v>
       </c>
@@ -13688,10 +14238,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="21">
@@ -13722,14 +14272,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC8" s="1">
         <v>1</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -13780,10 +14333,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="21">
@@ -13814,14 +14367,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC9" s="7">
         <v>2</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>104</v>
       </c>
@@ -13906,20 +14462,23 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC10" s="1">
         <v>2</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AF10" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>104</v>
       </c>
@@ -14004,14 +14563,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC11" s="7">
         <v>3</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>104</v>
       </c>
@@ -14096,14 +14658,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC12" s="7">
         <v>3</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>104</v>
       </c>
@@ -14188,88 +14753,100 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC13" s="7">
         <v>3</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J14" s="18"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="R14" s="18"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J15" s="18"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="18"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J16" s="18"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="R16" s="17"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="R17" s="17"/>
       <c r="W17" s="1"/>
       <c r="AB17" s="7"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC17" s="7"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="R18" s="17"/>
       <c r="U18" s="15"/>
       <c r="W18" s="1"/>
       <c r="AB18" s="7"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="7"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="R19" s="17"/>
       <c r="U19" s="15"/>
       <c r="W19" s="1"/>
       <c r="AB19" s="7"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="7"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="R20" s="17"/>
       <c r="U20" s="15"/>
       <c r="W20" s="1"/>
       <c r="AB20" s="7"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="7"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" s="17"/>
       <c r="U21" s="15"/>
       <c r="W21" s="1"/>
       <c r="AB21" s="7"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="R22" s="17"/>
       <c r="U22" s="15"/>
       <c r="W22" s="1"/>
       <c r="AB22" s="7"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="R23" s="17"/>
@@ -14277,136 +14854,167 @@
       <c r="W23" s="1"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R24" s="17"/>
       <c r="U24" s="15"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R25" s="17"/>
       <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R26" s="17"/>
       <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R27" s="17"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R28" s="17"/>
       <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R29" s="17"/>
       <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R30" s="17"/>
-    </row>
-    <row r="31" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R32" s="17"/>
-    </row>
-    <row r="33" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R33" s="17"/>
-    </row>
-    <row r="34" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R34" s="17"/>
-    </row>
-    <row r="35" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R35" s="17"/>
-    </row>
-    <row r="36" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R36" s="17"/>
-    </row>
-    <row r="37" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R37" s="17"/>
-    </row>
-    <row r="38" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R38" s="17"/>
-    </row>
-    <row r="39" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R58" s="7"/>
     </row>
-    <row r="59" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R64" s="7"/>
     </row>
     <row r="65" spans="18:18" x14ac:dyDescent="0.2">
@@ -14499,10 +15107,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14512,7 +15120,7 @@
     <col min="26" max="26" width="108.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -14595,19 +15203,22 @@
         <v>96</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="AE1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
@@ -14690,20 +15301,23 @@
       <c r="AA2" s="7">
         <v>1</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC2" s="27">
         <v>16</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>109</v>
       </c>
@@ -14749,10 +15363,10 @@
       <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="41" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -14786,20 +15400,21 @@
       <c r="AA3" s="7">
         <v>1</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="27">
         <v>10</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -14845,10 +15460,10 @@
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="41" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="27" t="s">
@@ -14882,20 +15497,23 @@
       <c r="AA4" s="7">
         <v>1</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC4" s="27">
         <v>1</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="1">
-        <v>4</v>
-      </c>
       <c r="AE4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
@@ -14978,20 +15596,21 @@
       <c r="AA5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC5" s="27">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>109</v>
       </c>
@@ -15037,10 +15656,10 @@
       <c r="O6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="59" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="27" t="s">
@@ -15074,12 +15693,105 @@
       <c r="AA6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="27">
         <v>2</v>
       </c>
-      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="AB7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB11" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="AB13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AB15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="AB16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="AB17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="AB22" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="2460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="3320" yWindow="2460" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1717,8 +1717,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1945,8 +1947,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2047,6 +2055,7 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2147,6 +2156,7 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2427,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4578,7 +4588,7 @@
   </sheetPr>
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
@@ -9434,8 +9444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10373,7 +10383,7 @@
       <c r="C10" s="42">
         <v>139</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="80">
         <v>42601</v>
       </c>
       <c r="E10" s="42">
@@ -10859,7 +10869,7 @@
       <c r="C15" s="41">
         <v>140</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="81">
         <v>42625</v>
       </c>
       <c r="E15" s="41">
@@ -10949,7 +10959,7 @@
       <c r="C16" s="41">
         <v>140</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="81">
         <v>42625</v>
       </c>
       <c r="E16" s="41">
@@ -11039,7 +11049,7 @@
       <c r="C17" s="42">
         <v>141</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="80">
         <v>42634</v>
       </c>
       <c r="E17" s="42">
@@ -11141,7 +11151,7 @@
       <c r="C18" s="42">
         <v>141</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="80">
         <v>42634</v>
       </c>
       <c r="E18" s="42">
@@ -13492,7 +13502,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>

--- a/config/SFN_NHP_Coordinates_All.xlsx
+++ b/config/SFN_NHP_Coordinates_All.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subravcr/Projects/lab-schall/schalllab-spatial/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elseyjg/temp/schalllab-spatial/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="9360" windowWidth="30860" windowHeight="19440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Br" sheetId="2" r:id="rId1"/>
     <sheet name="Jo" sheetId="1" r:id="rId2"/>
     <sheet name="Da_WJ" sheetId="6" r:id="rId3"/>
     <sheet name="Da_K" sheetId="7" r:id="rId4"/>
-    <sheet name="Ga" sheetId="4" r:id="rId5"/>
-    <sheet name="He" sheetId="5" r:id="rId6"/>
-    <sheet name="Test" sheetId="8" r:id="rId7"/>
+    <sheet name="TestDarwin" sheetId="8" r:id="rId5"/>
+    <sheet name="Ga" sheetId="4" r:id="rId6"/>
+    <sheet name="He" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="443">
   <si>
     <t>a3</t>
   </si>
@@ -1145,6 +1145,18 @@
     <t>Users/Wolf/ephys_db/Helmholtz/2015-03-12a/DSP/DSP*/*MG*.mat</t>
   </si>
   <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160713-144841/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160715-150111/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160819-152223/Channel*/chan*.mat</t>
+  </si>
+  <si>
+    <t>Users/Kaleb/dataProcessed/Init_SetUp-160912-135839/Channel*/chan*.mat</t>
+  </si>
+  <si>
     <t>probeNo</t>
   </si>
   <si>
@@ -1340,7 +1352,16 @@
     <t>16, 15, 14, 13, 12, 11, 10, 9</t>
   </si>
   <si>
-    <t>1, 2, 3, 4</t>
+    <t>missingChannels</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>few channels, edge cutoff, missing channel</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1372,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1445,8 +1466,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1499,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1481,7 +1527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,8 +1727,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,8 +1905,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1958,6 +2076,7 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2057,6 +2176,7 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2335,10 +2455,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2359,13 +2479,14 @@
     <col min="22" max="23" width="18.83203125" customWidth="1"/>
     <col min="24" max="24" width="89.33203125" customWidth="1"/>
     <col min="25" max="26" width="26" customWidth="1"/>
-    <col min="27" max="27" width="48" style="1" customWidth="1"/>
-    <col min="28" max="28" width="35" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -2445,19 +2566,22 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -2537,22 +2661,25 @@
         <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="19">
+      <c r="AB2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC2" s="19">
         <v>3</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2600,10 +2727,10 @@
         <f t="shared" ref="O3:O18" si="2">IF(N3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="60" t="s">
         <v>46</v>
       </c>
       <c r="R3" s="8">
@@ -2637,14 +2764,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC3" s="19">
         <v>2</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD3" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2692,10 +2822,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="60" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="8">
@@ -2729,17 +2859,20 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC4" s="19">
         <v>3</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="AD4" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -2824,14 +2957,17 @@
       <c r="AA5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC5" s="19">
         <v>4</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD5" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2879,10 +3015,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="61" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="8">
@@ -2916,14 +3052,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC6" s="19">
         <v>4</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD6" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2971,10 +3110,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="61" t="s">
         <v>50</v>
       </c>
       <c r="R7" s="8">
@@ -3008,14 +3147,17 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC7" s="19">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD7" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -3100,14 +3242,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC8" s="19">
         <v>3</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD8" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -3192,14 +3337,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC9" s="19">
         <v>2</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -3284,106 +3432,113 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC10" s="19">
         <v>4</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="AD10" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="65">
         <v>216</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="66">
         <v>42473</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="67">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>left</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="65" t="str">
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="68">
         <v>-6</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="68">
         <v>4</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="65">
         <v>19000</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="65">
         <v>22000</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="65">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="65">
         <v>100</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="65">
         <v>8</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="65">
         <v>8</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC11" s="69">
         <v>2</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD11" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE11" s="65"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -3468,14 +3623,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="AB12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC12" s="19">
         <v>2</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD12" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -3523,10 +3681,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="62" t="s">
         <v>58</v>
       </c>
       <c r="R13" s="8">
@@ -3560,14 +3718,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC13" s="19">
         <v>1</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD13" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -3652,14 +3813,17 @@
       <c r="AA14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="AB14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC14" s="19">
         <v>3</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -3744,14 +3908,17 @@
       <c r="AA15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB15" s="19">
+      <c r="AB15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC15" s="19">
         <v>3</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD15" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3799,10 +3966,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="63" t="s">
         <v>55</v>
       </c>
       <c r="R16" s="8">
@@ -3836,14 +4003,17 @@
       <c r="AA16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC16" s="19">
         <v>4</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD16" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -3891,10 +4061,10 @@
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="62" t="s">
         <v>58</v>
       </c>
       <c r="R17" s="8">
@@ -3928,15 +4098,18 @@
       <c r="AA17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB17" s="19">
+      <c r="AB17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC17" s="19">
         <v>3</v>
       </c>
-      <c r="AC17" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -4021,15 +4194,18 @@
       <c r="AA18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC18" s="19">
         <v>3</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -4114,15 +4290,18 @@
       <c r="AA19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC19" s="19">
         <v>4</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -4207,15 +4386,18 @@
       <c r="AA20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC20" s="19">
         <v>4</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -4300,15 +4482,18 @@
       <c r="AA21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AB21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC21" s="19">
         <v>4</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -4356,10 +4541,10 @@
         <f t="shared" si="4"/>
         <v>right</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="63" t="s">
         <v>55</v>
       </c>
       <c r="R22" s="8">
@@ -4393,13 +4578,16 @@
       <c r="AA22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB22" s="19">
+      <c r="AB22" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC22" s="19">
         <v>4</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD22"/>
+      <c r="AD22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4419,10 +4607,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4450,14 +4638,15 @@
     <col min="26" max="26" width="16.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
     <col min="28" max="28" width="54.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="36.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="54.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="43.1640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="42.5" style="19" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="37.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="36.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="54.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="43.1640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="42.5" style="19" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -4540,22 +4729,25 @@
         <v>120</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -4642,14 +4834,17 @@
       <c r="AB2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD2" s="7">
         <v>2</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE2" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,14 +4931,17 @@
       <c r="AB3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE3" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,14 +5028,17 @@
       <c r="AB4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD4" s="1">
         <v>2</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE4" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -4924,14 +5125,17 @@
       <c r="AB5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD5" s="1">
         <v>4</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE5" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -5018,108 +5222,115 @@
       <c r="AB6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="AE6" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="53">
         <v>33</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="66">
         <v>42669</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="65">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="65" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="68">
         <v>4.8</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="68">
         <v>-4.7</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="65">
         <v>20000</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="65">
         <v>25500</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="65">
         <v>5500</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="65">
         <v>100</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="65">
         <v>8</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="65">
         <v>5</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD7" s="65">
         <v>2</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE7" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG7" s="69"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -5206,14 +5417,17 @@
       <c r="AB8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD8" s="1">
         <v>3</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE8" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -5300,14 +5514,17 @@
       <c r="AB9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD9" s="7">
         <v>2</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -5394,17 +5611,20 @@
       <c r="AB10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD10" s="1">
         <v>3</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="AE10" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -5491,14 +5711,17 @@
       <c r="AB11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD11" s="7">
         <v>2</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -5585,14 +5808,17 @@
       <c r="AB12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD12" s="7">
         <v>3</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -5679,14 +5905,17 @@
       <c r="AB13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD13" s="7">
         <v>4</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -5773,14 +6002,17 @@
       <c r="AB14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD14" s="1">
         <v>3</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -5867,14 +6099,17 @@
       <c r="AB15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD15" s="1">
         <v>4</v>
       </c>
-      <c r="AD15" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -5961,14 +6196,17 @@
       <c r="AB16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD16" s="1">
         <v>2</v>
       </c>
-      <c r="AD16" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE16" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -6055,15 +6293,18 @@
       <c r="AB17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD17" s="7">
         <v>1</v>
       </c>
-      <c r="AD17" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE17"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF17"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6150,15 +6391,18 @@
       <c r="AB18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD18" s="7">
         <v>3</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE18"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -6245,124 +6489,131 @@
       <c r="AB19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD19" s="7">
         <v>3</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE19"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="AE19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF19"/>
+    </row>
+    <row r="20" spans="1:33" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="53">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="66">
         <v>42754</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="65">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N20" s="65" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O20" s="1" t="str">
+      <c r="O20" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="68">
         <v>2</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="68">
         <v>-3</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="65">
         <v>20000</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="65">
         <v>26000</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="65">
         <v>6000</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="65">
         <v>100</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="65">
         <v>8</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="65">
         <v>8</v>
       </c>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD20" s="53">
         <v>1</v>
       </c>
-      <c r="AD20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC21" s="7"/>
-      <c r="AE21"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC22" s="7"/>
-      <c r="AE22"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC23" s="7"/>
+      <c r="AE20" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="69"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD21" s="7"/>
+      <c r="AF21"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD22" s="7"/>
+      <c r="AF22"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AD23" s="7"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC24" s="7"/>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6376,10 +6627,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6406,13 +6657,13 @@
     <col min="24" max="24" width="106.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" style="10" customWidth="1"/>
     <col min="26" max="26" width="18.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -6492,16 +6743,19 @@
         <v>80</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="AB1" s="83" t="s">
+        <v>439</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>109</v>
       </c>
@@ -6586,14 +6840,17 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC2" s="1">
         <v>4</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
@@ -6678,14 +6935,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>109</v>
       </c>
@@ -6770,106 +7030,112 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC4" s="1">
         <v>4</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="69">
         <v>129</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="72">
         <v>42422</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="69">
         <v>28</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="69" t="str">
         <f t="shared" si="0"/>
         <v>left</v>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="69" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="73">
         <v>2</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="73">
         <v>0</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="69">
         <v>18000</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="69">
         <v>24500</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="69">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="69">
         <v>150</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="75">
         <v>1</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="69">
         <v>4</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC5" s="65">
         <v>2</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>109</v>
       </c>
@@ -6954,14 +7220,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC6" s="1">
         <v>4</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>109</v>
       </c>
@@ -7046,106 +7315,112 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC7" s="1">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="AD7" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="69">
         <v>130</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="72">
         <v>42426</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="69">
         <v>28</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="69" t="str">
         <f t="shared" ref="N8:N13" si="3">M8</f>
         <v>left</v>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="69" t="str">
         <f t="shared" ref="O8:O13" si="4">IF(N8="left", "right", "left")</f>
         <v>right</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="73">
         <v>1</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="73">
         <v>0</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="69">
         <v>18000</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="69">
         <v>23200</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="69">
         <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="69">
         <v>150</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="X8" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="75">
         <v>1</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="69">
         <v>5</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC8" s="65">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>109</v>
       </c>
@@ -7230,14 +7505,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC9" s="1">
         <v>4</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>109</v>
       </c>
@@ -7322,14 +7600,17 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC10" s="1">
         <v>4</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>109</v>
       </c>
@@ -7414,14 +7695,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC11" s="1">
         <v>4</v>
       </c>
-      <c r="AC11" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>109</v>
       </c>
@@ -7506,14 +7790,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC12" s="7">
         <v>4</v>
       </c>
-      <c r="AC12" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>109</v>
       </c>
@@ -7598,14 +7885,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC13" s="1">
         <v>4</v>
       </c>
-      <c r="AC13" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="25"/>
       <c r="C14" s="27"/>
@@ -7632,8 +7922,9 @@
       <c r="X14" s="29"/>
       <c r="Y14" s="32"/>
       <c r="Z14" s="27"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="25"/>
       <c r="C15" s="27"/>
@@ -7660,8 +7951,9 @@
       <c r="X15" s="29"/>
       <c r="Y15" s="32"/>
       <c r="Z15" s="27"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="25"/>
       <c r="C16" s="27"/>
@@ -7688,8 +7980,9 @@
       <c r="X16" s="29"/>
       <c r="Y16" s="32"/>
       <c r="Z16" s="27"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="25"/>
       <c r="C17" s="27"/>
@@ -7716,8 +8009,9 @@
       <c r="X17" s="29"/>
       <c r="Y17" s="32"/>
       <c r="Z17" s="27"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="25"/>
       <c r="C18" s="27"/>
@@ -7744,8 +8038,9 @@
       <c r="X18" s="29"/>
       <c r="Y18" s="32"/>
       <c r="Z18" s="27"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="25"/>
       <c r="C19" s="27"/>
@@ -7772,8 +8067,9 @@
       <c r="X19" s="29"/>
       <c r="Y19" s="32"/>
       <c r="Z19" s="27"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="25"/>
       <c r="C20" s="27"/>
@@ -7800,8 +8096,9 @@
       <c r="X20" s="29"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="27"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="25"/>
       <c r="C21" s="27"/>
@@ -7828,8 +8125,9 @@
       <c r="X21" s="29"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="27"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="25"/>
       <c r="C22" s="27"/>
@@ -7856,8 +8154,9 @@
       <c r="X22" s="29"/>
       <c r="Y22" s="32"/>
       <c r="Z22" s="27"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="25"/>
       <c r="C23" s="27"/>
@@ -7884,8 +8183,9 @@
       <c r="X23" s="29"/>
       <c r="Y23" s="32"/>
       <c r="Z23" s="27"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="25"/>
       <c r="C24" s="27"/>
@@ -7912,8 +8212,9 @@
       <c r="X24" s="29"/>
       <c r="Y24" s="32"/>
       <c r="Z24" s="27"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="25"/>
       <c r="C25" s="27"/>
@@ -7940,8 +8241,9 @@
       <c r="X25" s="29"/>
       <c r="Y25" s="32"/>
       <c r="Z25" s="27"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="25"/>
       <c r="C26" s="27"/>
@@ -7968,8 +8270,9 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="32"/>
       <c r="Z26" s="27"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="25"/>
       <c r="C27" s="27"/>
@@ -7996,8 +8299,9 @@
       <c r="X27" s="29"/>
       <c r="Y27" s="32"/>
       <c r="Z27" s="27"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="25"/>
       <c r="C28" s="27"/>
@@ -8024,8 +8328,9 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="32"/>
       <c r="Z28" s="27"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="25"/>
       <c r="C29" s="27"/>
@@ -8052,8 +8357,9 @@
       <c r="X29" s="29"/>
       <c r="Y29" s="32"/>
       <c r="Z29" s="27"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="25"/>
       <c r="C30" s="27"/>
@@ -8080,8 +8386,9 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="32"/>
       <c r="Z30" s="27"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="25"/>
       <c r="C31" s="27"/>
@@ -8108,8 +8415,9 @@
       <c r="X31" s="29"/>
       <c r="Y31" s="32"/>
       <c r="Z31" s="27"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="25"/>
       <c r="C32" s="27"/>
@@ -8136,8 +8444,9 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="32"/>
       <c r="Z32" s="27"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="25"/>
       <c r="C33" s="27"/>
@@ -8164,8 +8473,9 @@
       <c r="X33" s="29"/>
       <c r="Y33" s="32"/>
       <c r="Z33" s="27"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="25"/>
       <c r="C34" s="27"/>
@@ -8192,8 +8502,9 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="32"/>
       <c r="Z34" s="27"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="25"/>
       <c r="C35" s="27"/>
@@ -8220,8 +8531,9 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="32"/>
       <c r="Z35" s="27"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="25"/>
       <c r="C36" s="27"/>
@@ -8248,8 +8560,9 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="32"/>
       <c r="Z36" s="27"/>
-    </row>
-    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -8265,8 +8578,9 @@
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -8282,8 +8596,9 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -8299,8 +8614,9 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -8316,8 +8632,9 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -8333,8 +8650,9 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -8350,8 +8668,9 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-    </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -8367,8 +8686,9 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
-    </row>
-    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -8384,8 +8704,9 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -8401,8 +8722,9 @@
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
-    </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -8418,8 +8740,9 @@
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -8435,8 +8758,9 @@
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-    </row>
-    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -8452,8 +8776,9 @@
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-    </row>
-    <row r="49" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8469,8 +8794,9 @@
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-    </row>
-    <row r="50" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -8486,8 +8812,9 @@
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -8503,8 +8830,9 @@
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
-    </row>
-    <row r="52" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -8520,8 +8848,9 @@
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
-    </row>
-    <row r="53" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8537,8 +8866,9 @@
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
-    </row>
-    <row r="54" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -8555,7 +8885,7 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
     </row>
-    <row r="55" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -8572,7 +8902,7 @@
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
     </row>
-    <row r="56" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -8589,7 +8919,7 @@
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
     </row>
-    <row r="57" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -8606,7 +8936,7 @@
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="58" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -8623,7 +8953,7 @@
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
     </row>
-    <row r="59" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -8640,7 +8970,7 @@
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
     </row>
-    <row r="60" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -8657,7 +8987,7 @@
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
     </row>
-    <row r="61" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -8674,7 +9004,7 @@
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
     </row>
-    <row r="62" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -8691,7 +9021,7 @@
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -8708,7 +9038,7 @@
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -9144,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9165,12 +9495,12 @@
     <col min="25" max="25" width="16.1640625" customWidth="1"/>
     <col min="26" max="26" width="105.5" customWidth="1"/>
     <col min="27" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="37.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="48" style="1" customWidth="1"/>
-    <col min="31" max="31" width="71" style="1" customWidth="1"/>
+    <col min="29" max="30" width="37.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="48" style="1" customWidth="1"/>
+    <col min="32" max="32" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -9199,7 +9529,7 @@
         <v>93</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>92</v>
@@ -9256,16 +9586,19 @@
         <v>80</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
@@ -9291,7 +9624,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
@@ -9354,14 +9687,17 @@
       <c r="AC2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>109</v>
       </c>
@@ -9387,7 +9723,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -9450,14 +9786,17 @@
       <c r="AC3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -9483,7 +9822,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -9544,7 +9883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
@@ -9570,7 +9909,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -9633,14 +9972,17 @@
       <c r="AC5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE5" s="1">
         <v>4</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>109</v>
       </c>
@@ -9666,7 +10008,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
@@ -9729,14 +10071,17 @@
       <c r="AC6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -9762,7 +10107,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
@@ -9825,14 +10170,17 @@
       <c r="AC7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD7" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>109</v>
       </c>
@@ -9858,7 +10206,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -9921,14 +10269,17 @@
       <c r="AC8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>109</v>
       </c>
@@ -9954,7 +10305,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -10017,14 +10368,17 @@
       <c r="AC9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>109</v>
       </c>
@@ -10050,7 +10404,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="J10" s="47">
         <v>1</v>
@@ -10111,7 +10465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>109</v>
       </c>
@@ -10137,7 +10491,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
@@ -10200,14 +10554,17 @@
       <c r="AC11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD11" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>109</v>
       </c>
@@ -10233,7 +10590,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
@@ -10296,14 +10653,17 @@
       <c r="AC12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>109</v>
       </c>
@@ -10329,7 +10689,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -10392,14 +10752,17 @@
       <c r="AC13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>109</v>
       </c>
@@ -10425,7 +10788,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
@@ -10486,7 +10849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>109</v>
       </c>
@@ -10512,7 +10875,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J15" s="41">
         <v>1</v>
@@ -10573,7 +10936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>109</v>
       </c>
@@ -10599,7 +10962,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J16" s="41">
         <v>2</v>
@@ -10660,7 +11023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>109</v>
       </c>
@@ -10686,7 +11049,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J17" s="47">
         <v>1</v>
@@ -10749,14 +11112,17 @@
       <c r="AC17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD17" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>109</v>
       </c>
@@ -10782,7 +11148,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J18" s="47">
         <v>2</v>
@@ -10845,14 +11211,17 @@
       <c r="AC18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>109</v>
       </c>
@@ -10878,7 +11247,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
@@ -10941,14 +11310,17 @@
       <c r="AC19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>109</v>
       </c>
@@ -10974,7 +11346,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
@@ -11037,14 +11409,17 @@
       <c r="AC20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD20" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -11070,7 +11445,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -11133,14 +11508,17 @@
       <c r="AC21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD21" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -11166,7 +11544,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
@@ -11229,14 +11607,17 @@
       <c r="AC22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD22" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD22" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>109</v>
       </c>
@@ -11262,7 +11643,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J23" s="53">
         <v>2</v>
@@ -11325,14 +11706,17 @@
       <c r="AC23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD23" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE23" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD23" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>109</v>
       </c>
@@ -11358,7 +11742,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -11421,17 +11805,20 @@
       <c r="AC24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD24" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE24" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD24" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="X31" s="36"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="X32" s="36"/>
     </row>
     <row r="33" spans="24:24" x14ac:dyDescent="0.2">
@@ -11505,13 +11892,450 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="27">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11">
+        <v>42564</v>
+      </c>
+      <c r="E2" s="27">
+        <v>28</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
+        <v>3</v>
+      </c>
+      <c r="T2" s="31">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V2" s="35">
+        <v>21000</v>
+      </c>
+      <c r="W2" s="36">
+        <f t="shared" ref="W2:W5" si="0">V2-U2</f>
+        <v>3800</v>
+      </c>
+      <c r="X2" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="27">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42566</v>
+      </c>
+      <c r="E3" s="27">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="31">
+        <v>3</v>
+      </c>
+      <c r="T3" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="35">
+        <v>17200</v>
+      </c>
+      <c r="V3" s="35">
+        <v>21500</v>
+      </c>
+      <c r="W3" s="36">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="X3" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27">
+        <v>139</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42601</v>
+      </c>
+      <c r="E4" s="27">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31">
+        <v>4</v>
+      </c>
+      <c r="T4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V4" s="35">
+        <v>23800</v>
+      </c>
+      <c r="W4" s="36">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="X4" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="27">
+        <v>140</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42625</v>
+      </c>
+      <c r="E5" s="27">
+        <v>28</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31">
+        <v>2</v>
+      </c>
+      <c r="U5" s="35">
+        <v>18000</v>
+      </c>
+      <c r="V5" s="35">
+        <v>25500</v>
+      </c>
+      <c r="W5" s="36">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="X5" s="27">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11537,15 +12361,15 @@
     <col min="24" max="24" width="24.1640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="71.5" style="19" customWidth="1"/>
     <col min="26" max="26" width="24.33203125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="39.5" style="19" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="39.5" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -11625,22 +12449,25 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="AB1" s="83" t="s">
+        <v>439</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AF1" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>107</v>
       </c>
@@ -11725,106 +12552,113 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC2" s="1">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="77">
         <v>60</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="76">
         <v>41982</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="77">
         <v>28</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="65" t="str">
         <f t="shared" ref="O3:O14" si="1">N3</f>
         <v>right</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="65" t="str">
         <f t="shared" ref="P3:P14" si="2">IF(O3="left", "right", "left")</f>
         <v>left</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="79">
         <v>1</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="79">
         <v>0</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="78">
         <v>2100</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="78">
         <v>3751</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="65">
         <f>V3-U3</f>
         <v>1651</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="78">
         <v>150</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="78">
         <v>1</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC3" s="65">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD3" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE3" s="65"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
@@ -11909,106 +12743,113 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="77">
         <v>62</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="76">
         <v>42009</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="77">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="78" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="65" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="79">
         <v>1</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="79">
         <v>-1</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="78">
         <v>4099</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="78">
         <v>6005</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="65">
         <f t="shared" ref="W5:W14" si="3">V5-U5</f>
         <v>1906</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="78">
         <v>150</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="78">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC5" s="65">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD5" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE5" s="65"/>
+    </row>
+    <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>107</v>
       </c>
@@ -12093,14 +12934,17 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC6" s="1">
         <v>2</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD6" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>107</v>
       </c>
@@ -12185,14 +13029,17 @@
       <c r="AA7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC7" s="1">
         <v>3</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD7" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>107</v>
       </c>
@@ -12277,14 +13124,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC8" s="1">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD8" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>107</v>
       </c>
@@ -12369,17 +13219,20 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC9" s="7">
         <v>3</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>107</v>
       </c>
@@ -12464,14 +13317,17 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC10" s="1">
         <v>3</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD10" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>107</v>
       </c>
@@ -12556,14 +13412,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC11" s="7">
         <v>3</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD11" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>107</v>
       </c>
@@ -12648,14 +13507,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC12" s="1">
         <v>1</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD12" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>107</v>
       </c>
@@ -12740,14 +13602,17 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC13" s="1">
         <v>1</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD13" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>107</v>
       </c>
@@ -12832,123 +13697,197 @@
       <c r="AA14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC14" s="1">
         <v>2</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="AD14" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="15:31" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="AB17" s="7"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="AC17" s="7"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="15:31" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="AB18" s="7"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="7"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="U19" s="15"/>
       <c r="AB19" s="7"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="7"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="U20" s="15"/>
       <c r="AB20" s="7"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="7"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="U21" s="15"/>
       <c r="AB21" s="7"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="U22" s="15"/>
       <c r="AB22" s="7"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P23" s="17"/>
       <c r="U23" s="15"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P24" s="17"/>
       <c r="U24" s="15"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P25" s="17"/>
       <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P26" s="17"/>
       <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P27" s="17"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P28" s="17"/>
       <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P29" s="17"/>
       <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P30" s="17"/>
       <c r="U30" s="17"/>
-    </row>
-    <row r="31" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P31" s="17"/>
       <c r="U31" s="17"/>
-    </row>
-    <row r="32" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="16:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="16:28" ht="17" x14ac:dyDescent="0.2">
       <c r="P37" s="17"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB53" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12957,15 +13896,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12982,15 +13921,15 @@
     <col min="22" max="24" width="16.33203125" style="19" customWidth="1"/>
     <col min="25" max="25" width="70.1640625" style="19" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="37.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="48" style="1" customWidth="1"/>
-    <col min="29" max="29" width="71" style="1" customWidth="1"/>
-    <col min="30" max="30" width="88.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5" style="19" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="19"/>
+    <col min="27" max="28" width="37.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="48" style="1" customWidth="1"/>
+    <col min="30" max="30" width="71" style="1" customWidth="1"/>
+    <col min="31" max="31" width="88.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="42.5" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -13070,22 +14009,25 @@
         <v>96</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="AB1" s="83" t="s">
+        <v>439</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AF1" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -13170,14 +14112,17 @@
       <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC2" s="1">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD2" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>104</v>
       </c>
@@ -13262,14 +14207,17 @@
       <c r="AA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC3" s="1">
         <v>2</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD3" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>104</v>
       </c>
@@ -13354,14 +14302,17 @@
       <c r="AA4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD4" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>104</v>
       </c>
@@ -13446,14 +14397,17 @@
       <c r="AA5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD5" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>104</v>
       </c>
@@ -13504,10 +14458,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="21">
@@ -13538,106 +14492,113 @@
       <c r="AA6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC6" s="1">
         <v>2</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="AD6" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="69" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="78">
         <v>35</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="76">
         <v>41990</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="78">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>right</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="65" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="79">
         <v>-2</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="79">
         <v>-2</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="78">
         <v>2500</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="78">
         <v>4503</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="65">
         <f t="shared" si="3"/>
         <v>2003</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="78">
         <v>150</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="82">
         <v>1</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC7" s="65">
         <v>1</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD7" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE7" s="65"/>
+    </row>
+    <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>104</v>
       </c>
@@ -13688,10 +14649,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="21">
@@ -13722,14 +14683,17 @@
       <c r="AA8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC8" s="1">
         <v>1</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD8" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -13780,10 +14744,10 @@
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="64" t="s">
         <v>9</v>
       </c>
       <c r="S9" s="21">
@@ -13814,14 +14778,17 @@
       <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC9" s="7">
         <v>2</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD9" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>104</v>
       </c>
@@ -13906,20 +14873,23 @@
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC10" s="1">
         <v>2</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="AD10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE10" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE10" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AF10" s="19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>104</v>
       </c>
@@ -14004,14 +14974,17 @@
       <c r="AA11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC11" s="7">
         <v>3</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>104</v>
       </c>
@@ -14096,14 +15069,17 @@
       <c r="AA12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC12" s="7">
         <v>3</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD12" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>104</v>
       </c>
@@ -14188,88 +15164,100 @@
       <c r="AA13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC13" s="7">
         <v>3</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J14" s="18"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="R14" s="18"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J15" s="18"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="R15" s="18"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="J16" s="18"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="R16" s="17"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="R17" s="17"/>
       <c r="W17" s="1"/>
       <c r="AB17" s="7"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC17" s="7"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="R18" s="17"/>
       <c r="U18" s="15"/>
       <c r="W18" s="1"/>
       <c r="AB18" s="7"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="7"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="R19" s="17"/>
       <c r="U19" s="15"/>
       <c r="W19" s="1"/>
       <c r="AB19" s="7"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="7"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="R20" s="17"/>
       <c r="U20" s="15"/>
       <c r="W20" s="1"/>
       <c r="AB20" s="7"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="7"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="R21" s="17"/>
       <c r="U21" s="15"/>
       <c r="W21" s="1"/>
       <c r="AB21" s="7"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="7"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="R22" s="17"/>
       <c r="U22" s="15"/>
       <c r="W22" s="1"/>
       <c r="AB22" s="7"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="7"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="R23" s="17"/>
@@ -14277,136 +15265,167 @@
       <c r="W23" s="1"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R24" s="17"/>
       <c r="U24" s="15"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R25" s="17"/>
       <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R26" s="17"/>
       <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R27" s="17"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R28" s="17"/>
       <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R29" s="17"/>
       <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R30" s="17"/>
-    </row>
-    <row r="31" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="15:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="15:31" ht="17" x14ac:dyDescent="0.2">
       <c r="R32" s="17"/>
-    </row>
-    <row r="33" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R33" s="17"/>
-    </row>
-    <row r="34" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R34" s="17"/>
-    </row>
-    <row r="35" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R35" s="17"/>
-    </row>
-    <row r="36" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R36" s="17"/>
-    </row>
-    <row r="37" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R37" s="17"/>
-    </row>
-    <row r="38" spans="18:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="18:28" ht="17" x14ac:dyDescent="0.2">
       <c r="R38" s="17"/>
-    </row>
-    <row r="39" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R58" s="7"/>
     </row>
-    <row r="59" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R64" s="7"/>
     </row>
     <row r="65" spans="18:18" x14ac:dyDescent="0.2">
@@ -14495,593 +15514,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="79.83203125" customWidth="1"/>
-    <col min="26" max="26" width="108.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="27">
-        <v>141</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42639</v>
-      </c>
-      <c r="E2" s="27">
-        <v>28</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="31">
-        <v>0</v>
-      </c>
-      <c r="U2" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V2" s="35">
-        <v>18000</v>
-      </c>
-      <c r="W2" s="35">
-        <v>18500</v>
-      </c>
-      <c r="X2" s="36">
-        <f t="shared" ref="X2" si="0">W2-V2</f>
-        <v>500</v>
-      </c>
-      <c r="Y2" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="27">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="27">
-        <v>137</v>
-      </c>
-      <c r="D3" s="11">
-        <v>42590</v>
-      </c>
-      <c r="E3" s="27">
-        <v>28</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="31">
-        <v>2</v>
-      </c>
-      <c r="U3" s="34">
-        <v>-2</v>
-      </c>
-      <c r="V3" s="36">
-        <v>18000</v>
-      </c>
-      <c r="W3" s="36">
-        <v>25000</v>
-      </c>
-      <c r="X3" s="36">
-        <f t="shared" ref="X3" si="1">W3-V3</f>
-        <v>7000</v>
-      </c>
-      <c r="Y3" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="27">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="27">
-        <v>134</v>
-      </c>
-      <c r="D4" s="11">
-        <v>42562</v>
-      </c>
-      <c r="E4" s="27">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="31">
-        <v>3</v>
-      </c>
-      <c r="U4" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V4" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W4" s="35">
-        <v>21000</v>
-      </c>
-      <c r="X4" s="36">
-        <f>W4-V4</f>
-        <v>3800</v>
-      </c>
-      <c r="Y4" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="27">
-        <v>134</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42564</v>
-      </c>
-      <c r="E5" s="27">
-        <v>28</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="31">
-        <v>3</v>
-      </c>
-      <c r="U5" s="31">
-        <v>-2</v>
-      </c>
-      <c r="V5" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W5" s="35">
-        <v>21000</v>
-      </c>
-      <c r="X5" s="36">
-        <f t="shared" ref="X5:X6" si="2">W5-V5</f>
-        <v>3800</v>
-      </c>
-      <c r="Y5" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="27">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="27">
-        <v>135</v>
-      </c>
-      <c r="D6" s="11">
-        <v>42566</v>
-      </c>
-      <c r="E6" s="27">
-        <v>28</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="31">
-        <v>3</v>
-      </c>
-      <c r="U6" s="31">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="35">
-        <v>17200</v>
-      </c>
-      <c r="W6" s="35">
-        <v>21500</v>
-      </c>
-      <c r="X6" s="36">
-        <f t="shared" si="2"/>
-        <v>4300</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>150</v>
-      </c>
-      <c r="Z6" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="27">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>